--- a/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC688CAE-2DDD-499B-AA78-8E41E6DA313F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF0CBD-844C-4035-A0C6-E4C93A7D1B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,18 +1220,204 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,195 +1426,6 @@
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ75" sqref="AQ75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31:AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1776,140 +1773,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="62" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="59">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="51">
         <v>45078</v>
       </c>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="61"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="62" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="59">
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="51">
         <v>45107</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:59" ht="16" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="68" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68" t="s">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="65" t="s">
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="12">
         <f>AH1</f>
         <v>45078</v>
@@ -2034,41 +2031,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66" t="s">
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66" t="s">
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="66"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
       <c r="AB5" s="20">
         <f>AH1</f>
         <v>45078</v>
@@ -2191,33 +2188,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
       <c r="AB6" s="21" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -2340,41 +2337,41 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="37">
         <v>45079</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37">
         <v>45082</v>
       </c>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="4"/>
@@ -2407,45 +2404,45 @@
       <c r="BE7" s="16"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="27">
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="37">
         <v>45079</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27">
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37">
         <v>45079</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="36" t="s">
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="4"/>
@@ -2478,45 +2475,45 @@
       <c r="BE8" s="16"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="33">
         <v>1.2</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27">
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="37">
         <v>45079</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27">
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>45082</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="36" t="s">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="4"/>
@@ -2549,45 +2546,45 @@
       <c r="BE9" s="16"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="33">
         <v>1.3</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27">
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="37">
         <v>45079</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27">
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37">
         <v>45082</v>
       </c>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="36" t="s">
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="4"/>
@@ -2620,45 +2617,45 @@
       <c r="BE10" s="16"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="33">
         <v>1.4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27">
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="37">
         <v>45082</v>
       </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27">
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37">
         <v>45082</v>
       </c>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="36" t="s">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2691,41 +2688,41 @@
       <c r="BE11" s="16"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="37">
         <v>45083</v>
       </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27">
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>45084</v>
       </c>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2758,45 +2755,45 @@
       <c r="BE12" s="16"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="33">
         <v>2.1</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26" t="s">
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27">
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="37">
         <v>45083</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27">
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37">
         <v>45089</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="35" t="s">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2829,45 +2826,45 @@
       <c r="BE13" s="16"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="33">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="42" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="53" t="s">
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="27">
+      <c r="Q14" s="74"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="37">
         <v>45083</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27">
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37">
         <v>45083</v>
       </c>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="36" t="s">
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2900,45 +2897,45 @@
       <c r="BE14" s="16"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="A15" s="70">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="37" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="37" t="s">
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="47">
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="78">
         <v>45084</v>
       </c>
-      <c r="T15" s="48"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="47">
+      <c r="T15" s="79"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="78">
         <v>45089</v>
       </c>
-      <c r="W15" s="48"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="50" t="s">
+      <c r="W15" s="79"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="52"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="83"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2971,45 +2968,45 @@
       <c r="BE15" s="16"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="87">
         <v>2.4</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27">
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="37">
         <v>45084</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27">
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37">
         <v>45089</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="35" t="s">
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -3042,45 +3039,45 @@
       <c r="BE16" s="16"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="33">
         <v>2.5</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27">
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="37">
         <v>45083</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27">
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37">
         <v>45084</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="35" t="s">
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -3113,43 +3110,43 @@
       <c r="BE17" s="16"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="A18" s="33">
         <v>2.6</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26" t="s">
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27">
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="37">
         <v>45084</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="32">
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="45">
         <v>0.2</v>
       </c>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -3182,37 +3179,37 @@
       <c r="BE18" s="16"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="33">
         <v>3</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -3245,45 +3242,45 @@
       <c r="BE19" s="16"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="33">
         <v>3.1</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26" t="s">
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27">
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="37">
         <v>45086</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27">
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37">
         <v>45089</v>
       </c>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="32">
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="45">
         <v>0.8</v>
       </c>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -3316,39 +3313,39 @@
       <c r="BE20" s="16"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="33">
         <v>4</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="37">
         <v>45089</v>
       </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -3381,41 +3378,41 @@
       <c r="BE21" s="16"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="27">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="37">
         <v>45089</v>
       </c>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27">
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37">
         <v>45093</v>
       </c>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3427,18 +3424,18 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="81"/>
-      <c r="AP22" s="81"/>
-      <c r="AQ22" s="81"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
-      <c r="AT22" s="79"/>
-      <c r="AU22" s="79"/>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="79"/>
-      <c r="AX22" s="79"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
@@ -3448,43 +3445,43 @@
       <c r="BE22" s="16"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26" t="s">
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="27">
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="37">
         <v>45090</v>
       </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27">
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37">
         <v>45093</v>
       </c>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3496,18 +3493,18 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="79"/>
-      <c r="AN23" s="80"/>
-      <c r="AO23" s="80"/>
-      <c r="AP23" s="80"/>
-      <c r="AQ23" s="80"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
-      <c r="AT23" s="79"/>
-      <c r="AU23" s="79"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4"/>
@@ -3517,43 +3514,43 @@
       <c r="BE23" s="16"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26" t="s">
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="27">
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="37">
         <v>45090</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27">
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37">
         <v>45093</v>
       </c>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3565,11 +3562,11 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="79"/>
-      <c r="AN24" s="80"/>
-      <c r="AO24" s="80"/>
-      <c r="AP24" s="80"/>
-      <c r="AQ24" s="80"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="24"/>
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
@@ -3586,43 +3583,43 @@
       <c r="BE24" s="16"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26" t="s">
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27">
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="37">
         <v>45090</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27">
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37">
         <v>45093</v>
       </c>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3634,11 +3631,11 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="80"/>
-      <c r="AQ25" s="80"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
@@ -3655,45 +3652,45 @@
       <c r="BE25" s="16"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="86" t="s">
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="27">
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="37">
         <v>45089</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27">
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37">
         <v>45093</v>
       </c>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="32">
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="45">
         <v>0.64</v>
       </c>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3705,11 +3702,11 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="80"/>
-      <c r="AN26" s="80"/>
-      <c r="AO26" s="80"/>
-      <c r="AP26" s="80"/>
-      <c r="AQ26" s="80"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
@@ -3726,45 +3723,45 @@
       <c r="BE26" s="16"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="87" t="s">
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="27">
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="37">
         <v>45089</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27">
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37">
         <v>45093</v>
       </c>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="32">
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="45">
         <v>0.3</v>
       </c>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3776,11 +3773,11 @@
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="80"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
@@ -3797,45 +3794,45 @@
       <c r="BE27" s="16"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="88" t="s">
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="27">
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="37">
         <v>45089</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27">
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37">
         <v>45093</v>
       </c>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="32">
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="45">
         <v>0.8</v>
       </c>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3847,11 +3844,11 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="80"/>
-      <c r="AN28" s="80"/>
-      <c r="AO28" s="80"/>
-      <c r="AP28" s="80"/>
-      <c r="AQ28" s="80"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="24"/>
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
@@ -3868,45 +3865,45 @@
       <c r="BE28" s="16"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="88" t="s">
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="27">
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="37">
         <v>45089</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27">
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37">
         <v>45093</v>
       </c>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="24" t="s">
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3918,11 +3915,11 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
@@ -3939,45 +3936,45 @@
       <c r="BE29" s="16"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="89" t="s">
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="27">
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37">
         <v>45089</v>
       </c>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27">
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37">
         <v>45093</v>
       </c>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="32">
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="45">
         <v>0.7</v>
       </c>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3989,11 +3986,11 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="80"/>
-      <c r="AN30" s="80"/>
-      <c r="AO30" s="80"/>
-      <c r="AP30" s="80"/>
-      <c r="AQ30" s="80"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="24"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
@@ -4010,43 +4007,43 @@
       <c r="BE30" s="16"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26" t="s">
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="27">
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="37">
         <v>45090</v>
       </c>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27">
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37">
         <v>45093</v>
       </c>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -4058,11 +4055,11 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="80"/>
-      <c r="AO31" s="80"/>
-      <c r="AP31" s="80"/>
-      <c r="AQ31" s="80"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
@@ -4079,43 +4076,43 @@
       <c r="BE31" s="16"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="33">
         <v>4.2</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="85" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="27">
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="37">
         <v>45089</v>
       </c>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27">
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37">
         <v>45093</v>
       </c>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -4127,18 +4124,18 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="84"/>
-      <c r="AN32" s="84"/>
-      <c r="AO32" s="84"/>
-      <c r="AP32" s="84"/>
-      <c r="AQ32" s="84"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="28"/>
       <c r="AR32" s="4"/>
       <c r="AS32" s="4"/>
-      <c r="AT32" s="79"/>
-      <c r="AU32" s="79"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="79"/>
-      <c r="AX32" s="79"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="4"/>
       <c r="BA32" s="4"/>
@@ -4148,45 +4145,45 @@
       <c r="BE32" s="16"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="85" t="s">
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="27">
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="37">
         <v>45089</v>
       </c>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27">
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37">
         <v>45089</v>
       </c>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -4198,18 +4195,18 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="83"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
-      <c r="AP33" s="79"/>
-      <c r="AQ33" s="79"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
       <c r="AS33" s="4"/>
-      <c r="AT33" s="79"/>
-      <c r="AU33" s="79"/>
-      <c r="AV33" s="79"/>
-      <c r="AW33" s="79"/>
-      <c r="AX33" s="79"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
       <c r="AZ33" s="4"/>
       <c r="BA33" s="4"/>
@@ -4219,45 +4216,45 @@
       <c r="BE33" s="16"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="85" t="s">
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="27">
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="37">
         <v>45089</v>
       </c>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27">
-        <v>45089</v>
-      </c>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="32">
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37">
+        <v>45090</v>
+      </c>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="45">
         <v>0.1</v>
       </c>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -4269,18 +4266,18 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="83"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="79"/>
-      <c r="AP34" s="79"/>
-      <c r="AQ34" s="79"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
       <c r="AS34" s="4"/>
-      <c r="AT34" s="79"/>
-      <c r="AU34" s="79"/>
-      <c r="AV34" s="79"/>
-      <c r="AW34" s="79"/>
-      <c r="AX34" s="79"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="4"/>
       <c r="BA34" s="4"/>
@@ -4290,43 +4287,43 @@
       <c r="BE34" s="16"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="85" t="s">
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="27">
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="37">
         <v>45090</v>
       </c>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27">
-        <v>45090</v>
-      </c>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37">
+        <v>45091</v>
+      </c>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -4338,18 +4335,18 @@
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
-      <c r="AM35" s="79"/>
-      <c r="AN35" s="83"/>
-      <c r="AO35" s="79"/>
-      <c r="AP35" s="79"/>
-      <c r="AQ35" s="79"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
       <c r="AS35" s="4"/>
-      <c r="AT35" s="79"/>
-      <c r="AU35" s="79"/>
-      <c r="AV35" s="79"/>
-      <c r="AW35" s="79"/>
-      <c r="AX35" s="79"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
       <c r="AY35" s="4"/>
       <c r="AZ35" s="4"/>
       <c r="BA35" s="4"/>
@@ -4359,43 +4356,43 @@
       <c r="BE35" s="16"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="85" t="s">
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="27">
-        <v>45090</v>
-      </c>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27">
-        <v>45090</v>
-      </c>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37">
+        <v>45091</v>
+      </c>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -4407,18 +4404,18 @@
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="83"/>
-      <c r="AO36" s="79"/>
-      <c r="AP36" s="79"/>
-      <c r="AQ36" s="79"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
       <c r="AS36" s="4"/>
-      <c r="AT36" s="79"/>
-      <c r="AU36" s="79"/>
-      <c r="AV36" s="79"/>
-      <c r="AW36" s="79"/>
-      <c r="AX36" s="79"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
       <c r="AY36" s="4"/>
       <c r="AZ36" s="4"/>
       <c r="BA36" s="4"/>
@@ -4428,43 +4425,43 @@
       <c r="BE36" s="16"/>
     </row>
     <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="85" t="s">
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="27">
-        <v>45091</v>
-      </c>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27">
-        <v>45091</v>
-      </c>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37">
+        <v>45092</v>
+      </c>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -4476,18 +4473,18 @@
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
-      <c r="AM37" s="79"/>
-      <c r="AN37" s="79"/>
-      <c r="AO37" s="83"/>
-      <c r="AP37" s="79"/>
-      <c r="AQ37" s="79"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
       <c r="AS37" s="4"/>
-      <c r="AT37" s="79"/>
-      <c r="AU37" s="79"/>
-      <c r="AV37" s="79"/>
-      <c r="AW37" s="79"/>
-      <c r="AX37" s="79"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
       <c r="AY37" s="4"/>
       <c r="AZ37" s="4"/>
       <c r="BA37" s="4"/>
@@ -4497,43 +4494,43 @@
       <c r="BE37" s="16"/>
     </row>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="85" t="s">
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="27">
-        <v>45091</v>
-      </c>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27">
-        <v>45091</v>
-      </c>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4545,18 +4542,18 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="79"/>
-      <c r="AN38" s="79"/>
-      <c r="AO38" s="83"/>
-      <c r="AP38" s="79"/>
-      <c r="AQ38" s="79"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="27"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
       <c r="AS38" s="4"/>
-      <c r="AT38" s="79"/>
-      <c r="AU38" s="79"/>
-      <c r="AV38" s="79"/>
-      <c r="AW38" s="79"/>
-      <c r="AX38" s="79"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
       <c r="AY38" s="4"/>
       <c r="AZ38" s="4"/>
       <c r="BA38" s="4"/>
@@ -4566,43 +4563,43 @@
       <c r="BE38" s="16"/>
     </row>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="85" t="s">
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="27">
-        <v>45092</v>
-      </c>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27">
-        <v>45092</v>
-      </c>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="37">
+        <v>45093</v>
+      </c>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4614,18 +4611,18 @@
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="79"/>
-      <c r="AN39" s="79"/>
-      <c r="AO39" s="79"/>
-      <c r="AP39" s="83"/>
-      <c r="AQ39" s="79"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="27"/>
+      <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
       <c r="AS39" s="4"/>
-      <c r="AT39" s="79"/>
-      <c r="AU39" s="79"/>
-      <c r="AV39" s="79"/>
-      <c r="AW39" s="79"/>
-      <c r="AX39" s="79"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
       <c r="AY39" s="4"/>
       <c r="AZ39" s="4"/>
       <c r="BA39" s="4"/>
@@ -4635,39 +4632,39 @@
       <c r="BE39" s="16"/>
     </row>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="33">
         <v>4.3</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26" t="s">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4700,43 +4697,43 @@
       <c r="BE40" s="16"/>
     </row>
     <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="88" t="s">
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="27">
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="37">
         <v>45096</v>
       </c>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27">
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37">
         <v>45096</v>
       </c>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4755,7 +4752,7 @@
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
       <c r="AS41" s="4"/>
-      <c r="AT41" s="90"/>
+      <c r="AT41" s="29"/>
       <c r="AU41" s="4"/>
       <c r="AV41" s="4"/>
       <c r="AW41" s="4"/>
@@ -4768,44 +4765,44 @@
       <c r="BD41" s="4"/>
       <c r="BE41" s="16"/>
     </row>
-    <row r="42" spans="1:57" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26" t="s">
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="88" t="s">
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="27">
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="37">
         <v>45096</v>
       </c>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27">
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37">
         <v>45096</v>
       </c>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4824,7 +4821,7 @@
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
       <c r="AS42" s="4"/>
-      <c r="AT42" s="90"/>
+      <c r="AT42" s="29"/>
       <c r="AU42" s="4"/>
       <c r="AV42" s="4"/>
       <c r="AW42" s="4"/>
@@ -4837,44 +4834,44 @@
       <c r="BD42" s="4"/>
       <c r="BE42" s="16"/>
     </row>
-    <row r="43" spans="1:57" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="87" t="s">
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="27">
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="37">
         <v>45096</v>
       </c>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27">
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37">
         <v>45096</v>
       </c>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4893,7 +4890,7 @@
       <c r="AQ43" s="4"/>
       <c r="AR43" s="4"/>
       <c r="AS43" s="4"/>
-      <c r="AT43" s="90"/>
+      <c r="AT43" s="29"/>
       <c r="AU43" s="4"/>
       <c r="AV43" s="4"/>
       <c r="AW43" s="4"/>
@@ -4906,44 +4903,44 @@
       <c r="BD43" s="4"/>
       <c r="BE43" s="16"/>
     </row>
-    <row r="44" spans="1:57" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+    <row r="44" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="87" t="s">
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="27">
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="37">
         <v>45096</v>
       </c>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27">
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37">
         <v>45096</v>
       </c>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="24"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4962,7 +4959,7 @@
       <c r="AQ44" s="4"/>
       <c r="AR44" s="4"/>
       <c r="AS44" s="4"/>
-      <c r="AT44" s="90"/>
+      <c r="AT44" s="29"/>
       <c r="AU44" s="4"/>
       <c r="AV44" s="4"/>
       <c r="AW44" s="4"/>
@@ -4975,44 +4972,44 @@
       <c r="BD44" s="4"/>
       <c r="BE44" s="16"/>
     </row>
-    <row r="45" spans="1:57" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+    <row r="45" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="86" t="s">
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="27">
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="37">
         <v>45096</v>
       </c>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27">
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37">
         <v>45096</v>
       </c>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -5031,7 +5028,7 @@
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4"/>
       <c r="AS45" s="4"/>
-      <c r="AT45" s="90"/>
+      <c r="AT45" s="29"/>
       <c r="AU45" s="4"/>
       <c r="AV45" s="4"/>
       <c r="AW45" s="4"/>
@@ -5044,44 +5041,44 @@
       <c r="BD45" s="4"/>
       <c r="BE45" s="16"/>
     </row>
-    <row r="46" spans="1:57" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+    <row r="46" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="86" t="s">
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="27">
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="37">
         <v>45096</v>
       </c>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27">
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37">
         <v>45096</v>
       </c>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -5100,7 +5097,7 @@
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4"/>
-      <c r="AT46" s="90"/>
+      <c r="AT46" s="29"/>
       <c r="AU46" s="4"/>
       <c r="AV46" s="4"/>
       <c r="AW46" s="4"/>
@@ -5113,44 +5110,44 @@
       <c r="BD46" s="4"/>
       <c r="BE46" s="16"/>
     </row>
-    <row r="47" spans="1:57" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+    <row r="47" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="89" t="s">
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-      <c r="S47" s="27">
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="37">
         <v>45096</v>
       </c>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27">
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37">
         <v>45096</v>
       </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -5169,7 +5166,7 @@
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
       <c r="AS47" s="4"/>
-      <c r="AT47" s="90"/>
+      <c r="AT47" s="29"/>
       <c r="AU47" s="4"/>
       <c r="AV47" s="4"/>
       <c r="AW47" s="4"/>
@@ -5182,44 +5179,44 @@
       <c r="BD47" s="4"/>
       <c r="BE47" s="16"/>
     </row>
-    <row r="48" spans="1:57" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+    <row r="48" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="89" t="s">
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="27">
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="37">
         <v>45096</v>
       </c>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27">
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37">
         <v>45096</v>
       </c>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -5238,7 +5235,7 @@
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
       <c r="AS48" s="4"/>
-      <c r="AT48" s="90"/>
+      <c r="AT48" s="29"/>
       <c r="AU48" s="4"/>
       <c r="AV48" s="4"/>
       <c r="AW48" s="4"/>
@@ -5252,43 +5249,43 @@
       <c r="BE48" s="16"/>
     </row>
     <row r="49" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="85" t="s">
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q49" s="85"/>
-      <c r="R49" s="85"/>
-      <c r="S49" s="27">
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="37">
         <v>45096</v>
       </c>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27">
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37">
         <v>45096</v>
       </c>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -5307,7 +5304,7 @@
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
       <c r="AS49" s="4"/>
-      <c r="AT49" s="90"/>
+      <c r="AT49" s="29"/>
       <c r="AU49" s="4"/>
       <c r="AV49" s="4"/>
       <c r="AW49" s="4"/>
@@ -5321,43 +5318,43 @@
       <c r="BE49" s="16"/>
     </row>
     <row r="50" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26" t="s">
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="85" t="s">
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="27">
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="37">
         <v>45096</v>
       </c>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27">
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37">
         <v>45096</v>
       </c>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -5376,7 +5373,7 @@
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
       <c r="AS50" s="4"/>
-      <c r="AT50" s="90"/>
+      <c r="AT50" s="29"/>
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
       <c r="AW50" s="4"/>
@@ -5390,39 +5387,39 @@
       <c r="BE50" s="16"/>
     </row>
     <row r="51" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="33">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="26" t="s">
+      <c r="B51" s="34"/>
+      <c r="C51" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26" t="s">
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -5455,43 +5452,43 @@
       <c r="BE51" s="16"/>
     </row>
     <row r="52" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="89" t="s">
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q52" s="89"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="27">
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="37">
         <v>45096</v>
       </c>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27">
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37">
         <v>45098</v>
       </c>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="24"/>
-      <c r="AA52" s="24"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5510,10 +5507,10 @@
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
-      <c r="AT52" s="91"/>
-      <c r="AU52" s="91"/>
-      <c r="AV52" s="91"/>
-      <c r="AW52" s="79"/>
+      <c r="AT52" s="30"/>
+      <c r="AU52" s="30"/>
+      <c r="AV52" s="30"/>
+      <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
       <c r="AY52" s="4"/>
       <c r="AZ52" s="4"/>
@@ -5524,43 +5521,43 @@
       <c r="BE52" s="16"/>
     </row>
     <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26" t="s">
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26" t="s">
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="27">
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="37">
         <v>45096</v>
       </c>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27">
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37">
         <v>45098</v>
       </c>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24"/>
-      <c r="AA53" s="24"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5579,9 +5576,9 @@
       <c r="AQ53" s="4"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
-      <c r="AT53" s="91"/>
-      <c r="AU53" s="91"/>
-      <c r="AV53" s="91"/>
+      <c r="AT53" s="30"/>
+      <c r="AU53" s="30"/>
+      <c r="AV53" s="30"/>
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
       <c r="AY53" s="4"/>
@@ -5593,43 +5590,43 @@
       <c r="BE53" s="16"/>
     </row>
     <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26" t="s">
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="27">
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="37">
         <v>45096</v>
       </c>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27">
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37">
         <v>45098</v>
       </c>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5648,9 +5645,9 @@
       <c r="AQ54" s="4"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
-      <c r="AT54" s="91"/>
-      <c r="AU54" s="91"/>
-      <c r="AV54" s="91"/>
+      <c r="AT54" s="30"/>
+      <c r="AU54" s="30"/>
+      <c r="AV54" s="30"/>
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4"/>
@@ -5662,43 +5659,43 @@
       <c r="BE54" s="16"/>
     </row>
     <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26" t="s">
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="86" t="s">
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
-      <c r="S55" s="27">
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="37">
         <v>45096</v>
       </c>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27">
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37">
         <v>45098</v>
       </c>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
-      <c r="AA55" s="24"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5717,9 +5714,9 @@
       <c r="AQ55" s="4"/>
       <c r="AR55" s="4"/>
       <c r="AS55" s="4"/>
-      <c r="AT55" s="91"/>
-      <c r="AU55" s="91"/>
-      <c r="AV55" s="91"/>
+      <c r="AT55" s="30"/>
+      <c r="AU55" s="30"/>
+      <c r="AV55" s="30"/>
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4"/>
@@ -5731,43 +5728,43 @@
       <c r="BE55" s="16"/>
     </row>
     <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26" t="s">
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="87" t="s">
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="87"/>
-      <c r="S56" s="27">
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="37">
         <v>45096</v>
       </c>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27">
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37">
         <v>45098</v>
       </c>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="24"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5786,9 +5783,9 @@
       <c r="AQ56" s="4"/>
       <c r="AR56" s="4"/>
       <c r="AS56" s="4"/>
-      <c r="AT56" s="91"/>
-      <c r="AU56" s="91"/>
-      <c r="AV56" s="91"/>
+      <c r="AT56" s="30"/>
+      <c r="AU56" s="30"/>
+      <c r="AV56" s="30"/>
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4"/>
@@ -5800,43 +5797,43 @@
       <c r="BE56" s="16"/>
     </row>
     <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26" t="s">
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="88" t="s">
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="27">
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="37">
         <v>45096</v>
       </c>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27">
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37">
         <v>45098</v>
       </c>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="24"/>
-      <c r="AA57" s="24"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5855,9 +5852,9 @@
       <c r="AQ57" s="4"/>
       <c r="AR57" s="4"/>
       <c r="AS57" s="4"/>
-      <c r="AT57" s="91"/>
-      <c r="AU57" s="91"/>
-      <c r="AV57" s="91"/>
+      <c r="AT57" s="30"/>
+      <c r="AU57" s="30"/>
+      <c r="AV57" s="30"/>
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4"/>
@@ -5869,43 +5866,43 @@
       <c r="BE57" s="16"/>
     </row>
     <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="37" t="s">
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="88" t="s">
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="27">
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="37">
         <v>45096</v>
       </c>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27">
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37">
         <v>45098</v>
       </c>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="24"/>
-      <c r="AA58" s="24"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5924,9 +5921,9 @@
       <c r="AQ58" s="4"/>
       <c r="AR58" s="4"/>
       <c r="AS58" s="4"/>
-      <c r="AT58" s="91"/>
-      <c r="AU58" s="91"/>
-      <c r="AV58" s="91"/>
+      <c r="AT58" s="30"/>
+      <c r="AU58" s="30"/>
+      <c r="AV58" s="30"/>
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4"/>
@@ -5938,43 +5935,43 @@
       <c r="BE58" s="16"/>
     </row>
     <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26" t="s">
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="89" t="s">
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q59" s="89"/>
-      <c r="R59" s="89"/>
-      <c r="S59" s="27">
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="37">
         <v>45096</v>
       </c>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27">
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37">
         <v>45098</v>
       </c>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="24"/>
-      <c r="AA59" s="24"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5993,9 +5990,9 @@
       <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
       <c r="AS59" s="4"/>
-      <c r="AT59" s="91"/>
-      <c r="AU59" s="91"/>
-      <c r="AV59" s="91"/>
+      <c r="AT59" s="30"/>
+      <c r="AU59" s="30"/>
+      <c r="AV59" s="30"/>
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4"/>
@@ -6007,43 +6004,43 @@
       <c r="BE59" s="16"/>
     </row>
     <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="37" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="87" t="s">
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="87"/>
-      <c r="S60" s="27">
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="37">
         <v>45096</v>
       </c>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27">
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37">
         <v>45098</v>
       </c>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="24"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -6062,9 +6059,9 @@
       <c r="AQ60" s="4"/>
       <c r="AR60" s="4"/>
       <c r="AS60" s="4"/>
-      <c r="AT60" s="91"/>
-      <c r="AU60" s="91"/>
-      <c r="AV60" s="91"/>
+      <c r="AT60" s="30"/>
+      <c r="AU60" s="30"/>
+      <c r="AV60" s="30"/>
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
       <c r="AY60" s="4"/>
@@ -6076,37 +6073,37 @@
       <c r="BE60" s="16"/>
     </row>
     <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25">
+      <c r="A61" s="33">
         <v>4.5</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="26" t="s">
+      <c r="B61" s="34"/>
+      <c r="C61" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="24"/>
-      <c r="AA61" s="24"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -6139,43 +6136,43 @@
       <c r="BE61" s="16"/>
     </row>
     <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26" t="s">
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26" t="s">
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="27">
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="37">
         <v>45097</v>
       </c>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27">
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37">
         <v>45100</v>
       </c>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="24"/>
-      <c r="AA62" s="24"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -6187,18 +6184,18 @@
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
-      <c r="AM62" s="79"/>
-      <c r="AN62" s="79"/>
-      <c r="AO62" s="79"/>
-      <c r="AP62" s="79"/>
-      <c r="AQ62" s="79"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+      <c r="AP62" s="4"/>
+      <c r="AQ62" s="4"/>
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
-      <c r="AT62" s="79"/>
-      <c r="AU62" s="92"/>
-      <c r="AV62" s="92"/>
-      <c r="AW62" s="92"/>
-      <c r="AX62" s="92"/>
+      <c r="AT62" s="4"/>
+      <c r="AU62" s="31"/>
+      <c r="AV62" s="31"/>
+      <c r="AW62" s="31"/>
+      <c r="AX62" s="31"/>
       <c r="AY62" s="4"/>
       <c r="AZ62" s="4"/>
       <c r="BA62" s="4"/>
@@ -6208,43 +6205,43 @@
       <c r="BE62" s="16"/>
     </row>
     <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26" t="s">
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26" t="s">
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="27">
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="37">
         <v>45090</v>
       </c>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27">
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37">
         <v>45100</v>
       </c>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="24"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -6256,18 +6253,18 @@
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
-      <c r="AM63" s="92"/>
-      <c r="AN63" s="92"/>
-      <c r="AO63" s="92"/>
-      <c r="AP63" s="92"/>
-      <c r="AQ63" s="92"/>
+      <c r="AM63" s="31"/>
+      <c r="AN63" s="31"/>
+      <c r="AO63" s="31"/>
+      <c r="AP63" s="31"/>
+      <c r="AQ63" s="31"/>
       <c r="AR63" s="4"/>
       <c r="AS63" s="4"/>
-      <c r="AT63" s="92"/>
-      <c r="AU63" s="92"/>
-      <c r="AV63" s="92"/>
-      <c r="AW63" s="92"/>
-      <c r="AX63" s="92"/>
+      <c r="AT63" s="31"/>
+      <c r="AU63" s="31"/>
+      <c r="AV63" s="31"/>
+      <c r="AW63" s="31"/>
+      <c r="AX63" s="31"/>
       <c r="AY63" s="4"/>
       <c r="AZ63" s="4"/>
       <c r="BA63" s="4"/>
@@ -6277,43 +6274,43 @@
       <c r="BE63" s="16"/>
     </row>
     <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26" t="s">
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26" t="s">
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="27">
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="37">
         <v>45090</v>
       </c>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27">
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37">
         <v>45100</v>
       </c>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="24"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -6325,18 +6322,18 @@
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
-      <c r="AM64" s="92"/>
-      <c r="AN64" s="92"/>
-      <c r="AO64" s="92"/>
-      <c r="AP64" s="92"/>
-      <c r="AQ64" s="92"/>
+      <c r="AM64" s="31"/>
+      <c r="AN64" s="31"/>
+      <c r="AO64" s="31"/>
+      <c r="AP64" s="31"/>
+      <c r="AQ64" s="31"/>
       <c r="AR64" s="4"/>
       <c r="AS64" s="4"/>
-      <c r="AT64" s="92"/>
-      <c r="AU64" s="92"/>
-      <c r="AV64" s="92"/>
-      <c r="AW64" s="92"/>
-      <c r="AX64" s="92"/>
+      <c r="AT64" s="31"/>
+      <c r="AU64" s="31"/>
+      <c r="AV64" s="31"/>
+      <c r="AW64" s="31"/>
+      <c r="AX64" s="31"/>
       <c r="AY64" s="4"/>
       <c r="AZ64" s="4"/>
       <c r="BA64" s="4"/>
@@ -6346,43 +6343,43 @@
       <c r="BE64" s="16"/>
     </row>
     <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26" t="s">
+      <c r="B65" s="34"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26" t="s">
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="27">
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="37">
         <v>45090</v>
       </c>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27">
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37">
         <v>45100</v>
       </c>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -6394,18 +6391,18 @@
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
-      <c r="AM65" s="92"/>
-      <c r="AN65" s="92"/>
-      <c r="AO65" s="92"/>
-      <c r="AP65" s="92"/>
-      <c r="AQ65" s="92"/>
+      <c r="AM65" s="31"/>
+      <c r="AN65" s="31"/>
+      <c r="AO65" s="31"/>
+      <c r="AP65" s="31"/>
+      <c r="AQ65" s="31"/>
       <c r="AR65" s="4"/>
       <c r="AS65" s="4"/>
-      <c r="AT65" s="92"/>
-      <c r="AU65" s="92"/>
-      <c r="AV65" s="92"/>
-      <c r="AW65" s="92"/>
-      <c r="AX65" s="92"/>
+      <c r="AT65" s="31"/>
+      <c r="AU65" s="31"/>
+      <c r="AV65" s="31"/>
+      <c r="AW65" s="31"/>
+      <c r="AX65" s="31"/>
       <c r="AY65" s="4"/>
       <c r="AZ65" s="4"/>
       <c r="BA65" s="4"/>
@@ -6415,43 +6412,43 @@
       <c r="BE65" s="16"/>
     </row>
     <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26" t="s">
+      <c r="B66" s="34"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="86" t="s">
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q66" s="86"/>
-      <c r="R66" s="86"/>
-      <c r="S66" s="27">
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="37">
         <v>45089</v>
       </c>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27">
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37">
         <v>45100</v>
       </c>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -6463,18 +6460,18 @@
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
-      <c r="AM66" s="92"/>
-      <c r="AN66" s="92"/>
-      <c r="AO66" s="92"/>
-      <c r="AP66" s="92"/>
-      <c r="AQ66" s="92"/>
+      <c r="AM66" s="31"/>
+      <c r="AN66" s="31"/>
+      <c r="AO66" s="31"/>
+      <c r="AP66" s="31"/>
+      <c r="AQ66" s="31"/>
       <c r="AR66" s="4"/>
       <c r="AS66" s="4"/>
-      <c r="AT66" s="92"/>
-      <c r="AU66" s="92"/>
-      <c r="AV66" s="92"/>
-      <c r="AW66" s="92"/>
-      <c r="AX66" s="92"/>
+      <c r="AT66" s="31"/>
+      <c r="AU66" s="31"/>
+      <c r="AV66" s="31"/>
+      <c r="AW66" s="31"/>
+      <c r="AX66" s="31"/>
       <c r="AY66" s="4"/>
       <c r="AZ66" s="4"/>
       <c r="BA66" s="4"/>
@@ -6484,43 +6481,43 @@
       <c r="BE66" s="16"/>
     </row>
     <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="37" t="s">
+      <c r="B67" s="34"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="87" t="s">
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="87"/>
-      <c r="S67" s="27">
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="37">
         <v>45089</v>
       </c>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27">
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37">
         <v>45100</v>
       </c>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="24"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6532,18 +6529,18 @@
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
-      <c r="AM67" s="92"/>
-      <c r="AN67" s="92"/>
-      <c r="AO67" s="92"/>
-      <c r="AP67" s="92"/>
-      <c r="AQ67" s="92"/>
+      <c r="AM67" s="31"/>
+      <c r="AN67" s="31"/>
+      <c r="AO67" s="31"/>
+      <c r="AP67" s="31"/>
+      <c r="AQ67" s="31"/>
       <c r="AR67" s="4"/>
       <c r="AS67" s="4"/>
-      <c r="AT67" s="92"/>
-      <c r="AU67" s="92"/>
-      <c r="AV67" s="92"/>
-      <c r="AW67" s="92"/>
-      <c r="AX67" s="92"/>
+      <c r="AT67" s="31"/>
+      <c r="AU67" s="31"/>
+      <c r="AV67" s="31"/>
+      <c r="AW67" s="31"/>
+      <c r="AX67" s="31"/>
       <c r="AY67" s="4"/>
       <c r="AZ67" s="4"/>
       <c r="BA67" s="4"/>
@@ -6553,43 +6550,43 @@
       <c r="BE67" s="16"/>
     </row>
     <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26" t="s">
+      <c r="B68" s="34"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="88" t="s">
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="27">
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="37">
         <v>45089</v>
       </c>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27">
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37">
         <v>45100</v>
       </c>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="24"/>
-      <c r="AA68" s="24"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6601,18 +6598,18 @@
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
-      <c r="AM68" s="92"/>
-      <c r="AN68" s="92"/>
-      <c r="AO68" s="92"/>
-      <c r="AP68" s="92"/>
-      <c r="AQ68" s="92"/>
+      <c r="AM68" s="31"/>
+      <c r="AN68" s="31"/>
+      <c r="AO68" s="31"/>
+      <c r="AP68" s="31"/>
+      <c r="AQ68" s="31"/>
       <c r="AR68" s="4"/>
       <c r="AS68" s="4"/>
-      <c r="AT68" s="92"/>
-      <c r="AU68" s="92"/>
-      <c r="AV68" s="92"/>
-      <c r="AW68" s="92"/>
-      <c r="AX68" s="92"/>
+      <c r="AT68" s="31"/>
+      <c r="AU68" s="31"/>
+      <c r="AV68" s="31"/>
+      <c r="AW68" s="31"/>
+      <c r="AX68" s="31"/>
       <c r="AY68" s="4"/>
       <c r="AZ68" s="4"/>
       <c r="BA68" s="4"/>
@@ -6622,43 +6619,43 @@
       <c r="BE68" s="16"/>
     </row>
     <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26" t="s">
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="88" t="s">
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="27">
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="37">
         <v>45089</v>
       </c>
-      <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="27">
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37">
         <v>45100</v>
       </c>
-      <c r="W69" s="27"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6670,18 +6667,18 @@
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
       <c r="AL69" s="4"/>
-      <c r="AM69" s="92"/>
-      <c r="AN69" s="92"/>
-      <c r="AO69" s="92"/>
-      <c r="AP69" s="92"/>
-      <c r="AQ69" s="92"/>
+      <c r="AM69" s="31"/>
+      <c r="AN69" s="31"/>
+      <c r="AO69" s="31"/>
+      <c r="AP69" s="31"/>
+      <c r="AQ69" s="31"/>
       <c r="AR69" s="4"/>
       <c r="AS69" s="4"/>
-      <c r="AT69" s="92"/>
-      <c r="AU69" s="92"/>
-      <c r="AV69" s="92"/>
-      <c r="AW69" s="92"/>
-      <c r="AX69" s="92"/>
+      <c r="AT69" s="31"/>
+      <c r="AU69" s="31"/>
+      <c r="AV69" s="31"/>
+      <c r="AW69" s="31"/>
+      <c r="AX69" s="31"/>
       <c r="AY69" s="4"/>
       <c r="AZ69" s="4"/>
       <c r="BA69" s="4"/>
@@ -6691,43 +6688,43 @@
       <c r="BE69" s="16"/>
     </row>
     <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26" t="s">
+      <c r="B70" s="34"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="89" t="s">
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q70" s="89"/>
-      <c r="R70" s="89"/>
-      <c r="S70" s="27">
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="37">
         <v>45089</v>
       </c>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27">
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37">
         <v>45100</v>
       </c>
-      <c r="W70" s="27"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="24"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6739,18 +6736,18 @@
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
-      <c r="AM70" s="92"/>
-      <c r="AN70" s="92"/>
-      <c r="AO70" s="92"/>
-      <c r="AP70" s="92"/>
-      <c r="AQ70" s="92"/>
+      <c r="AM70" s="31"/>
+      <c r="AN70" s="31"/>
+      <c r="AO70" s="31"/>
+      <c r="AP70" s="31"/>
+      <c r="AQ70" s="31"/>
       <c r="AR70" s="4"/>
       <c r="AS70" s="4"/>
-      <c r="AT70" s="92"/>
-      <c r="AU70" s="92"/>
-      <c r="AV70" s="92"/>
-      <c r="AW70" s="92"/>
-      <c r="AX70" s="92"/>
+      <c r="AT70" s="31"/>
+      <c r="AU70" s="31"/>
+      <c r="AV70" s="31"/>
+      <c r="AW70" s="31"/>
+      <c r="AX70" s="31"/>
       <c r="AY70" s="4"/>
       <c r="AZ70" s="4"/>
       <c r="BA70" s="4"/>
@@ -6760,43 +6757,43 @@
       <c r="BE70" s="16"/>
     </row>
     <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26" t="s">
+      <c r="B71" s="34"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26" t="s">
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="27">
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="37">
         <v>45090</v>
       </c>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27">
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37">
         <v>45100</v>
       </c>
-      <c r="W71" s="27"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6808,18 +6805,18 @@
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4"/>
       <c r="AL71" s="4"/>
-      <c r="AM71" s="92"/>
-      <c r="AN71" s="92"/>
-      <c r="AO71" s="92"/>
-      <c r="AP71" s="92"/>
-      <c r="AQ71" s="92"/>
+      <c r="AM71" s="31"/>
+      <c r="AN71" s="31"/>
+      <c r="AO71" s="31"/>
+      <c r="AP71" s="31"/>
+      <c r="AQ71" s="31"/>
       <c r="AR71" s="4"/>
       <c r="AS71" s="4"/>
-      <c r="AT71" s="92"/>
-      <c r="AU71" s="92"/>
-      <c r="AV71" s="92"/>
-      <c r="AW71" s="92"/>
-      <c r="AX71" s="92"/>
+      <c r="AT71" s="31"/>
+      <c r="AU71" s="31"/>
+      <c r="AV71" s="31"/>
+      <c r="AW71" s="31"/>
+      <c r="AX71" s="31"/>
       <c r="AY71" s="4"/>
       <c r="AZ71" s="4"/>
       <c r="BA71" s="4"/>
@@ -6829,37 +6826,37 @@
       <c r="BE71" s="16"/>
     </row>
     <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25">
+      <c r="A72" s="33">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="26" t="s">
+      <c r="B72" s="34"/>
+      <c r="C72" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="24"/>
-      <c r="Z72" s="24"/>
-      <c r="AA72" s="24"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6892,41 +6889,41 @@
       <c r="BE72" s="16"/>
     </row>
     <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26" t="s">
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="27">
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="37">
         <v>45097</v>
       </c>
-      <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="27">
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37">
         <v>45100</v>
       </c>
-      <c r="W73" s="27"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="24"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6938,18 +6935,18 @@
       <c r="AJ73" s="4"/>
       <c r="AK73" s="4"/>
       <c r="AL73" s="4"/>
-      <c r="AM73" s="79"/>
-      <c r="AN73" s="79"/>
-      <c r="AO73" s="79"/>
-      <c r="AP73" s="79"/>
-      <c r="AQ73" s="79"/>
-      <c r="AR73" s="79"/>
-      <c r="AS73" s="79"/>
-      <c r="AT73" s="79"/>
-      <c r="AU73" s="93"/>
-      <c r="AV73" s="93"/>
-      <c r="AW73" s="93"/>
-      <c r="AX73" s="93"/>
+      <c r="AM73" s="4"/>
+      <c r="AN73" s="4"/>
+      <c r="AO73" s="4"/>
+      <c r="AP73" s="4"/>
+      <c r="AQ73" s="4"/>
+      <c r="AR73" s="4"/>
+      <c r="AS73" s="4"/>
+      <c r="AT73" s="4"/>
+      <c r="AU73" s="32"/>
+      <c r="AV73" s="32"/>
+      <c r="AW73" s="32"/>
+      <c r="AX73" s="32"/>
       <c r="AY73" s="4"/>
       <c r="AZ73" s="4"/>
       <c r="BA73" s="4"/>
@@ -6959,41 +6956,41 @@
       <c r="BE73" s="16"/>
     </row>
     <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26" t="s">
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="27">
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="37">
         <v>45090</v>
       </c>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="27">
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37">
         <v>45100</v>
       </c>
-      <c r="W74" s="27"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="24"/>
-      <c r="AA74" s="24"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -7005,18 +7002,18 @@
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
       <c r="AL74" s="4"/>
-      <c r="AM74" s="93"/>
-      <c r="AN74" s="93"/>
-      <c r="AO74" s="93"/>
-      <c r="AP74" s="93"/>
-      <c r="AQ74" s="93"/>
+      <c r="AM74" s="32"/>
+      <c r="AN74" s="32"/>
+      <c r="AO74" s="32"/>
+      <c r="AP74" s="32"/>
+      <c r="AQ74" s="32"/>
       <c r="AR74" s="4"/>
       <c r="AS74" s="4"/>
-      <c r="AT74" s="93"/>
-      <c r="AU74" s="93"/>
-      <c r="AV74" s="93"/>
-      <c r="AW74" s="93"/>
-      <c r="AX74" s="93"/>
+      <c r="AT74" s="32"/>
+      <c r="AU74" s="32"/>
+      <c r="AV74" s="32"/>
+      <c r="AW74" s="32"/>
+      <c r="AX74" s="32"/>
       <c r="AY74" s="4"/>
       <c r="AZ74" s="4"/>
       <c r="BA74" s="4"/>
@@ -7026,41 +7023,41 @@
       <c r="BE74" s="16"/>
     </row>
     <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26" t="s">
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="27">
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="37">
         <v>45090</v>
       </c>
-      <c r="T75" s="27"/>
-      <c r="U75" s="27"/>
-      <c r="V75" s="27">
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37">
         <v>45100</v>
       </c>
-      <c r="W75" s="27"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="24"/>
-      <c r="AA75" s="24"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -7072,18 +7069,18 @@
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
       <c r="AL75" s="4"/>
-      <c r="AM75" s="93"/>
-      <c r="AN75" s="93"/>
-      <c r="AO75" s="93"/>
-      <c r="AP75" s="93"/>
-      <c r="AQ75" s="93"/>
+      <c r="AM75" s="32"/>
+      <c r="AN75" s="32"/>
+      <c r="AO75" s="32"/>
+      <c r="AP75" s="32"/>
+      <c r="AQ75" s="32"/>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
-      <c r="AT75" s="93"/>
-      <c r="AU75" s="93"/>
-      <c r="AV75" s="93"/>
-      <c r="AW75" s="93"/>
-      <c r="AX75" s="93"/>
+      <c r="AT75" s="32"/>
+      <c r="AU75" s="32"/>
+      <c r="AV75" s="32"/>
+      <c r="AW75" s="32"/>
+      <c r="AX75" s="32"/>
       <c r="AY75" s="4"/>
       <c r="AZ75" s="4"/>
       <c r="BA75" s="4"/>
@@ -7093,41 +7090,41 @@
       <c r="BE75" s="16"/>
     </row>
     <row r="76" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26" t="s">
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="27">
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="37">
         <v>45090</v>
       </c>
-      <c r="T76" s="27"/>
-      <c r="U76" s="27"/>
-      <c r="V76" s="27">
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37">
         <v>45100</v>
       </c>
-      <c r="W76" s="27"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="24"/>
-      <c r="AA76" s="24"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -7139,18 +7136,18 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
-      <c r="AM76" s="93"/>
-      <c r="AN76" s="93"/>
-      <c r="AO76" s="93"/>
-      <c r="AP76" s="93"/>
-      <c r="AQ76" s="93"/>
+      <c r="AM76" s="32"/>
+      <c r="AN76" s="32"/>
+      <c r="AO76" s="32"/>
+      <c r="AP76" s="32"/>
+      <c r="AQ76" s="32"/>
       <c r="AR76" s="4"/>
       <c r="AS76" s="4"/>
-      <c r="AT76" s="93"/>
-      <c r="AU76" s="93"/>
-      <c r="AV76" s="93"/>
-      <c r="AW76" s="93"/>
-      <c r="AX76" s="93"/>
+      <c r="AT76" s="32"/>
+      <c r="AU76" s="32"/>
+      <c r="AV76" s="32"/>
+      <c r="AW76" s="32"/>
+      <c r="AX76" s="32"/>
       <c r="AY76" s="4"/>
       <c r="AZ76" s="4"/>
       <c r="BA76" s="4"/>
@@ -7160,41 +7157,41 @@
       <c r="BE76" s="16"/>
     </row>
     <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="86" t="s">
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q77" s="86"/>
-      <c r="R77" s="86"/>
-      <c r="S77" s="27">
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="37">
         <v>45089</v>
       </c>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27">
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37">
         <v>45100</v>
       </c>
-      <c r="W77" s="27"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="24"/>
-      <c r="AA77" s="24"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -7206,18 +7203,18 @@
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
-      <c r="AM77" s="93"/>
-      <c r="AN77" s="93"/>
-      <c r="AO77" s="93"/>
-      <c r="AP77" s="93"/>
-      <c r="AQ77" s="93"/>
+      <c r="AM77" s="32"/>
+      <c r="AN77" s="32"/>
+      <c r="AO77" s="32"/>
+      <c r="AP77" s="32"/>
+      <c r="AQ77" s="32"/>
       <c r="AR77" s="4"/>
       <c r="AS77" s="4"/>
-      <c r="AT77" s="93"/>
-      <c r="AU77" s="93"/>
-      <c r="AV77" s="93"/>
-      <c r="AW77" s="93"/>
-      <c r="AX77" s="93"/>
+      <c r="AT77" s="32"/>
+      <c r="AU77" s="32"/>
+      <c r="AV77" s="32"/>
+      <c r="AW77" s="32"/>
+      <c r="AX77" s="32"/>
       <c r="AY77" s="4"/>
       <c r="AZ77" s="4"/>
       <c r="BA77" s="4"/>
@@ -7227,41 +7224,41 @@
       <c r="BE77" s="16"/>
     </row>
     <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="87" t="s">
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q78" s="87"/>
-      <c r="R78" s="87"/>
-      <c r="S78" s="27">
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="37">
         <v>45089</v>
       </c>
-      <c r="T78" s="27"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="27">
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37">
         <v>45100</v>
       </c>
-      <c r="W78" s="27"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="24"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -7273,18 +7270,18 @@
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4"/>
       <c r="AL78" s="4"/>
-      <c r="AM78" s="93"/>
-      <c r="AN78" s="93"/>
-      <c r="AO78" s="93"/>
-      <c r="AP78" s="93"/>
-      <c r="AQ78" s="93"/>
+      <c r="AM78" s="32"/>
+      <c r="AN78" s="32"/>
+      <c r="AO78" s="32"/>
+      <c r="AP78" s="32"/>
+      <c r="AQ78" s="32"/>
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
-      <c r="AT78" s="93"/>
-      <c r="AU78" s="93"/>
-      <c r="AV78" s="93"/>
-      <c r="AW78" s="93"/>
-      <c r="AX78" s="93"/>
+      <c r="AT78" s="32"/>
+      <c r="AU78" s="32"/>
+      <c r="AV78" s="32"/>
+      <c r="AW78" s="32"/>
+      <c r="AX78" s="32"/>
       <c r="AY78" s="4"/>
       <c r="AZ78" s="4"/>
       <c r="BA78" s="4"/>
@@ -7294,41 +7291,41 @@
       <c r="BE78" s="16"/>
     </row>
     <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26" t="s">
+      <c r="A79" s="33"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="88" t="s">
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q79" s="88"/>
-      <c r="R79" s="88"/>
-      <c r="S79" s="27">
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="37">
         <v>45089</v>
       </c>
-      <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="27">
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37">
         <v>45100</v>
       </c>
-      <c r="W79" s="27"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="24"/>
-      <c r="Z79" s="24"/>
-      <c r="AA79" s="24"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -7340,18 +7337,18 @@
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
-      <c r="AM79" s="93"/>
-      <c r="AN79" s="93"/>
-      <c r="AO79" s="93"/>
-      <c r="AP79" s="93"/>
-      <c r="AQ79" s="93"/>
+      <c r="AM79" s="32"/>
+      <c r="AN79" s="32"/>
+      <c r="AO79" s="32"/>
+      <c r="AP79" s="32"/>
+      <c r="AQ79" s="32"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
-      <c r="AT79" s="93"/>
-      <c r="AU79" s="93"/>
-      <c r="AV79" s="93"/>
-      <c r="AW79" s="93"/>
-      <c r="AX79" s="93"/>
+      <c r="AT79" s="32"/>
+      <c r="AU79" s="32"/>
+      <c r="AV79" s="32"/>
+      <c r="AW79" s="32"/>
+      <c r="AX79" s="32"/>
       <c r="AY79" s="4"/>
       <c r="AZ79" s="4"/>
       <c r="BA79" s="4"/>
@@ -7361,41 +7358,41 @@
       <c r="BE79" s="16"/>
     </row>
     <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26" t="s">
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="88" t="s">
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q80" s="88"/>
-      <c r="R80" s="88"/>
-      <c r="S80" s="27">
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="37">
         <v>45089</v>
       </c>
-      <c r="T80" s="27"/>
-      <c r="U80" s="27"/>
-      <c r="V80" s="27">
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37">
         <v>45100</v>
       </c>
-      <c r="W80" s="27"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -7407,18 +7404,18 @@
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
-      <c r="AM80" s="93"/>
-      <c r="AN80" s="93"/>
-      <c r="AO80" s="93"/>
-      <c r="AP80" s="93"/>
-      <c r="AQ80" s="93"/>
+      <c r="AM80" s="32"/>
+      <c r="AN80" s="32"/>
+      <c r="AO80" s="32"/>
+      <c r="AP80" s="32"/>
+      <c r="AQ80" s="32"/>
       <c r="AR80" s="4"/>
       <c r="AS80" s="4"/>
-      <c r="AT80" s="93"/>
-      <c r="AU80" s="93"/>
-      <c r="AV80" s="93"/>
-      <c r="AW80" s="93"/>
-      <c r="AX80" s="93"/>
+      <c r="AT80" s="32"/>
+      <c r="AU80" s="32"/>
+      <c r="AV80" s="32"/>
+      <c r="AW80" s="32"/>
+      <c r="AX80" s="32"/>
       <c r="AY80" s="4"/>
       <c r="AZ80" s="4"/>
       <c r="BA80" s="4"/>
@@ -7428,41 +7425,41 @@
       <c r="BE80" s="16"/>
     </row>
     <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="89" t="s">
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q81" s="89"/>
-      <c r="R81" s="89"/>
-      <c r="S81" s="27">
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="37">
         <v>45089</v>
       </c>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27">
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37">
         <v>45100</v>
       </c>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="24"/>
-      <c r="Z81" s="24"/>
-      <c r="AA81" s="24"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -7474,18 +7471,18 @@
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
       <c r="AL81" s="4"/>
-      <c r="AM81" s="93"/>
-      <c r="AN81" s="93"/>
-      <c r="AO81" s="93"/>
-      <c r="AP81" s="93"/>
-      <c r="AQ81" s="93"/>
+      <c r="AM81" s="32"/>
+      <c r="AN81" s="32"/>
+      <c r="AO81" s="32"/>
+      <c r="AP81" s="32"/>
+      <c r="AQ81" s="32"/>
       <c r="AR81" s="4"/>
       <c r="AS81" s="4"/>
-      <c r="AT81" s="93"/>
-      <c r="AU81" s="93"/>
-      <c r="AV81" s="93"/>
-      <c r="AW81" s="93"/>
-      <c r="AX81" s="93"/>
+      <c r="AT81" s="32"/>
+      <c r="AU81" s="32"/>
+      <c r="AV81" s="32"/>
+      <c r="AW81" s="32"/>
+      <c r="AX81" s="32"/>
       <c r="AY81" s="4"/>
       <c r="AZ81" s="4"/>
       <c r="BA81" s="4"/>
@@ -7495,41 +7492,41 @@
       <c r="BE81" s="16"/>
     </row>
     <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26" t="s">
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="27">
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="37">
         <v>45090</v>
       </c>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27">
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37">
         <v>45100</v>
       </c>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="24"/>
-      <c r="Z82" s="24"/>
-      <c r="AA82" s="24"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -7541,18 +7538,18 @@
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
       <c r="AL82" s="4"/>
-      <c r="AM82" s="93"/>
-      <c r="AN82" s="93"/>
-      <c r="AO82" s="93"/>
-      <c r="AP82" s="93"/>
-      <c r="AQ82" s="93"/>
+      <c r="AM82" s="32"/>
+      <c r="AN82" s="32"/>
+      <c r="AO82" s="32"/>
+      <c r="AP82" s="32"/>
+      <c r="AQ82" s="32"/>
       <c r="AR82" s="4"/>
       <c r="AS82" s="4"/>
-      <c r="AT82" s="93"/>
-      <c r="AU82" s="93"/>
-      <c r="AV82" s="93"/>
-      <c r="AW82" s="93"/>
-      <c r="AX82" s="93"/>
+      <c r="AT82" s="32"/>
+      <c r="AU82" s="32"/>
+      <c r="AV82" s="32"/>
+      <c r="AW82" s="32"/>
+      <c r="AX82" s="32"/>
       <c r="AY82" s="4"/>
       <c r="AZ82" s="4"/>
       <c r="BA82" s="4"/>
@@ -7562,37 +7559,37 @@
       <c r="BE82" s="16"/>
     </row>
     <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="25">
+      <c r="A83" s="33">
         <v>5</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="26" t="s">
+      <c r="B83" s="34"/>
+      <c r="C83" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="24"/>
-      <c r="Z83" s="24"/>
-      <c r="AA83" s="24"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -7625,37 +7622,37 @@
       <c r="BE83" s="16"/>
     </row>
     <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="25">
+      <c r="A84" s="33">
         <v>5</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="26" t="s">
+      <c r="B84" s="34"/>
+      <c r="C84" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="24"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7688,37 +7685,37 @@
       <c r="BE84" s="16"/>
     </row>
     <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="25">
+      <c r="A85" s="33">
         <v>5</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="26" t="s">
+      <c r="B85" s="34"/>
+      <c r="C85" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="26"/>
-      <c r="S85" s="27"/>
-      <c r="T85" s="27"/>
-      <c r="U85" s="27"/>
-      <c r="V85" s="27"/>
-      <c r="W85" s="27"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="24"/>
-      <c r="AA85" s="24"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -7751,33 +7748,33 @@
       <c r="BE85" s="16"/>
     </row>
     <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="24"/>
-      <c r="AA86" s="24"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="34"/>
+      <c r="AA86" s="34"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -7810,33 +7807,33 @@
       <c r="BE86" s="16"/>
     </row>
     <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26"/>
-      <c r="R87" s="26"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="24"/>
-      <c r="AA87" s="24"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="34"/>
+      <c r="AA87" s="34"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
@@ -7869,37 +7866,37 @@
       <c r="BE87" s="16"/>
     </row>
     <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="25">
+      <c r="A88" s="33">
         <v>6</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="26" t="s">
+      <c r="B88" s="34"/>
+      <c r="C88" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="26"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="24"/>
-      <c r="Z88" s="24"/>
-      <c r="AA88" s="24"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
@@ -7932,33 +7929,33 @@
       <c r="BE88" s="17"/>
     </row>
     <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="26"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="24"/>
-      <c r="AA89" s="24"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="34"/>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
@@ -7991,33 +7988,33 @@
       <c r="BE89" s="16"/>
     </row>
     <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="25"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="27"/>
-      <c r="T90" s="27"/>
-      <c r="U90" s="27"/>
-      <c r="V90" s="27"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="24"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="34"/>
+      <c r="AA90" s="34"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
@@ -8050,33 +8047,33 @@
       <c r="BE90" s="16"/>
     </row>
     <row r="91" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
+      <c r="A91" s="89"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="91"/>
+      <c r="M91" s="91"/>
+      <c r="N91" s="91"/>
+      <c r="O91" s="91"/>
+      <c r="P91" s="91"/>
+      <c r="Q91" s="91"/>
+      <c r="R91" s="91"/>
+      <c r="S91" s="92"/>
+      <c r="T91" s="92"/>
+      <c r="U91" s="92"/>
+      <c r="V91" s="92"/>
+      <c r="W91" s="92"/>
+      <c r="X91" s="92"/>
+      <c r="Y91" s="90"/>
+      <c r="Z91" s="90"/>
+      <c r="AA91" s="90"/>
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
       <c r="AD91" s="18"/>
@@ -8113,206 +8110,392 @@
     <row r="94" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="610">
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:O77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:O78"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:O71"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:O72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="H89:O89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="S89:U89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:X87"/>
+    <mergeCell ref="H88:O88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:O91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="V91:X91"/>
+    <mergeCell ref="Y89:AA89"/>
+    <mergeCell ref="H84:O84"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="S84:U84"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:U86"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="C82:G82"/>
     <mergeCell ref="H82:O82"/>
@@ -8337,392 +8520,206 @@
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="H53:O53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="H86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:U86"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:U85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H91:O91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="V91:X91"/>
-    <mergeCell ref="Y89:AA89"/>
-    <mergeCell ref="H84:O84"/>
-    <mergeCell ref="P84:R84"/>
-    <mergeCell ref="S84:U84"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="Y84:AA84"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y90:AA90"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="H89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="S89:U89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="Y87:AA87"/>
-    <mergeCell ref="Y88:AA88"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="H88:O88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
@@ -8752,18 +8749,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8881,18 +8878,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658D790C-F48A-4541-BBAC-37C510A1270D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF0CBD-844C-4035-A0C6-E4C93A7D1B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4E64A0-89A2-457C-BE60-9E09E6D727FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="153">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1247,185 +1247,185 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:BG94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31:AA31"/>
+      <selection activeCell="BK35" sqref="BK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1773,140 +1773,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="64" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="54" t="s">
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="51">
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="68">
         <v>45078</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="54" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="51">
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="68">
         <v>45107</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="3" spans="1:59" ht="16" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="60" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60" t="s">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="57" t="s">
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
       <c r="AB4" s="12">
         <f>AH1</f>
         <v>45078</v>
@@ -2031,41 +2031,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58" t="s">
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58" t="s">
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="58"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
       <c r="AB5" s="20">
         <f>AH1</f>
         <v>45078</v>
@@ -2188,33 +2188,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
       <c r="AB6" s="21" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -2337,10 +2337,10 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7" s="34">
         <v>1</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
@@ -2359,19 +2359,19 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="37">
+      <c r="S7" s="36">
         <v>45079</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37">
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36">
         <v>45082</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="4"/>
@@ -2404,10 +2404,10 @@
       <c r="BE7" s="16"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -2428,21 +2428,21 @@
       </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="37">
+      <c r="S8" s="36">
         <v>45079</v>
       </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37">
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36">
         <v>45079</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="72" t="s">
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="4"/>
@@ -2475,10 +2475,10 @@
       <c r="BE8" s="16"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="34">
         <v>1.2</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -2499,21 +2499,21 @@
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="37">
+      <c r="S9" s="36">
         <v>45079</v>
       </c>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36">
         <v>45082</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="72" t="s">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="4"/>
@@ -2546,10 +2546,10 @@
       <c r="BE9" s="16"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>1.3</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -2570,21 +2570,21 @@
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="37">
+      <c r="S10" s="36">
         <v>45079</v>
       </c>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37">
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36">
         <v>45082</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="72" t="s">
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="4"/>
@@ -2617,10 +2617,10 @@
       <c r="BE10" s="16"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="34">
         <v>1.4</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -2641,21 +2641,21 @@
       </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="37">
+      <c r="S11" s="36">
         <v>45082</v>
       </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37">
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36">
         <v>45082</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="72" t="s">
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2688,10 +2688,10 @@
       <c r="BE11" s="16"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="34">
         <v>2</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="35" t="s">
         <v>20</v>
       </c>
@@ -2710,19 +2710,19 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="37">
+      <c r="S12" s="36">
         <v>45083</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37">
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36">
         <v>45084</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2755,10 +2755,10 @@
       <c r="BE12" s="16"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="34">
         <v>2.1</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -2779,21 +2779,21 @@
       </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="37">
+      <c r="S13" s="36">
         <v>45083</v>
       </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37">
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36">
         <v>45089</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="86" t="s">
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2826,45 +2826,45 @@
       <c r="BE13" s="16"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="34">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="84" t="s">
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="37">
+      <c r="Q14" s="52"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="36">
         <v>45083</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37">
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36">
         <v>45083</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="72" t="s">
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2897,45 +2897,45 @@
       <c r="BE14" s="16"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70">
+      <c r="A15" s="88">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="41" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="41" t="s">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="78">
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="56">
         <v>45084</v>
       </c>
-      <c r="T15" s="79"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="78">
+      <c r="T15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="56">
         <v>45089</v>
       </c>
-      <c r="W15" s="79"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81" t="s">
+      <c r="W15" s="57"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="83"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="61"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2968,10 +2968,10 @@
       <c r="BE15" s="16"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87">
+      <c r="A16" s="44">
         <v>2.4</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -2992,21 +2992,21 @@
       </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
-      <c r="S16" s="37">
+      <c r="S16" s="36">
         <v>45084</v>
       </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37">
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36">
         <v>45089</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="86" t="s">
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -3039,10 +3039,10 @@
       <c r="BE16" s="16"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="34">
         <v>2.5</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -3063,21 +3063,21 @@
       </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="37">
+      <c r="S17" s="36">
         <v>45083</v>
       </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37">
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36">
         <v>45084</v>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="86" t="s">
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -3110,10 +3110,10 @@
       <c r="BE17" s="16"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="34">
         <v>2.6</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -3134,19 +3134,19 @@
       </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
-      <c r="S18" s="37">
+      <c r="S18" s="36">
         <v>45084</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="45">
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="43">
         <v>0.2</v>
       </c>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -3179,10 +3179,10 @@
       <c r="BE18" s="16"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
+      <c r="A19" s="34">
         <v>3</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
@@ -3201,15 +3201,15 @@
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -3242,10 +3242,10 @@
       <c r="BE19" s="16"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="34">
         <v>3.1</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -3266,21 +3266,21 @@
       </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
-      <c r="S20" s="37">
+      <c r="S20" s="36">
         <v>45086</v>
       </c>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37">
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36">
         <v>45089</v>
       </c>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="45">
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="43">
         <v>0.8</v>
       </c>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -3313,10 +3313,10 @@
       <c r="BE20" s="16"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="A21" s="34">
         <v>4</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="35" t="s">
         <v>32</v>
       </c>
@@ -3335,17 +3335,17 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="37">
+      <c r="S21" s="36">
         <v>45089</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -3378,10 +3378,10 @@
       <c r="BE21" s="16"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="34">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="35" t="s">
         <v>41</v>
       </c>
@@ -3400,19 +3400,19 @@
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
-      <c r="S22" s="37">
+      <c r="S22" s="36">
         <v>45089</v>
       </c>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37">
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36">
         <v>45093</v>
       </c>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3445,10 +3445,10 @@
       <c r="BE22" s="16"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -3469,19 +3469,19 @@
       </c>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
-      <c r="S23" s="37">
+      <c r="S23" s="36">
         <v>45090</v>
       </c>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37">
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36">
         <v>45093</v>
       </c>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3514,10 +3514,10 @@
       <c r="BE23" s="16"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -3538,19 +3538,19 @@
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
-      <c r="S24" s="37">
+      <c r="S24" s="36">
         <v>45090</v>
       </c>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37">
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36">
         <v>45093</v>
       </c>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3583,10 +3583,10 @@
       <c r="BE24" s="16"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3607,19 +3607,19 @@
       </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
-      <c r="S25" s="37">
+      <c r="S25" s="36">
         <v>45090</v>
       </c>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37">
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36">
         <v>45093</v>
       </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3652,10 +3652,10 @@
       <c r="BE25" s="16"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -3671,26 +3671,26 @@
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
-      <c r="P26" s="39" t="s">
+      <c r="P26" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="37">
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="36">
         <v>45089</v>
       </c>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37">
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36">
         <v>45093</v>
       </c>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="45">
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="43">
         <v>0.64</v>
       </c>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3723,10 +3723,10 @@
       <c r="BE26" s="16"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3742,26 +3742,26 @@
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
-      <c r="P27" s="40" t="s">
+      <c r="P27" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="37">
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="36">
         <v>45089</v>
       </c>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37">
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36">
         <v>45093</v>
       </c>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="45">
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="43">
         <v>0.3</v>
       </c>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3794,10 +3794,10 @@
       <c r="BE27" s="16"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3813,26 +3813,26 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="37">
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="36">
         <v>45089</v>
       </c>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37">
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36">
         <v>45093</v>
       </c>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="45">
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="43">
         <v>0.8</v>
       </c>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3865,10 +3865,10 @@
       <c r="BE28" s="16"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3884,26 +3884,26 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
-      <c r="P29" s="38" t="s">
+      <c r="P29" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="37">
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="36">
         <v>45089</v>
       </c>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37">
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36">
         <v>45093</v>
       </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="34" t="s">
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3936,10 +3936,10 @@
       <c r="BE29" s="16"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3955,26 +3955,26 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
-      <c r="P30" s="36" t="s">
+      <c r="P30" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="37">
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="36">
         <v>45089</v>
       </c>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37">
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36">
         <v>45093</v>
       </c>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="45">
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="43">
         <v>0.7</v>
       </c>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -4007,10 +4007,10 @@
       <c r="BE30" s="16"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -4031,19 +4031,19 @@
       </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
-      <c r="S31" s="37">
+      <c r="S31" s="36">
         <v>45090</v>
       </c>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37">
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36">
         <v>45093</v>
       </c>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -4076,10 +4076,10 @@
       <c r="BE31" s="16"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
+      <c r="A32" s="34">
         <v>4.2</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="35" t="s">
         <v>61</v>
       </c>
@@ -4095,24 +4095,24 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
-      <c r="P32" s="44" t="s">
+      <c r="P32" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="37">
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="36">
         <v>45089</v>
       </c>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37">
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36">
         <v>45093</v>
       </c>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -4145,10 +4145,10 @@
       <c r="BE32" s="16"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -4164,26 +4164,26 @@
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
-      <c r="P33" s="44" t="s">
+      <c r="P33" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="37">
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="36">
         <v>45089</v>
       </c>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37">
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36">
         <v>45089</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="45">
-        <v>0.9</v>
-      </c>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -4216,10 +4216,10 @@
       <c r="BE33" s="16"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -4235,26 +4235,26 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="44" t="s">
+      <c r="P34" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="37">
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="36">
         <v>45089</v>
       </c>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37">
-        <v>45090</v>
-      </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36">
+        <v>45089</v>
+      </c>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -4287,10 +4287,10 @@
       <c r="BE34" s="16"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -4306,24 +4306,24 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="44" t="s">
+      <c r="P35" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="37">
-        <v>45090</v>
-      </c>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37">
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="36">
         <v>45091</v>
       </c>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36">
+        <v>45091</v>
+      </c>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -4336,8 +4336,7 @@
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
-      <c r="AN35" s="27"/>
-      <c r="AO35" s="4"/>
+      <c r="AO35" s="27"/>
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
@@ -4356,10 +4355,10 @@
       <c r="BE35" s="16"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -4375,24 +4374,24 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
-      <c r="P36" s="44" t="s">
+      <c r="P36" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="37">
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="36">
         <v>45091</v>
       </c>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37">
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36">
         <v>45091</v>
       </c>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -4405,8 +4404,7 @@
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
-      <c r="AN36" s="27"/>
-      <c r="AO36" s="4"/>
+      <c r="AO36" s="27"/>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
@@ -4425,10 +4423,10 @@
       <c r="BE36" s="16"/>
     </row>
     <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -4444,24 +4442,24 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
-      <c r="P37" s="44" t="s">
+      <c r="P37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="37">
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="36">
         <v>45092</v>
       </c>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37">
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36">
         <v>45092</v>
       </c>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -4475,8 +4473,7 @@
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
-      <c r="AO37" s="27"/>
-      <c r="AP37" s="4"/>
+      <c r="AP37" s="27"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
       <c r="AS37" s="4"/>
@@ -4494,10 +4491,10 @@
       <c r="BE37" s="16"/>
     </row>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -4513,24 +4510,24 @@
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
-      <c r="P38" s="44" t="s">
+      <c r="P38" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="37">
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="36">
         <v>45092</v>
       </c>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37">
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36">
         <v>45093</v>
       </c>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4544,8 +4541,7 @@
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
-      <c r="AO38" s="27"/>
-      <c r="AP38" s="4"/>
+      <c r="AP38" s="27"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
       <c r="AS38" s="4"/>
@@ -4563,10 +4559,10 @@
       <c r="BE38" s="16"/>
     </row>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -4582,24 +4578,24 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="44" t="s">
+      <c r="P39" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="37">
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="36">
         <v>45093</v>
       </c>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37">
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36">
         <v>45093</v>
       </c>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4614,8 +4610,7 @@
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="4"/>
+      <c r="AQ39" s="27"/>
       <c r="AR39" s="4"/>
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
@@ -4632,10 +4627,10 @@
       <c r="BE39" s="16"/>
     </row>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33">
+      <c r="A40" s="34">
         <v>4.3</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="35" t="s">
         <v>76</v>
       </c>
@@ -4656,15 +4651,15 @@
       </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4697,10 +4692,10 @@
       <c r="BE40" s="16"/>
     </row>
     <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4716,24 +4711,24 @@
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
-      <c r="P41" s="38" t="s">
+      <c r="P41" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="37">
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="36">
         <v>45096</v>
       </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37">
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36">
         <v>45096</v>
       </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4766,10 +4761,10 @@
       <c r="BE41" s="16"/>
     </row>
     <row r="42" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -4785,24 +4780,24 @@
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
-      <c r="P42" s="38" t="s">
+      <c r="P42" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="37">
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="36">
         <v>45096</v>
       </c>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37">
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36">
         <v>45096</v>
       </c>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4835,10 +4830,10 @@
       <c r="BE42" s="16"/>
     </row>
     <row r="43" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4854,24 +4849,24 @@
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="40" t="s">
+      <c r="P43" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="37">
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="36">
         <v>45096</v>
       </c>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37">
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36">
         <v>45096</v>
       </c>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4904,10 +4899,10 @@
       <c r="BE43" s="16"/>
     </row>
     <row r="44" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4923,24 +4918,24 @@
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="40" t="s">
+      <c r="P44" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="37">
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="36">
         <v>45096</v>
       </c>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37">
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36">
         <v>45096</v>
       </c>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4973,10 +4968,10 @@
       <c r="BE44" s="16"/>
     </row>
     <row r="45" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4992,24 +4987,24 @@
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
-      <c r="P45" s="39" t="s">
+      <c r="P45" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="37">
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="36">
         <v>45096</v>
       </c>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37">
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36">
         <v>45096</v>
       </c>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -5042,10 +5037,10 @@
       <c r="BE45" s="16"/>
     </row>
     <row r="46" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -5061,24 +5056,24 @@
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
-      <c r="P46" s="39" t="s">
+      <c r="P46" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="37">
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="36">
         <v>45096</v>
       </c>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37">
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36">
         <v>45096</v>
       </c>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -5111,10 +5106,10 @@
       <c r="BE46" s="16"/>
     </row>
     <row r="47" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -5130,24 +5125,24 @@
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
-      <c r="P47" s="36" t="s">
+      <c r="P47" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="37">
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="36">
         <v>45096</v>
       </c>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37">
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36">
         <v>45096</v>
       </c>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -5180,10 +5175,10 @@
       <c r="BE47" s="16"/>
     </row>
     <row r="48" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -5199,24 +5194,24 @@
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
-      <c r="P48" s="36" t="s">
+      <c r="P48" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="37">
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="36">
         <v>45096</v>
       </c>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37">
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36">
         <v>45096</v>
       </c>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -5249,10 +5244,10 @@
       <c r="BE48" s="16"/>
     </row>
     <row r="49" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -5268,24 +5263,24 @@
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
-      <c r="P49" s="44" t="s">
+      <c r="P49" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="37">
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="36">
         <v>45096</v>
       </c>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37">
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36">
         <v>45096</v>
       </c>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -5318,10 +5313,10 @@
       <c r="BE49" s="16"/>
     </row>
     <row r="50" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="34"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -5337,24 +5332,24 @@
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
-      <c r="P50" s="44" t="s">
+      <c r="P50" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="37">
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="36">
         <v>45096</v>
       </c>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37">
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36">
         <v>45096</v>
       </c>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -5387,10 +5382,10 @@
       <c r="BE50" s="16"/>
     </row>
     <row r="51" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33">
+      <c r="A51" s="34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="35" t="s">
         <v>98</v>
       </c>
@@ -5411,15 +5406,15 @@
       </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -5452,10 +5447,10 @@
       <c r="BE51" s="16"/>
     </row>
     <row r="52" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="34"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -5471,24 +5466,24 @@
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="36" t="s">
+      <c r="P52" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="37">
+      <c r="Q52" s="92"/>
+      <c r="R52" s="92"/>
+      <c r="S52" s="36">
         <v>45096</v>
       </c>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37">
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36">
         <v>45098</v>
       </c>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5521,10 +5516,10 @@
       <c r="BE52" s="16"/>
     </row>
     <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="34"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -5545,19 +5540,19 @@
       </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
-      <c r="S53" s="37">
+      <c r="S53" s="36">
         <v>45096</v>
       </c>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37">
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36">
         <v>45098</v>
       </c>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5590,10 +5585,10 @@
       <c r="BE53" s="16"/>
     </row>
     <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -5614,19 +5609,19 @@
       </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
-      <c r="S54" s="37">
+      <c r="S54" s="36">
         <v>45096</v>
       </c>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37">
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36">
         <v>45098</v>
       </c>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5659,10 +5654,10 @@
       <c r="BE54" s="16"/>
     </row>
     <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -5678,24 +5673,24 @@
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
-      <c r="P55" s="39" t="s">
+      <c r="P55" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="37">
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="36">
         <v>45096</v>
       </c>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37">
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36">
         <v>45098</v>
       </c>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5728,10 +5723,10 @@
       <c r="BE55" s="16"/>
     </row>
     <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -5747,24 +5742,24 @@
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
-      <c r="P56" s="40" t="s">
+      <c r="P56" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="37">
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="36">
         <v>45096</v>
       </c>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37">
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36">
         <v>45098</v>
       </c>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5797,10 +5792,10 @@
       <c r="BE56" s="16"/>
     </row>
     <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="34"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -5816,24 +5811,24 @@
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
-      <c r="P57" s="38" t="s">
+      <c r="P57" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="37">
+      <c r="Q57" s="91"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="36">
         <v>45096</v>
       </c>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37">
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36">
         <v>45098</v>
       </c>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5866,43 +5861,43 @@
       <c r="BE57" s="16"/>
     </row>
     <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="38" t="s">
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="37">
+      <c r="Q58" s="91"/>
+      <c r="R58" s="91"/>
+      <c r="S58" s="36">
         <v>45096</v>
       </c>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37">
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36">
         <v>45098</v>
       </c>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5935,10 +5930,10 @@
       <c r="BE58" s="16"/>
     </row>
     <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -5954,24 +5949,24 @@
       <c r="M59" s="35"/>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
-      <c r="P59" s="36" t="s">
+      <c r="P59" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="37">
+      <c r="Q59" s="92"/>
+      <c r="R59" s="92"/>
+      <c r="S59" s="36">
         <v>45096</v>
       </c>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37">
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36">
         <v>45098</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -6004,43 +5999,43 @@
       <c r="BE59" s="16"/>
     </row>
     <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="34"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="40" t="s">
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="37">
+      <c r="Q60" s="90"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="36">
         <v>45096</v>
       </c>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37">
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36">
         <v>45098</v>
       </c>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -6073,10 +6068,10 @@
       <c r="BE60" s="16"/>
     </row>
     <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33">
+      <c r="A61" s="34">
         <v>4.5</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="35" t="s">
         <v>119</v>
       </c>
@@ -6095,15 +6090,15 @@
       <c r="P61" s="35"/>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -6136,10 +6131,10 @@
       <c r="BE61" s="16"/>
     </row>
     <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -6160,19 +6155,19 @@
       </c>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
-      <c r="S62" s="37">
+      <c r="S62" s="36">
         <v>45097</v>
       </c>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37">
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36">
         <v>45100</v>
       </c>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -6205,10 +6200,10 @@
       <c r="BE62" s="16"/>
     </row>
     <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -6229,19 +6224,19 @@
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
-      <c r="S63" s="37">
+      <c r="S63" s="36">
         <v>45090</v>
       </c>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37">
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36">
         <v>45100</v>
       </c>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -6274,10 +6269,10 @@
       <c r="BE63" s="16"/>
     </row>
     <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="34"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -6298,19 +6293,19 @@
       </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
-      <c r="S64" s="37">
+      <c r="S64" s="36">
         <v>45090</v>
       </c>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37">
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36">
         <v>45100</v>
       </c>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -6343,10 +6338,10 @@
       <c r="BE64" s="16"/>
     </row>
     <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -6367,19 +6362,19 @@
       </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
-      <c r="S65" s="37">
+      <c r="S65" s="36">
         <v>45090</v>
       </c>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37">
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36">
         <v>45100</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -6412,10 +6407,10 @@
       <c r="BE65" s="16"/>
     </row>
     <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="34"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -6431,24 +6426,24 @@
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
       <c r="O66" s="35"/>
-      <c r="P66" s="39" t="s">
+      <c r="P66" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="37">
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="36">
         <v>45089</v>
       </c>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37">
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36">
         <v>45100</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -6481,43 +6476,43 @@
       <c r="BE66" s="16"/>
     </row>
     <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="40" t="s">
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="37">
+      <c r="Q67" s="90"/>
+      <c r="R67" s="90"/>
+      <c r="S67" s="36">
         <v>45089</v>
       </c>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37">
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36">
         <v>45100</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="33"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6550,10 +6545,10 @@
       <c r="BE67" s="16"/>
     </row>
     <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -6569,24 +6564,24 @@
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
-      <c r="P68" s="38" t="s">
+      <c r="P68" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="37">
+      <c r="Q68" s="91"/>
+      <c r="R68" s="91"/>
+      <c r="S68" s="36">
         <v>45089</v>
       </c>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37">
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36">
         <v>45100</v>
       </c>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="33"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6619,10 +6614,10 @@
       <c r="BE68" s="16"/>
     </row>
     <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -6638,24 +6633,24 @@
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
       <c r="O69" s="35"/>
-      <c r="P69" s="38" t="s">
+      <c r="P69" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="37">
+      <c r="Q69" s="91"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="36">
         <v>45089</v>
       </c>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37">
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36">
         <v>45100</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6688,10 +6683,10 @@
       <c r="BE69" s="16"/>
     </row>
     <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="34"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -6707,24 +6702,24 @@
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
       <c r="O70" s="35"/>
-      <c r="P70" s="36" t="s">
+      <c r="P70" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="37">
+      <c r="Q70" s="92"/>
+      <c r="R70" s="92"/>
+      <c r="S70" s="36">
         <v>45089</v>
       </c>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37">
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36">
         <v>45100</v>
       </c>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6757,10 +6752,10 @@
       <c r="BE70" s="16"/>
     </row>
     <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="34"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -6781,19 +6776,19 @@
       </c>
       <c r="Q71" s="35"/>
       <c r="R71" s="35"/>
-      <c r="S71" s="37">
+      <c r="S71" s="36">
         <v>45090</v>
       </c>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37">
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36">
         <v>45100</v>
       </c>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6826,10 +6821,10 @@
       <c r="BE71" s="16"/>
     </row>
     <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33">
+      <c r="A72" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B72" s="34"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="35" t="s">
         <v>141</v>
       </c>
@@ -6848,15 +6843,15 @@
       <c r="P72" s="35"/>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="33"/>
+      <c r="AA72" s="33"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6889,8 +6884,8 @@
       <c r="BE72" s="16"/>
     </row>
     <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -6911,19 +6906,19 @@
       </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="35"/>
-      <c r="S73" s="37">
+      <c r="S73" s="36">
         <v>45097</v>
       </c>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37">
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36">
         <v>45100</v>
       </c>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6956,8 +6951,8 @@
       <c r="BE73" s="16"/>
     </row>
     <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="33"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -6978,19 +6973,19 @@
       </c>
       <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
-      <c r="S74" s="37">
+      <c r="S74" s="36">
         <v>45090</v>
       </c>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37">
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36">
         <v>45100</v>
       </c>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -7023,8 +7018,8 @@
       <c r="BE74" s="16"/>
     </row>
     <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -7045,19 +7040,19 @@
       </c>
       <c r="Q75" s="35"/>
       <c r="R75" s="35"/>
-      <c r="S75" s="37">
+      <c r="S75" s="36">
         <v>45090</v>
       </c>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37">
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="36">
         <v>45100</v>
       </c>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -7090,8 +7085,8 @@
       <c r="BE75" s="16"/>
     </row>
     <row r="76" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -7112,19 +7107,19 @@
       </c>
       <c r="Q76" s="35"/>
       <c r="R76" s="35"/>
-      <c r="S76" s="37">
+      <c r="S76" s="36">
         <v>45090</v>
       </c>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37">
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="36">
         <v>45100</v>
       </c>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -7157,8 +7152,8 @@
       <c r="BE76" s="16"/>
     </row>
     <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="34"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -7174,24 +7169,24 @@
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
       <c r="O77" s="35"/>
-      <c r="P77" s="39" t="s">
+      <c r="P77" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="37">
+      <c r="Q77" s="41"/>
+      <c r="R77" s="41"/>
+      <c r="S77" s="36">
         <v>45089</v>
       </c>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37">
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36">
         <v>45100</v>
       </c>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
-      <c r="AA77" s="34"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="33"/>
+      <c r="AA77" s="33"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -7224,8 +7219,8 @@
       <c r="BE77" s="16"/>
     </row>
     <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="34"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -7241,24 +7236,24 @@
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
       <c r="O78" s="35"/>
-      <c r="P78" s="40" t="s">
+      <c r="P78" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="37">
+      <c r="Q78" s="90"/>
+      <c r="R78" s="90"/>
+      <c r="S78" s="36">
         <v>45089</v>
       </c>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37">
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36">
         <v>45100</v>
       </c>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+      <c r="AA78" s="33"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -7291,8 +7286,8 @@
       <c r="BE78" s="16"/>
     </row>
     <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -7308,24 +7303,24 @@
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
       <c r="O79" s="35"/>
-      <c r="P79" s="38" t="s">
+      <c r="P79" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="37">
+      <c r="Q79" s="91"/>
+      <c r="R79" s="91"/>
+      <c r="S79" s="36">
         <v>45089</v>
       </c>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="37">
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36">
         <v>45100</v>
       </c>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+      <c r="AA79" s="33"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -7358,8 +7353,8 @@
       <c r="BE79" s="16"/>
     </row>
     <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -7375,24 +7370,24 @@
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
       <c r="O80" s="35"/>
-      <c r="P80" s="38" t="s">
+      <c r="P80" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="37">
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="36">
         <v>45089</v>
       </c>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37">
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36">
         <v>45100</v>
       </c>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="34"/>
-      <c r="AA80" s="34"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="33"/>
+      <c r="AA80" s="33"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -7425,8 +7420,8 @@
       <c r="BE80" s="16"/>
     </row>
     <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
-      <c r="B81" s="34"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -7442,24 +7437,24 @@
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
       <c r="O81" s="35"/>
-      <c r="P81" s="36" t="s">
+      <c r="P81" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="37">
+      <c r="Q81" s="92"/>
+      <c r="R81" s="92"/>
+      <c r="S81" s="36">
         <v>45089</v>
       </c>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37">
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36">
         <v>45100</v>
       </c>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="34"/>
-      <c r="AA81" s="34"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="33"/>
+      <c r="AA81" s="33"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -7492,8 +7487,8 @@
       <c r="BE81" s="16"/>
     </row>
     <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33"/>
-      <c r="B82" s="34"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -7514,19 +7509,19 @@
       </c>
       <c r="Q82" s="35"/>
       <c r="R82" s="35"/>
-      <c r="S82" s="37">
+      <c r="S82" s="36">
         <v>45090</v>
       </c>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37">
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36">
         <v>45100</v>
       </c>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="36"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="33"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -7559,10 +7554,10 @@
       <c r="BE82" s="16"/>
     </row>
     <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33">
+      <c r="A83" s="34">
         <v>5</v>
       </c>
-      <c r="B83" s="34"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="35" t="s">
         <v>37</v>
       </c>
@@ -7581,15 +7576,15 @@
       <c r="P83" s="35"/>
       <c r="Q83" s="35"/>
       <c r="R83" s="35"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -7622,10 +7617,10 @@
       <c r="BE83" s="16"/>
     </row>
     <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33">
+      <c r="A84" s="34">
         <v>5</v>
       </c>
-      <c r="B84" s="34"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="35" t="s">
         <v>38</v>
       </c>
@@ -7644,15 +7639,15 @@
       <c r="P84" s="35"/>
       <c r="Q84" s="35"/>
       <c r="R84" s="35"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="33"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7685,10 +7680,10 @@
       <c r="BE84" s="16"/>
     </row>
     <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="33">
+      <c r="A85" s="34">
         <v>5</v>
       </c>
-      <c r="B85" s="34"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="35" t="s">
         <v>39</v>
       </c>
@@ -7707,15 +7702,15 @@
       <c r="P85" s="35"/>
       <c r="Q85" s="35"/>
       <c r="R85" s="35"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="34"/>
-      <c r="Z85" s="34"/>
-      <c r="AA85" s="34"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="33"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -7748,8 +7743,8 @@
       <c r="BE85" s="16"/>
     </row>
     <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -7766,15 +7761,15 @@
       <c r="P86" s="35"/>
       <c r="Q86" s="35"/>
       <c r="R86" s="35"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="34"/>
-      <c r="Z86" s="34"/>
-      <c r="AA86" s="34"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="33"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -7807,8 +7802,8 @@
       <c r="BE86" s="16"/>
     </row>
     <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="34"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -7825,15 +7820,15 @@
       <c r="P87" s="35"/>
       <c r="Q87" s="35"/>
       <c r="R87" s="35"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="34"/>
-      <c r="Z87" s="34"/>
-      <c r="AA87" s="34"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="33"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
@@ -7866,10 +7861,10 @@
       <c r="BE87" s="16"/>
     </row>
     <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="33">
+      <c r="A88" s="34">
         <v>6</v>
       </c>
-      <c r="B88" s="34"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="35" t="s">
         <v>40</v>
       </c>
@@ -7888,15 +7883,15 @@
       <c r="P88" s="35"/>
       <c r="Q88" s="35"/>
       <c r="R88" s="35"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="34"/>
-      <c r="Z88" s="34"/>
-      <c r="AA88" s="34"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="36"/>
+      <c r="X88" s="36"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="33"/>
+      <c r="AA88" s="33"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
@@ -7929,8 +7924,8 @@
       <c r="BE88" s="17"/>
     </row>
     <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="34"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -7947,15 +7942,15 @@
       <c r="P89" s="35"/>
       <c r="Q89" s="35"/>
       <c r="R89" s="35"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="34"/>
-      <c r="Z89" s="34"/>
-      <c r="AA89" s="34"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
@@ -7988,8 +7983,8 @@
       <c r="BE89" s="16"/>
     </row>
     <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -8006,15 +8001,15 @@
       <c r="P90" s="35"/>
       <c r="Q90" s="35"/>
       <c r="R90" s="35"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="34"/>
-      <c r="Z90" s="34"/>
-      <c r="AA90" s="34"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="33"/>
+      <c r="Z90" s="33"/>
+      <c r="AA90" s="33"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
@@ -8047,33 +8042,33 @@
       <c r="BE90" s="16"/>
     </row>
     <row r="91" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="89"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-      <c r="J91" s="91"/>
-      <c r="K91" s="91"/>
-      <c r="L91" s="91"/>
-      <c r="M91" s="91"/>
-      <c r="N91" s="91"/>
-      <c r="O91" s="91"/>
-      <c r="P91" s="91"/>
-      <c r="Q91" s="91"/>
-      <c r="R91" s="91"/>
-      <c r="S91" s="92"/>
-      <c r="T91" s="92"/>
-      <c r="U91" s="92"/>
-      <c r="V91" s="92"/>
-      <c r="W91" s="92"/>
-      <c r="X91" s="92"/>
-      <c r="Y91" s="90"/>
-      <c r="Z91" s="90"/>
-      <c r="AA91" s="90"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+      <c r="AA91" s="37"/>
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
       <c r="AD91" s="18"/>
@@ -8110,25 +8105,573 @@
     <row r="94" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="610">
-    <mergeCell ref="Y90:AA90"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="H89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="S89:U89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="Y87:AA87"/>
-    <mergeCell ref="Y88:AA88"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="H88:O88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:O53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:U86"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="A85:B85"/>
     <mergeCell ref="Y91:AA91"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C83:G83"/>
@@ -8153,573 +8696,25 @@
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="V26:X26"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:U85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="H86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:U86"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:O82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:O71"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:O72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:O77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:O78"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="H89:O89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="S89:U89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:X87"/>
+    <mergeCell ref="H88:O88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
@@ -8749,21 +8744,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -8877,10 +8857,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8895,17 +8898,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4E64A0-89A2-457C-BE60-9E09E6D727FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D0304-C36F-4A83-B792-F560E3724965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -611,6 +611,37 @@
       <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.6.2</t>
+  </si>
+  <si>
+    <t>4.6.3</t>
+  </si>
+  <si>
+    <t>4.6.4</t>
+  </si>
+  <si>
+    <t>4.6.5</t>
+  </si>
+  <si>
+    <t>4.6.6</t>
+  </si>
+  <si>
+    <t>4.6.7</t>
+  </si>
+  <si>
+    <t>4.6.8</t>
+  </si>
+  <si>
+    <t>4.6.9</t>
+  </si>
+  <si>
+    <t>4.6.10</t>
   </si>
 </sst>
 </file>
@@ -689,7 +720,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +850,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7C505F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEFFD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1247,18 +1284,177 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,163 +1464,7 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1473,6 +1513,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEFFD5"/>
       <color rgb="FF7C505F"/>
       <color rgb="FFF8BAF1"/>
       <color rgb="FFE8D1FF"/>
@@ -1758,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BK35" sqref="BK35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64:O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1773,140 +1814,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="81" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="71" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="68">
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="55">
         <v>45078</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="57"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="71" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="68">
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="55">
         <v>45107</v>
       </c>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="70"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:59" ht="16" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="77" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77" t="s">
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="74" t="s">
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
       <c r="AB4" s="12">
         <f>AH1</f>
         <v>45078</v>
@@ -2031,41 +2072,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s">
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75" t="s">
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="75"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
       <c r="AB5" s="20">
         <f>AH1</f>
         <v>45078</v>
@@ -2188,33 +2229,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
       <c r="AB6" s="21" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -2337,10 +2378,10 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
@@ -2359,19 +2400,19 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="36">
+      <c r="S7" s="37">
         <v>45079</v>
       </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37">
         <v>45082</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="4"/>
@@ -2404,10 +2445,10 @@
       <c r="BE7" s="16"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -2428,21 +2469,21 @@
       </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="36">
+      <c r="S8" s="37">
         <v>45079</v>
       </c>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36">
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37">
         <v>45079</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="47" t="s">
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="4"/>
@@ -2475,10 +2516,10 @@
       <c r="BE8" s="16"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>1.2</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -2499,21 +2540,21 @@
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="36">
+      <c r="S9" s="37">
         <v>45079</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36">
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>45082</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="47" t="s">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="4"/>
@@ -2546,10 +2587,10 @@
       <c r="BE9" s="16"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>1.3</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -2570,21 +2611,21 @@
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="36">
+      <c r="S10" s="37">
         <v>45079</v>
       </c>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36">
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37">
         <v>45082</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="47" t="s">
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="4"/>
@@ -2617,10 +2658,10 @@
       <c r="BE10" s="16"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>1.4</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -2641,21 +2682,21 @@
       </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="36">
+      <c r="S11" s="37">
         <v>45082</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36">
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37">
         <v>45082</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="47" t="s">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2688,10 +2729,10 @@
       <c r="BE11" s="16"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="35" t="s">
         <v>20</v>
       </c>
@@ -2710,19 +2751,19 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="36">
+      <c r="S12" s="37">
         <v>45083</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36">
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>45084</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2755,10 +2796,10 @@
       <c r="BE12" s="16"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>2.1</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -2779,21 +2820,21 @@
       </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="36">
+      <c r="S13" s="37">
         <v>45083</v>
       </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36">
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37">
         <v>45089</v>
       </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="46" t="s">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2826,45 +2867,45 @@
       <c r="BE13" s="16"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="62" t="s">
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="36">
+      <c r="Q14" s="75"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="37">
         <v>45083</v>
       </c>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36">
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37">
         <v>45083</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="47" t="s">
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2897,45 +2938,45 @@
       <c r="BE14" s="16"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88">
+      <c r="A15" s="49">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="48" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="48" t="s">
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="56">
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="79">
         <v>45084</v>
       </c>
-      <c r="T15" s="57"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="56">
+      <c r="T15" s="80"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="79">
         <v>45089</v>
       </c>
-      <c r="W15" s="57"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="59" t="s">
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="61"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="84"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2968,10 +3009,10 @@
       <c r="BE15" s="16"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16" s="87">
         <v>2.4</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -2992,21 +3033,21 @@
       </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
-      <c r="S16" s="36">
+      <c r="S16" s="37">
         <v>45084</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36">
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37">
         <v>45089</v>
       </c>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="46" t="s">
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -3039,10 +3080,10 @@
       <c r="BE16" s="16"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>2.5</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -3063,21 +3104,21 @@
       </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="36">
+      <c r="S17" s="37">
         <v>45083</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36">
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37">
         <v>45084</v>
       </c>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="46" t="s">
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -3110,10 +3151,10 @@
       <c r="BE17" s="16"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>2.6</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -3134,19 +3175,19 @@
       </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
-      <c r="S18" s="36">
+      <c r="S18" s="37">
         <v>45084</v>
       </c>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="43">
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="47">
         <v>0.2</v>
       </c>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -3179,10 +3220,10 @@
       <c r="BE18" s="16"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>3</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
@@ -3201,15 +3242,15 @@
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -3242,10 +3283,10 @@
       <c r="BE19" s="16"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>3.1</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -3266,21 +3307,21 @@
       </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
-      <c r="S20" s="36">
+      <c r="S20" s="37">
         <v>45086</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36">
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37">
         <v>45089</v>
       </c>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="43">
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="47">
         <v>0.8</v>
       </c>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -3313,10 +3354,10 @@
       <c r="BE20" s="16"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="35" t="s">
         <v>32</v>
       </c>
@@ -3335,17 +3376,17 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="36">
+      <c r="S21" s="37">
         <v>45089</v>
       </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -3378,10 +3419,10 @@
       <c r="BE21" s="16"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="35" t="s">
         <v>41</v>
       </c>
@@ -3400,19 +3441,19 @@
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
-      <c r="S22" s="36">
+      <c r="S22" s="37">
         <v>45089</v>
       </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36">
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37">
         <v>45093</v>
       </c>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3445,43 +3486,43 @@
       <c r="BE22" s="16"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
       <c r="P23" s="35" t="s">
         <v>58</v>
       </c>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
-      <c r="S23" s="36">
+      <c r="S23" s="37">
         <v>45090</v>
       </c>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36">
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37">
         <v>45093</v>
       </c>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3514,43 +3555,43 @@
       <c r="BE23" s="16"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
       <c r="P24" s="35" t="s">
         <v>58</v>
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
-      <c r="S24" s="36">
+      <c r="S24" s="37">
         <v>45090</v>
       </c>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36">
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37">
         <v>45093</v>
       </c>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3583,43 +3624,43 @@
       <c r="BE24" s="16"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
       <c r="P25" s="35" t="s">
         <v>58</v>
       </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
-      <c r="S25" s="36">
+      <c r="S25" s="37">
         <v>45090</v>
       </c>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36">
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37">
         <v>45093</v>
       </c>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3652,45 +3693,45 @@
       <c r="BE25" s="16"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="33"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="41" t="s">
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="36">
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="37">
         <v>45089</v>
       </c>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36">
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37">
         <v>45093</v>
       </c>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="43">
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="47">
         <v>0.64</v>
       </c>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3723,45 +3764,45 @@
       <c r="BE26" s="16"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="90" t="s">
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="36">
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="37">
         <v>45089</v>
       </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36">
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37">
         <v>45093</v>
       </c>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="43">
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="47">
         <v>0.3</v>
       </c>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3794,45 +3835,45 @@
       <c r="BE27" s="16"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="91" t="s">
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="36">
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="37">
         <v>45089</v>
       </c>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36">
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37">
         <v>45093</v>
       </c>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="43">
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="47">
         <v>0.8</v>
       </c>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3865,45 +3906,45 @@
       <c r="BE28" s="16"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="91" t="s">
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="36">
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="37">
         <v>45089</v>
       </c>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36">
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37">
         <v>45093</v>
       </c>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="33" t="s">
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3936,45 +3977,45 @@
       <c r="BE29" s="16"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="92" t="s">
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="36">
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37">
         <v>45089</v>
       </c>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36">
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37">
         <v>45093</v>
       </c>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="43">
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="47">
         <v>0.7</v>
       </c>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -4007,43 +4048,43 @@
       <c r="BE30" s="16"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
       <c r="P31" s="35" t="s">
         <v>58</v>
       </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
-      <c r="S31" s="36">
+      <c r="S31" s="37">
         <v>45090</v>
       </c>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36">
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37">
         <v>45093</v>
       </c>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -4076,10 +4117,10 @@
       <c r="BE31" s="16"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>4.2</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="35" t="s">
         <v>61</v>
       </c>
@@ -4095,24 +4136,24 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
-      <c r="P32" s="40" t="s">
+      <c r="P32" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="36">
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="37">
         <v>45089</v>
       </c>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36">
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37">
         <v>45093</v>
       </c>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -4145,10 +4186,10 @@
       <c r="BE32" s="16"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -4164,26 +4205,26 @@
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
-      <c r="P33" s="40" t="s">
+      <c r="P33" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="36">
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="37">
         <v>45089</v>
       </c>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36">
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37">
         <v>45089</v>
       </c>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="46" t="s">
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -4216,10 +4257,10 @@
       <c r="BE33" s="16"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -4235,26 +4276,26 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="40" t="s">
+      <c r="P34" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="36">
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="37">
         <v>45089</v>
       </c>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36">
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37">
         <v>45089</v>
       </c>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="46" t="s">
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -4287,10 +4328,10 @@
       <c r="BE34" s="16"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -4306,24 +4347,24 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="36">
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="37">
         <v>45091</v>
       </c>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36">
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37">
         <v>45091</v>
       </c>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -4355,10 +4396,10 @@
       <c r="BE35" s="16"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -4374,24 +4415,24 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
-      <c r="P36" s="40" t="s">
+      <c r="P36" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="36">
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="37">
         <v>45091</v>
       </c>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36">
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37">
         <v>45091</v>
       </c>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -4423,10 +4464,10 @@
       <c r="BE36" s="16"/>
     </row>
     <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -4442,24 +4483,24 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
-      <c r="P37" s="40" t="s">
+      <c r="P37" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="36">
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="37">
         <v>45092</v>
       </c>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36">
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37">
         <v>45092</v>
       </c>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -4491,10 +4532,10 @@
       <c r="BE37" s="16"/>
     </row>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -4510,24 +4551,24 @@
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
-      <c r="P38" s="40" t="s">
+      <c r="P38" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="36">
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="37">
         <v>45092</v>
       </c>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36">
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37">
         <v>45093</v>
       </c>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4559,10 +4600,10 @@
       <c r="BE38" s="16"/>
     </row>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -4578,24 +4619,24 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="40" t="s">
+      <c r="P39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="36">
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="37">
         <v>45093</v>
       </c>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36">
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37">
         <v>45093</v>
       </c>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4627,10 +4668,10 @@
       <c r="BE39" s="16"/>
     </row>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>4.3</v>
       </c>
-      <c r="B40" s="33"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="35" t="s">
         <v>76</v>
       </c>
@@ -4651,15 +4692,15 @@
       </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4692,10 +4733,10 @@
       <c r="BE40" s="16"/>
     </row>
     <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="33"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4711,24 +4752,24 @@
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
-      <c r="P41" s="91" t="s">
+      <c r="P41" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="36">
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="37">
         <v>45096</v>
       </c>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36">
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37">
         <v>45096</v>
       </c>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4761,10 +4802,10 @@
       <c r="BE41" s="16"/>
     </row>
     <row r="42" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -4780,24 +4821,24 @@
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
-      <c r="P42" s="91" t="s">
+      <c r="P42" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="36">
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="37">
         <v>45096</v>
       </c>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36">
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37">
         <v>45096</v>
       </c>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4830,10 +4871,10 @@
       <c r="BE42" s="16"/>
     </row>
     <row r="43" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="33"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4849,24 +4890,24 @@
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="90" t="s">
+      <c r="P43" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="36">
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="37">
         <v>45096</v>
       </c>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36">
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37">
         <v>45096</v>
       </c>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4899,10 +4940,10 @@
       <c r="BE43" s="16"/>
     </row>
     <row r="44" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4918,24 +4959,24 @@
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="90" t="s">
+      <c r="P44" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="36">
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="37">
         <v>45096</v>
       </c>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36">
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37">
         <v>45096</v>
       </c>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4968,10 +5009,10 @@
       <c r="BE44" s="16"/>
     </row>
     <row r="45" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="33"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4987,24 +5028,24 @@
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
-      <c r="P45" s="41" t="s">
+      <c r="P45" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="36">
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="37">
         <v>45096</v>
       </c>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36">
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37">
         <v>45096</v>
       </c>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -5037,10 +5078,10 @@
       <c r="BE45" s="16"/>
     </row>
     <row r="46" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="33"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -5056,24 +5097,24 @@
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
-      <c r="P46" s="41" t="s">
+      <c r="P46" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="36">
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="37">
         <v>45096</v>
       </c>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36">
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37">
         <v>45096</v>
       </c>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -5106,10 +5147,10 @@
       <c r="BE46" s="16"/>
     </row>
     <row r="47" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="33"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -5125,24 +5166,24 @@
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
-      <c r="P47" s="92" t="s">
+      <c r="P47" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="36">
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="37">
         <v>45096</v>
       </c>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36">
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37">
         <v>45096</v>
       </c>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -5175,10 +5216,10 @@
       <c r="BE47" s="16"/>
     </row>
     <row r="48" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="33"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -5194,24 +5235,24 @@
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
-      <c r="P48" s="92" t="s">
+      <c r="P48" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q48" s="92"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="36">
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="37">
         <v>45096</v>
       </c>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36">
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37">
         <v>45096</v>
       </c>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -5244,10 +5285,10 @@
       <c r="BE48" s="16"/>
     </row>
     <row r="49" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -5263,24 +5304,24 @@
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
-      <c r="P49" s="40" t="s">
+      <c r="P49" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="36">
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="37">
         <v>45096</v>
       </c>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36">
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37">
         <v>45096</v>
       </c>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -5313,10 +5354,10 @@
       <c r="BE49" s="16"/>
     </row>
     <row r="50" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -5332,24 +5373,24 @@
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
-      <c r="P50" s="40" t="s">
+      <c r="P50" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="36">
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="37">
         <v>45096</v>
       </c>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36">
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37">
         <v>45096</v>
       </c>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -5382,10 +5423,10 @@
       <c r="BE50" s="16"/>
     </row>
     <row r="51" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34">
+      <c r="A51" s="33">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="35" t="s">
         <v>98</v>
       </c>
@@ -5406,15 +5447,15 @@
       </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -5447,10 +5488,10 @@
       <c r="BE51" s="16"/>
     </row>
     <row r="52" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="33"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -5466,24 +5507,24 @@
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="92" t="s">
+      <c r="P52" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q52" s="92"/>
-      <c r="R52" s="92"/>
-      <c r="S52" s="36">
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="37">
         <v>45096</v>
       </c>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36">
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37">
         <v>45098</v>
       </c>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5516,10 +5557,10 @@
       <c r="BE52" s="16"/>
     </row>
     <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="33"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -5540,19 +5581,19 @@
       </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
-      <c r="S53" s="36">
+      <c r="S53" s="37">
         <v>45096</v>
       </c>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36">
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37">
         <v>45098</v>
       </c>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5585,10 +5626,10 @@
       <c r="BE53" s="16"/>
     </row>
     <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="33"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -5609,19 +5650,19 @@
       </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
-      <c r="S54" s="36">
+      <c r="S54" s="37">
         <v>45096</v>
       </c>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36">
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37">
         <v>45098</v>
       </c>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5654,10 +5695,10 @@
       <c r="BE54" s="16"/>
     </row>
     <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="33"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -5673,24 +5714,24 @@
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
-      <c r="P55" s="41" t="s">
+      <c r="P55" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="36">
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="37">
         <v>45096</v>
       </c>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36">
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37">
         <v>45098</v>
       </c>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5723,10 +5764,10 @@
       <c r="BE55" s="16"/>
     </row>
     <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="33"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -5742,24 +5783,24 @@
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
-      <c r="P56" s="90" t="s">
+      <c r="P56" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="36">
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="37">
         <v>45096</v>
       </c>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36">
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37">
         <v>45098</v>
       </c>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5792,10 +5833,10 @@
       <c r="BE56" s="16"/>
     </row>
     <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="33"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -5811,24 +5852,24 @@
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
-      <c r="P57" s="91" t="s">
+      <c r="P57" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="91"/>
-      <c r="S57" s="36">
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="37">
         <v>45096</v>
       </c>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36">
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37">
         <v>45098</v>
       </c>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5861,43 +5902,43 @@
       <c r="BE57" s="16"/>
     </row>
     <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="33"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="48" t="s">
+      <c r="H58" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="91" t="s">
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q58" s="91"/>
-      <c r="R58" s="91"/>
-      <c r="S58" s="36">
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="37">
         <v>45096</v>
       </c>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36">
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37">
         <v>45098</v>
       </c>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5930,10 +5971,10 @@
       <c r="BE58" s="16"/>
     </row>
     <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="33"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -5949,24 +5990,24 @@
       <c r="M59" s="35"/>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
-      <c r="P59" s="92" t="s">
+      <c r="P59" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q59" s="92"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="36">
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="37">
         <v>45096</v>
       </c>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36">
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37">
         <v>45098</v>
       </c>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5999,43 +6040,43 @@
       <c r="BE59" s="16"/>
     </row>
     <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="33"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="48" t="s">
+      <c r="H60" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="90" t="s">
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q60" s="90"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="36">
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="37">
         <v>45096</v>
       </c>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36">
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37">
         <v>45098</v>
       </c>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -6068,10 +6109,10 @@
       <c r="BE60" s="16"/>
     </row>
     <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34">
+      <c r="A61" s="33">
         <v>4.5</v>
       </c>
-      <c r="B61" s="33"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="35" t="s">
         <v>119</v>
       </c>
@@ -6090,15 +6131,15 @@
       <c r="P61" s="35"/>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -6131,43 +6172,43 @@
       <c r="BE61" s="16"/>
     </row>
     <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="33"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="35" t="s">
+      <c r="H62" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
       <c r="P62" s="35" t="s">
         <v>131</v>
       </c>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
-      <c r="S62" s="36">
-        <v>45097</v>
-      </c>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36">
+      <c r="S62" s="37">
+        <v>45090</v>
+      </c>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37">
         <v>45100</v>
       </c>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -6200,10 +6241,10 @@
       <c r="BE62" s="16"/>
     </row>
     <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="33"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -6224,19 +6265,19 @@
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
-      <c r="S63" s="36">
+      <c r="S63" s="37">
         <v>45090</v>
       </c>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36">
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37">
         <v>45100</v>
       </c>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -6269,10 +6310,10 @@
       <c r="BE63" s="16"/>
     </row>
     <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="33"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -6293,19 +6334,19 @@
       </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
-      <c r="S64" s="36">
+      <c r="S64" s="37">
         <v>45090</v>
       </c>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36">
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37">
         <v>45100</v>
       </c>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -6338,10 +6379,10 @@
       <c r="BE64" s="16"/>
     </row>
     <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="33"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -6362,19 +6403,19 @@
       </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
-      <c r="S65" s="36">
+      <c r="S65" s="37">
         <v>45090</v>
       </c>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36">
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37">
         <v>45100</v>
       </c>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -6407,10 +6448,10 @@
       <c r="BE65" s="16"/>
     </row>
     <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="33"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -6426,24 +6467,24 @@
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
       <c r="O66" s="35"/>
-      <c r="P66" s="41" t="s">
+      <c r="P66" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="36">
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="37">
         <v>45089</v>
       </c>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36">
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37">
         <v>45100</v>
       </c>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33"/>
-      <c r="AA66" s="33"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -6476,43 +6517,43 @@
       <c r="BE66" s="16"/>
     </row>
     <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="33"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
-      <c r="H67" s="48" t="s">
+      <c r="H67" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="90" t="s">
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="90"/>
-      <c r="R67" s="90"/>
-      <c r="S67" s="36">
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="37">
         <v>45089</v>
       </c>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36">
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37">
         <v>45100</v>
       </c>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33"/>
-      <c r="AA67" s="33"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6545,10 +6586,10 @@
       <c r="BE67" s="16"/>
     </row>
     <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="33"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -6564,24 +6605,24 @@
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
-      <c r="P68" s="91" t="s">
+      <c r="P68" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q68" s="91"/>
-      <c r="R68" s="91"/>
-      <c r="S68" s="36">
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="37">
         <v>45089</v>
       </c>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36">
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37">
         <v>45100</v>
       </c>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="33"/>
-      <c r="Z68" s="33"/>
-      <c r="AA68" s="33"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6614,10 +6655,10 @@
       <c r="BE68" s="16"/>
     </row>
     <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="33"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -6633,24 +6674,24 @@
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
       <c r="O69" s="35"/>
-      <c r="P69" s="91" t="s">
+      <c r="P69" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q69" s="91"/>
-      <c r="R69" s="91"/>
-      <c r="S69" s="36">
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="37">
         <v>45089</v>
       </c>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36">
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37">
         <v>45100</v>
       </c>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6683,10 +6724,10 @@
       <c r="BE69" s="16"/>
     </row>
     <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="33"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -6702,24 +6743,24 @@
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
       <c r="O70" s="35"/>
-      <c r="P70" s="92" t="s">
+      <c r="P70" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q70" s="92"/>
-      <c r="R70" s="92"/>
-      <c r="S70" s="36">
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="37">
         <v>45089</v>
       </c>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36">
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37">
         <v>45100</v>
       </c>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="33"/>
-      <c r="Z70" s="33"/>
-      <c r="AA70" s="33"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6752,10 +6793,10 @@
       <c r="BE70" s="16"/>
     </row>
     <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="33"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -6776,19 +6817,19 @@
       </c>
       <c r="Q71" s="35"/>
       <c r="R71" s="35"/>
-      <c r="S71" s="36">
+      <c r="S71" s="37">
         <v>45090</v>
       </c>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36">
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37">
         <v>45100</v>
       </c>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6821,10 +6862,10 @@
       <c r="BE71" s="16"/>
     </row>
     <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="34">
+      <c r="A72" s="33">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B72" s="33"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="35" t="s">
         <v>141</v>
       </c>
@@ -6843,15 +6884,15 @@
       <c r="P72" s="35"/>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6884,8 +6925,10 @@
       <c r="BE72" s="16"/>
     </row>
     <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="34"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -6906,19 +6949,19 @@
       </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="35"/>
-      <c r="S73" s="36">
+      <c r="S73" s="37">
         <v>45097</v>
       </c>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="36">
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37">
         <v>45100</v>
       </c>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="33"/>
-      <c r="Z73" s="33"/>
-      <c r="AA73" s="33"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6951,8 +6994,10 @@
       <c r="BE73" s="16"/>
     </row>
     <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="34"/>
-      <c r="B74" s="33"/>
+      <c r="A74" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="34"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -6973,19 +7018,19 @@
       </c>
       <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
-      <c r="S74" s="36">
+      <c r="S74" s="37">
         <v>45090</v>
       </c>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36">
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37">
         <v>45100</v>
       </c>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="33"/>
-      <c r="Z74" s="33"/>
-      <c r="AA74" s="33"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -7018,8 +7063,10 @@
       <c r="BE74" s="16"/>
     </row>
     <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="34"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="34"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -7040,19 +7087,19 @@
       </c>
       <c r="Q75" s="35"/>
       <c r="R75" s="35"/>
-      <c r="S75" s="36">
+      <c r="S75" s="37">
         <v>45090</v>
       </c>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="36">
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37">
         <v>45100</v>
       </c>
-      <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="33"/>
-      <c r="Z75" s="33"/>
-      <c r="AA75" s="33"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -7085,8 +7132,10 @@
       <c r="BE75" s="16"/>
     </row>
     <row r="76" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="34"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -7107,19 +7156,19 @@
       </c>
       <c r="Q76" s="35"/>
       <c r="R76" s="35"/>
-      <c r="S76" s="36">
+      <c r="S76" s="37">
         <v>45090</v>
       </c>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36">
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37">
         <v>45100</v>
       </c>
-      <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="33"/>
-      <c r="Z76" s="33"/>
-      <c r="AA76" s="33"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -7152,8 +7201,10 @@
       <c r="BE76" s="16"/>
     </row>
     <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="34"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -7169,24 +7220,24 @@
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
       <c r="O77" s="35"/>
-      <c r="P77" s="41" t="s">
+      <c r="P77" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="36">
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="37">
         <v>45089</v>
       </c>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36">
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37">
         <v>45100</v>
       </c>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="33"/>
-      <c r="Z77" s="33"/>
-      <c r="AA77" s="33"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -7219,8 +7270,10 @@
       <c r="BE77" s="16"/>
     </row>
     <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="34"/>
-      <c r="B78" s="33"/>
+      <c r="A78" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="34"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -7236,24 +7289,24 @@
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
       <c r="O78" s="35"/>
-      <c r="P78" s="90" t="s">
+      <c r="P78" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q78" s="90"/>
-      <c r="R78" s="90"/>
-      <c r="S78" s="36">
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="37">
         <v>45089</v>
       </c>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36">
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37">
         <v>45100</v>
       </c>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="33"/>
-      <c r="AA78" s="33"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -7286,8 +7339,10 @@
       <c r="BE78" s="16"/>
     </row>
     <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="34"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="34"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -7303,24 +7358,24 @@
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
       <c r="O79" s="35"/>
-      <c r="P79" s="91" t="s">
+      <c r="P79" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="91"/>
-      <c r="S79" s="36">
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="37">
         <v>45089</v>
       </c>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36">
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37">
         <v>45100</v>
       </c>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -7353,8 +7408,10 @@
       <c r="BE79" s="16"/>
     </row>
     <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="34"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -7370,24 +7427,24 @@
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
       <c r="O80" s="35"/>
-      <c r="P80" s="91" t="s">
+      <c r="P80" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="36">
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="37">
         <v>45089</v>
       </c>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36">
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37">
         <v>45100</v>
       </c>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="33"/>
-      <c r="Z80" s="33"/>
-      <c r="AA80" s="33"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -7420,8 +7477,10 @@
       <c r="BE80" s="16"/>
     </row>
     <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="34"/>
-      <c r="B81" s="33"/>
+      <c r="A81" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="34"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -7437,24 +7496,24 @@
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
       <c r="O81" s="35"/>
-      <c r="P81" s="92" t="s">
+      <c r="P81" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q81" s="92"/>
-      <c r="R81" s="92"/>
-      <c r="S81" s="36">
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="37">
         <v>45089</v>
       </c>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36">
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37">
         <v>45100</v>
       </c>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -7487,8 +7546,10 @@
       <c r="BE81" s="16"/>
     </row>
     <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="34"/>
-      <c r="B82" s="33"/>
+      <c r="A82" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="34"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -7509,19 +7570,19 @@
       </c>
       <c r="Q82" s="35"/>
       <c r="R82" s="35"/>
-      <c r="S82" s="36">
+      <c r="S82" s="37">
         <v>45090</v>
       </c>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36">
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37">
         <v>45100</v>
       </c>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="33"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -7554,10 +7615,10 @@
       <c r="BE82" s="16"/>
     </row>
     <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="34">
+      <c r="A83" s="33">
         <v>5</v>
       </c>
-      <c r="B83" s="33"/>
+      <c r="B83" s="34"/>
       <c r="C83" s="35" t="s">
         <v>37</v>
       </c>
@@ -7576,15 +7637,15 @@
       <c r="P83" s="35"/>
       <c r="Q83" s="35"/>
       <c r="R83" s="35"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -7617,10 +7678,10 @@
       <c r="BE83" s="16"/>
     </row>
     <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="34">
+      <c r="A84" s="33">
         <v>5</v>
       </c>
-      <c r="B84" s="33"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="35" t="s">
         <v>38</v>
       </c>
@@ -7639,15 +7700,15 @@
       <c r="P84" s="35"/>
       <c r="Q84" s="35"/>
       <c r="R84" s="35"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="33"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7680,10 +7741,10 @@
       <c r="BE84" s="16"/>
     </row>
     <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34">
+      <c r="A85" s="33">
         <v>5</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="35" t="s">
         <v>39</v>
       </c>
@@ -7702,15 +7763,15 @@
       <c r="P85" s="35"/>
       <c r="Q85" s="35"/>
       <c r="R85" s="35"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -7743,8 +7804,8 @@
       <c r="BE85" s="16"/>
     </row>
     <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -7761,15 +7822,15 @@
       <c r="P86" s="35"/>
       <c r="Q86" s="35"/>
       <c r="R86" s="35"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="34"/>
+      <c r="AA86" s="34"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -7802,8 +7863,8 @@
       <c r="BE86" s="16"/>
     </row>
     <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -7820,15 +7881,15 @@
       <c r="P87" s="35"/>
       <c r="Q87" s="35"/>
       <c r="R87" s="35"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="34"/>
+      <c r="AA87" s="34"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
@@ -7861,10 +7922,10 @@
       <c r="BE87" s="16"/>
     </row>
     <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="34">
+      <c r="A88" s="33">
         <v>6</v>
       </c>
-      <c r="B88" s="33"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="35" t="s">
         <v>40</v>
       </c>
@@ -7883,15 +7944,15 @@
       <c r="P88" s="35"/>
       <c r="Q88" s="35"/>
       <c r="R88" s="35"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
@@ -7924,8 +7985,8 @@
       <c r="BE88" s="17"/>
     </row>
     <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
-      <c r="B89" s="33"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -7942,15 +8003,15 @@
       <c r="P89" s="35"/>
       <c r="Q89" s="35"/>
       <c r="R89" s="35"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="34"/>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
@@ -7983,8 +8044,8 @@
       <c r="BE89" s="16"/>
     </row>
     <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -8001,15 +8062,15 @@
       <c r="P90" s="35"/>
       <c r="Q90" s="35"/>
       <c r="R90" s="35"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="33"/>
-      <c r="Z90" s="33"/>
-      <c r="AA90" s="33"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="34"/>
+      <c r="AA90" s="34"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
@@ -8042,33 +8103,33 @@
       <c r="BE90" s="16"/>
     </row>
     <row r="91" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="37"/>
-      <c r="AA91" s="37"/>
+      <c r="A91" s="89"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="91"/>
+      <c r="M91" s="91"/>
+      <c r="N91" s="91"/>
+      <c r="O91" s="91"/>
+      <c r="P91" s="91"/>
+      <c r="Q91" s="91"/>
+      <c r="R91" s="91"/>
+      <c r="S91" s="92"/>
+      <c r="T91" s="92"/>
+      <c r="U91" s="92"/>
+      <c r="V91" s="92"/>
+      <c r="W91" s="92"/>
+      <c r="X91" s="92"/>
+      <c r="Y91" s="90"/>
+      <c r="Z91" s="90"/>
+      <c r="AA91" s="90"/>
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
       <c r="AD91" s="18"/>
@@ -8105,206 +8166,392 @@
     <row r="94" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="610">
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:O77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:O78"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:O71"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:O72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="H89:O89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="S89:U89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:X87"/>
+    <mergeCell ref="H88:O88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:O91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="V91:X91"/>
+    <mergeCell ref="Y89:AA89"/>
+    <mergeCell ref="H84:O84"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="S84:U84"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:U86"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="C82:G82"/>
     <mergeCell ref="H82:O82"/>
@@ -8329,392 +8576,206 @@
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="H53:O53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="H86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:U86"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:U85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H91:O91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="V91:X91"/>
-    <mergeCell ref="Y89:AA89"/>
-    <mergeCell ref="H84:O84"/>
-    <mergeCell ref="P84:R84"/>
-    <mergeCell ref="S84:U84"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="Y84:AA84"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y90:AA90"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="H89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="S89:U89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="Y87:AA87"/>
-    <mergeCell ref="Y88:AA88"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="H88:O88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
@@ -8744,6 +8805,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -8857,33 +8933,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8898,9 +8951,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D0304-C36F-4A83-B792-F560E3724965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A484D-A5E0-4584-BC1B-71DA74213ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="163">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -606,13 +606,6 @@
     <t>explanation.css</t>
   </si>
   <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4.6.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -642,6 +635,10 @@
   </si>
   <si>
     <t>4.6.10</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -655,7 +652,7 @@
     <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -719,8 +716,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,6 +860,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEFFD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,187 +1294,205 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1513,6 +1541,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFEFFD5"/>
       <color rgb="FF7C505F"/>
       <color rgb="FFF8BAF1"/>
@@ -1799,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64:O64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1814,140 +1843,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="68" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="58" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="55">
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="69">
         <v>45078</v>
       </c>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="57"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="58" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="55">
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="69">
         <v>45107</v>
       </c>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="71"/>
     </row>
     <row r="3" spans="1:59" ht="16" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="64" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64" t="s">
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="61" t="s">
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
       <c r="AB4" s="12">
         <f>AH1</f>
         <v>45078</v>
@@ -2072,41 +2101,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62" t="s">
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62" t="s">
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="62"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
       <c r="AB5" s="20">
         <f>AH1</f>
         <v>45078</v>
@@ -2229,33 +2258,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
       <c r="AB6" s="21" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -2378,10 +2407,10 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7" s="34">
         <v>1</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
@@ -2400,19 +2429,19 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="37">
+      <c r="S7" s="36">
         <v>45079</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37">
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36">
         <v>45082</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="4"/>
@@ -2445,10 +2474,10 @@
       <c r="BE7" s="16"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -2469,21 +2498,21 @@
       </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="37">
+      <c r="S8" s="36">
         <v>45079</v>
       </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37">
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36">
         <v>45079</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="46" t="s">
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="4"/>
@@ -2516,10 +2545,10 @@
       <c r="BE8" s="16"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="34">
         <v>1.2</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -2540,21 +2569,21 @@
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="37">
+      <c r="S9" s="36">
         <v>45079</v>
       </c>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36">
         <v>45082</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="4"/>
@@ -2587,10 +2616,10 @@
       <c r="BE9" s="16"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>1.3</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -2611,21 +2640,21 @@
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="37">
+      <c r="S10" s="36">
         <v>45079</v>
       </c>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37">
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36">
         <v>45082</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="46" t="s">
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="4"/>
@@ -2658,10 +2687,10 @@
       <c r="BE10" s="16"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="34">
         <v>1.4</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -2682,21 +2711,21 @@
       </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="37">
+      <c r="S11" s="36">
         <v>45082</v>
       </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37">
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36">
         <v>45082</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="46" t="s">
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2729,10 +2758,10 @@
       <c r="BE11" s="16"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="34">
         <v>2</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="35" t="s">
         <v>20</v>
       </c>
@@ -2751,19 +2780,19 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="37">
+      <c r="S12" s="36">
         <v>45083</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37">
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36">
         <v>45084</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2796,10 +2825,10 @@
       <c r="BE12" s="16"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="34">
         <v>2.1</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -2820,21 +2849,21 @@
       </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="37">
+      <c r="S13" s="36">
         <v>45083</v>
       </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37">
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36">
         <v>45089</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="45" t="s">
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2867,45 +2896,45 @@
       <c r="BE13" s="16"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="34">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="85" t="s">
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="37">
+      <c r="Q14" s="53"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="36">
         <v>45083</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37">
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36">
         <v>45083</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="46" t="s">
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2938,45 +2967,45 @@
       <c r="BE14" s="16"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+      <c r="A15" s="89">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="41" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="41" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="79">
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="57">
         <v>45084</v>
       </c>
-      <c r="T15" s="80"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="79">
+      <c r="T15" s="58"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="57">
         <v>45089</v>
       </c>
-      <c r="W15" s="80"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="82" t="s">
+      <c r="W15" s="58"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="84"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="62"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -3009,10 +3038,10 @@
       <c r="BE15" s="16"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87">
+      <c r="A16" s="45">
         <v>2.4</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -3033,21 +3062,21 @@
       </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
-      <c r="S16" s="37">
+      <c r="S16" s="36">
         <v>45084</v>
       </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37">
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36">
         <v>45089</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="45" t="s">
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -3080,10 +3109,10 @@
       <c r="BE16" s="16"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="34">
         <v>2.5</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -3104,21 +3133,21 @@
       </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="37">
+      <c r="S17" s="36">
         <v>45083</v>
       </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37">
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36">
         <v>45084</v>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="45" t="s">
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -3151,10 +3180,10 @@
       <c r="BE17" s="16"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="34">
         <v>2.6</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -3175,19 +3204,19 @@
       </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
-      <c r="S18" s="37">
+      <c r="S18" s="36">
         <v>45084</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="47">
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="44">
         <v>0.2</v>
       </c>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -3220,10 +3249,10 @@
       <c r="BE18" s="16"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
+      <c r="A19" s="34">
         <v>3</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
@@ -3242,15 +3271,15 @@
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -3283,10 +3312,10 @@
       <c r="BE19" s="16"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="34">
         <v>3.1</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -3307,21 +3336,21 @@
       </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
-      <c r="S20" s="37">
+      <c r="S20" s="36">
         <v>45086</v>
       </c>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37">
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36">
         <v>45089</v>
       </c>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="47">
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="44">
         <v>0.8</v>
       </c>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -3354,10 +3383,10 @@
       <c r="BE20" s="16"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="A21" s="34">
         <v>4</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="35" t="s">
         <v>32</v>
       </c>
@@ -3376,17 +3405,17 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="37">
+      <c r="S21" s="36">
         <v>45089</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -3419,41 +3448,43 @@
       <c r="BE21" s="16"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="34">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
-      <c r="S22" s="37">
+      <c r="S22" s="36">
         <v>45089</v>
       </c>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3467,9 +3498,9 @@
       <c r="AL22" s="4"/>
       <c r="AM22" s="25"/>
       <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="25"/>
+      <c r="AO22" s="96"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="96"/>
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
@@ -3486,43 +3517,45 @@
       <c r="BE22" s="16"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="93" t="s">
+      <c r="H23" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="37">
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="36">
         <v>45090</v>
       </c>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3536,9 +3569,9 @@
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
+      <c r="AO23" s="96"/>
+      <c r="AP23" s="96"/>
+      <c r="AQ23" s="96"/>
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
@@ -3555,43 +3588,45 @@
       <c r="BE23" s="16"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="93" t="s">
+      <c r="H24" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="37">
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="36">
         <v>45090</v>
       </c>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3605,9 +3640,9 @@
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="24"/>
+      <c r="AO24" s="96"/>
+      <c r="AP24" s="96"/>
+      <c r="AQ24" s="96"/>
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
@@ -3624,43 +3659,45 @@
       <c r="BE24" s="16"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="93" t="s">
+      <c r="H25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="37">
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="36">
         <v>45090</v>
       </c>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="94"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3674,9 +3711,9 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="24"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="24"/>
+      <c r="AO25" s="96"/>
+      <c r="AP25" s="96"/>
+      <c r="AQ25" s="96"/>
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
@@ -3693,45 +3730,45 @@
       <c r="BE25" s="16"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="39" t="s">
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="37">
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="36">
         <v>45089</v>
       </c>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="47">
-        <v>0.64</v>
-      </c>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3745,9 +3782,9 @@
       <c r="AL26" s="4"/>
       <c r="AM26" s="24"/>
       <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
+      <c r="AO26" s="96"/>
+      <c r="AP26" s="96"/>
+      <c r="AQ26" s="96"/>
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
@@ -3764,45 +3801,45 @@
       <c r="BE26" s="16"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="40" t="s">
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="37">
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="36">
         <v>45089</v>
       </c>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3816,9 +3853,9 @@
       <c r="AL27" s="4"/>
       <c r="AM27" s="24"/>
       <c r="AN27" s="24"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="24"/>
+      <c r="AO27" s="96"/>
+      <c r="AP27" s="96"/>
+      <c r="AQ27" s="96"/>
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
@@ -3835,45 +3872,45 @@
       <c r="BE27" s="16"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="38" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="37">
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="36">
         <v>45089</v>
       </c>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="47">
-        <v>0.8</v>
-      </c>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3887,9 +3924,9 @@
       <c r="AL28" s="4"/>
       <c r="AM28" s="24"/>
       <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="24"/>
+      <c r="AO28" s="96"/>
+      <c r="AP28" s="96"/>
+      <c r="AQ28" s="96"/>
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
@@ -3906,45 +3943,45 @@
       <c r="BE28" s="16"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="38" t="s">
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="37">
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="36">
         <v>45089</v>
       </c>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3958,9 +3995,9 @@
       <c r="AL29" s="4"/>
       <c r="AM29" s="24"/>
       <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="24"/>
+      <c r="AO29" s="96"/>
+      <c r="AP29" s="96"/>
+      <c r="AQ29" s="96"/>
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
@@ -3977,45 +4014,45 @@
       <c r="BE29" s="16"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="36" t="s">
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="37">
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="36">
         <v>45089</v>
       </c>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -4029,9 +4066,9 @@
       <c r="AL30" s="4"/>
       <c r="AM30" s="24"/>
       <c r="AN30" s="24"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
+      <c r="AO30" s="96"/>
+      <c r="AP30" s="96"/>
+      <c r="AQ30" s="96"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
@@ -4048,43 +4085,45 @@
       <c r="BE30" s="16"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="93" t="s">
+      <c r="H31" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="37">
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="36">
         <v>45090</v>
       </c>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37">
-        <v>45093</v>
-      </c>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36">
+        <v>45090</v>
+      </c>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -4098,9 +4137,9 @@
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
       <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
+      <c r="AO31" s="96"/>
+      <c r="AP31" s="96"/>
+      <c r="AQ31" s="96"/>
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
@@ -4117,10 +4156,10 @@
       <c r="BE31" s="16"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
+      <c r="A32" s="34">
         <v>4.2</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="35" t="s">
         <v>61</v>
       </c>
@@ -4136,24 +4175,24 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
-      <c r="P32" s="44" t="s">
+      <c r="P32" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="37">
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="36">
         <v>45089</v>
       </c>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37">
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36">
         <v>45093</v>
       </c>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -4186,10 +4225,10 @@
       <c r="BE32" s="16"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -4205,26 +4244,26 @@
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
-      <c r="P33" s="44" t="s">
+      <c r="P33" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="37">
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="36">
         <v>45089</v>
       </c>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37">
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36">
         <v>45089</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="45" t="s">
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -4257,10 +4296,10 @@
       <c r="BE33" s="16"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -4276,26 +4315,26 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="44" t="s">
+      <c r="P34" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="37">
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="36">
         <v>45089</v>
       </c>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37">
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36">
         <v>45089</v>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="45" t="s">
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="98"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -4328,10 +4367,10 @@
       <c r="BE34" s="16"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -4347,24 +4386,24 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="44" t="s">
+      <c r="P35" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="37">
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="36">
         <v>45091</v>
       </c>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37">
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36">
         <v>45091</v>
       </c>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -4396,10 +4435,10 @@
       <c r="BE35" s="16"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -4415,24 +4454,24 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
-      <c r="P36" s="44" t="s">
+      <c r="P36" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="37">
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="36">
         <v>45091</v>
       </c>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37">
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36">
         <v>45091</v>
       </c>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -4464,10 +4503,10 @@
       <c r="BE36" s="16"/>
     </row>
     <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -4483,24 +4522,24 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
-      <c r="P37" s="44" t="s">
+      <c r="P37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="37">
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="36">
         <v>45092</v>
       </c>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37">
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36">
         <v>45092</v>
       </c>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -4532,10 +4571,10 @@
       <c r="BE37" s="16"/>
     </row>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -4551,24 +4590,24 @@
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
-      <c r="P38" s="44" t="s">
+      <c r="P38" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="37">
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="36">
         <v>45092</v>
       </c>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37">
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36">
         <v>45093</v>
       </c>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4600,10 +4639,10 @@
       <c r="BE38" s="16"/>
     </row>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -4619,24 +4658,24 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="44" t="s">
+      <c r="P39" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="37">
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="36">
         <v>45093</v>
       </c>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37">
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36">
         <v>45093</v>
       </c>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4668,10 +4707,10 @@
       <c r="BE39" s="16"/>
     </row>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33">
+      <c r="A40" s="34">
         <v>4.3</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="35" t="s">
         <v>76</v>
       </c>
@@ -4692,15 +4731,15 @@
       </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4733,10 +4772,10 @@
       <c r="BE40" s="16"/>
     </row>
     <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4752,24 +4791,24 @@
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
-      <c r="P41" s="38" t="s">
+      <c r="P41" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="37">
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="36">
         <v>45096</v>
       </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37">
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36">
         <v>45096</v>
       </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4802,10 +4841,10 @@
       <c r="BE41" s="16"/>
     </row>
     <row r="42" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -4821,24 +4860,24 @@
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
-      <c r="P42" s="38" t="s">
+      <c r="P42" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="37">
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="36">
         <v>45096</v>
       </c>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37">
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36">
         <v>45096</v>
       </c>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4871,10 +4910,10 @@
       <c r="BE42" s="16"/>
     </row>
     <row r="43" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4890,24 +4929,24 @@
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="40" t="s">
+      <c r="P43" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="37">
+      <c r="Q43" s="91"/>
+      <c r="R43" s="91"/>
+      <c r="S43" s="36">
         <v>45096</v>
       </c>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37">
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36">
         <v>45096</v>
       </c>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4940,10 +4979,10 @@
       <c r="BE43" s="16"/>
     </row>
     <row r="44" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4959,24 +4998,24 @@
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="40" t="s">
+      <c r="P44" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="37">
+      <c r="Q44" s="91"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="36">
         <v>45096</v>
       </c>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37">
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36">
         <v>45096</v>
       </c>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -5009,10 +5048,10 @@
       <c r="BE44" s="16"/>
     </row>
     <row r="45" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -5028,24 +5067,24 @@
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
-      <c r="P45" s="39" t="s">
+      <c r="P45" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="37">
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="36">
         <v>45096</v>
       </c>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37">
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36">
         <v>45096</v>
       </c>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -5078,10 +5117,10 @@
       <c r="BE45" s="16"/>
     </row>
     <row r="46" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -5097,24 +5136,24 @@
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
-      <c r="P46" s="39" t="s">
+      <c r="P46" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="37">
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="36">
         <v>45096</v>
       </c>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37">
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36">
         <v>45096</v>
       </c>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -5147,10 +5186,10 @@
       <c r="BE46" s="16"/>
     </row>
     <row r="47" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -5166,24 +5205,24 @@
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
-      <c r="P47" s="36" t="s">
+      <c r="P47" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="37">
+      <c r="Q47" s="93"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="36">
         <v>45096</v>
       </c>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37">
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36">
         <v>45096</v>
       </c>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -5216,10 +5255,10 @@
       <c r="BE47" s="16"/>
     </row>
     <row r="48" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -5235,24 +5274,24 @@
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
-      <c r="P48" s="36" t="s">
+      <c r="P48" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="37">
+      <c r="Q48" s="93"/>
+      <c r="R48" s="93"/>
+      <c r="S48" s="36">
         <v>45096</v>
       </c>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37">
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36">
         <v>45096</v>
       </c>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -5285,10 +5324,10 @@
       <c r="BE48" s="16"/>
     </row>
     <row r="49" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -5304,24 +5343,24 @@
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
-      <c r="P49" s="44" t="s">
+      <c r="P49" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="37">
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="36">
         <v>45096</v>
       </c>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37">
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36">
         <v>45096</v>
       </c>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -5354,10 +5393,10 @@
       <c r="BE49" s="16"/>
     </row>
     <row r="50" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="34"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -5373,24 +5412,24 @@
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
-      <c r="P50" s="44" t="s">
+      <c r="P50" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="37">
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="36">
         <v>45096</v>
       </c>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37">
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36">
         <v>45096</v>
       </c>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -5423,10 +5462,10 @@
       <c r="BE50" s="16"/>
     </row>
     <row r="51" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33">
+      <c r="A51" s="34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="35" t="s">
         <v>98</v>
       </c>
@@ -5447,15 +5486,15 @@
       </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -5488,10 +5527,10 @@
       <c r="BE51" s="16"/>
     </row>
     <row r="52" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="34"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -5507,24 +5546,24 @@
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="36" t="s">
+      <c r="P52" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="37">
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="36">
         <v>45096</v>
       </c>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37">
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36">
         <v>45098</v>
       </c>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5557,10 +5596,10 @@
       <c r="BE52" s="16"/>
     </row>
     <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="34"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -5581,19 +5620,19 @@
       </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
-      <c r="S53" s="37">
+      <c r="S53" s="36">
         <v>45096</v>
       </c>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37">
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36">
         <v>45098</v>
       </c>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5626,10 +5665,10 @@
       <c r="BE53" s="16"/>
     </row>
     <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -5650,19 +5689,19 @@
       </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
-      <c r="S54" s="37">
+      <c r="S54" s="36">
         <v>45096</v>
       </c>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37">
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36">
         <v>45098</v>
       </c>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5695,10 +5734,10 @@
       <c r="BE54" s="16"/>
     </row>
     <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -5714,24 +5753,24 @@
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
-      <c r="P55" s="39" t="s">
+      <c r="P55" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="37">
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="36">
         <v>45096</v>
       </c>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37">
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36">
         <v>45098</v>
       </c>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5764,10 +5803,10 @@
       <c r="BE55" s="16"/>
     </row>
     <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -5783,24 +5822,24 @@
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
-      <c r="P56" s="40" t="s">
+      <c r="P56" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="37">
+      <c r="Q56" s="91"/>
+      <c r="R56" s="91"/>
+      <c r="S56" s="36">
         <v>45096</v>
       </c>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37">
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36">
         <v>45098</v>
       </c>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5833,10 +5872,10 @@
       <c r="BE56" s="16"/>
     </row>
     <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="34"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -5852,24 +5891,24 @@
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
-      <c r="P57" s="38" t="s">
+      <c r="P57" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="37">
+      <c r="Q57" s="92"/>
+      <c r="R57" s="92"/>
+      <c r="S57" s="36">
         <v>45096</v>
       </c>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37">
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36">
         <v>45098</v>
       </c>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5902,43 +5941,43 @@
       <c r="BE57" s="16"/>
     </row>
     <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="38" t="s">
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="37">
+      <c r="Q58" s="92"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="36">
         <v>45096</v>
       </c>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37">
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36">
         <v>45098</v>
       </c>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5971,10 +6010,10 @@
       <c r="BE58" s="16"/>
     </row>
     <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -5990,24 +6029,24 @@
       <c r="M59" s="35"/>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
-      <c r="P59" s="36" t="s">
+      <c r="P59" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="37">
+      <c r="Q59" s="93"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="36">
         <v>45096</v>
       </c>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37">
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36">
         <v>45098</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -6040,43 +6079,43 @@
       <c r="BE59" s="16"/>
     </row>
     <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="34"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="40" t="s">
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="37">
+      <c r="Q60" s="91"/>
+      <c r="R60" s="91"/>
+      <c r="S60" s="36">
         <v>45096</v>
       </c>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37">
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36">
         <v>45098</v>
       </c>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -6109,10 +6148,10 @@
       <c r="BE60" s="16"/>
     </row>
     <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33">
+      <c r="A61" s="34">
         <v>4.5</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="35" t="s">
         <v>119</v>
       </c>
@@ -6131,15 +6170,15 @@
       <c r="P61" s="35"/>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -6172,43 +6211,43 @@
       <c r="BE61" s="16"/>
     </row>
     <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="35" t="s">
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="37">
-        <v>45090</v>
-      </c>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37">
+      <c r="Q62" s="50"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="36">
+        <v>45097</v>
+      </c>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36">
         <v>45100</v>
       </c>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -6241,10 +6280,10 @@
       <c r="BE62" s="16"/>
     </row>
     <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -6260,24 +6299,24 @@
       <c r="M63" s="35"/>
       <c r="N63" s="35"/>
       <c r="O63" s="35"/>
-      <c r="P63" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="37">
-        <v>45090</v>
-      </c>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37">
+      <c r="P63" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="36">
+        <v>45092</v>
+      </c>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36">
         <v>45100</v>
       </c>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -6289,9 +6328,9 @@
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
-      <c r="AM63" s="31"/>
-      <c r="AN63" s="31"/>
-      <c r="AO63" s="31"/>
+      <c r="AM63" s="96"/>
+      <c r="AN63" s="96"/>
+      <c r="AO63" s="96"/>
       <c r="AP63" s="31"/>
       <c r="AQ63" s="31"/>
       <c r="AR63" s="4"/>
@@ -6310,10 +6349,10 @@
       <c r="BE63" s="16"/>
     </row>
     <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="34"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -6329,24 +6368,24 @@
       <c r="M64" s="35"/>
       <c r="N64" s="35"/>
       <c r="O64" s="35"/>
-      <c r="P64" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="37">
-        <v>45090</v>
-      </c>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37">
+      <c r="P64" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
+      <c r="S64" s="36">
+        <v>45092</v>
+      </c>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36">
         <v>45100</v>
       </c>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -6358,9 +6397,9 @@
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
-      <c r="AM64" s="31"/>
-      <c r="AN64" s="31"/>
-      <c r="AO64" s="31"/>
+      <c r="AM64" s="96"/>
+      <c r="AN64" s="96"/>
+      <c r="AO64" s="96"/>
       <c r="AP64" s="31"/>
       <c r="AQ64" s="31"/>
       <c r="AR64" s="4"/>
@@ -6379,10 +6418,10 @@
       <c r="BE64" s="16"/>
     </row>
     <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -6398,24 +6437,26 @@
       <c r="M65" s="35"/>
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
-      <c r="P65" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="37">
+      <c r="P65" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
+      <c r="S65" s="36">
         <v>45090</v>
       </c>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37">
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36">
         <v>45100</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -6427,7 +6468,7 @@
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
-      <c r="AM65" s="31"/>
+      <c r="AM65" s="96"/>
       <c r="AN65" s="31"/>
       <c r="AO65" s="31"/>
       <c r="AP65" s="31"/>
@@ -6448,10 +6489,10 @@
       <c r="BE65" s="16"/>
     </row>
     <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="34"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -6467,24 +6508,26 @@
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
       <c r="O66" s="35"/>
-      <c r="P66" s="39" t="s">
+      <c r="P66" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="37">
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="36">
         <v>45089</v>
       </c>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37">
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36">
         <v>45100</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -6517,43 +6560,43 @@
       <c r="BE66" s="16"/>
     </row>
     <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="40" t="s">
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37">
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="36">
+        <v>45092</v>
+      </c>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36">
         <v>45100</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="33"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6565,9 +6608,9 @@
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
-      <c r="AM67" s="31"/>
-      <c r="AN67" s="31"/>
-      <c r="AO67" s="31"/>
+      <c r="AM67" s="96"/>
+      <c r="AN67" s="96"/>
+      <c r="AO67" s="96"/>
       <c r="AP67" s="31"/>
       <c r="AQ67" s="31"/>
       <c r="AR67" s="4"/>
@@ -6586,10 +6629,10 @@
       <c r="BE67" s="16"/>
     </row>
     <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -6605,24 +6648,26 @@
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
-      <c r="P68" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="37">
+      <c r="P68" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q68" s="92"/>
+      <c r="R68" s="92"/>
+      <c r="S68" s="36">
         <v>45089</v>
       </c>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37">
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36">
         <v>45100</v>
       </c>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="33"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6655,10 +6700,10 @@
       <c r="BE68" s="16"/>
     </row>
     <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -6674,24 +6719,26 @@
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
       <c r="O69" s="35"/>
-      <c r="P69" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="37">
+      <c r="P69" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q69" s="92"/>
+      <c r="R69" s="92"/>
+      <c r="S69" s="36">
         <v>45089</v>
       </c>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37">
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36">
         <v>45100</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6724,10 +6771,10 @@
       <c r="BE69" s="16"/>
     </row>
     <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="34"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -6743,24 +6790,24 @@
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
       <c r="O70" s="35"/>
-      <c r="P70" s="36" t="s">
+      <c r="P70" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37">
+      <c r="Q70" s="93"/>
+      <c r="R70" s="93"/>
+      <c r="S70" s="36">
+        <v>45092</v>
+      </c>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36">
         <v>45100</v>
       </c>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6772,9 +6819,9 @@
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
-      <c r="AM70" s="31"/>
-      <c r="AN70" s="31"/>
-      <c r="AO70" s="31"/>
+      <c r="AM70" s="96"/>
+      <c r="AN70" s="96"/>
+      <c r="AO70" s="96"/>
       <c r="AP70" s="31"/>
       <c r="AQ70" s="31"/>
       <c r="AR70" s="4"/>
@@ -6793,10 +6840,10 @@
       <c r="BE70" s="16"/>
     </row>
     <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="34"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -6812,24 +6859,26 @@
       <c r="M71" s="35"/>
       <c r="N71" s="35"/>
       <c r="O71" s="35"/>
-      <c r="P71" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="37">
+      <c r="P71" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q71" s="91"/>
+      <c r="R71" s="91"/>
+      <c r="S71" s="36">
         <v>45090</v>
       </c>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37">
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36">
         <v>45100</v>
       </c>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6862,10 +6911,10 @@
       <c r="BE71" s="16"/>
     </row>
     <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33">
+      <c r="A72" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B72" s="34"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="35" t="s">
         <v>141</v>
       </c>
@@ -6884,15 +6933,15 @@
       <c r="P72" s="35"/>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="33"/>
+      <c r="AA72" s="33"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6925,10 +6974,10 @@
       <c r="BE72" s="16"/>
     </row>
     <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="34"/>
+      <c r="A73" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="33"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -6949,19 +6998,19 @@
       </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="35"/>
-      <c r="S73" s="37">
+      <c r="S73" s="36">
         <v>45097</v>
       </c>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37">
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36">
         <v>45100</v>
       </c>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6994,10 +7043,10 @@
       <c r="BE73" s="16"/>
     </row>
     <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" s="34"/>
+      <c r="A74" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="33"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -7013,24 +7062,24 @@
       <c r="M74" s="35"/>
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
-      <c r="P74" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="37">
-        <v>45090</v>
-      </c>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37">
+      <c r="P74" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36">
         <v>45100</v>
       </c>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -7042,8 +7091,8 @@
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
       <c r="AL74" s="4"/>
-      <c r="AM74" s="32"/>
-      <c r="AN74" s="32"/>
+      <c r="AM74" s="96"/>
+      <c r="AN74" s="96"/>
       <c r="AO74" s="32"/>
       <c r="AP74" s="32"/>
       <c r="AQ74" s="32"/>
@@ -7063,10 +7112,10 @@
       <c r="BE74" s="16"/>
     </row>
     <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="34"/>
+      <c r="A75" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="33"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -7082,24 +7131,24 @@
       <c r="M75" s="35"/>
       <c r="N75" s="35"/>
       <c r="O75" s="35"/>
-      <c r="P75" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="37">
-        <v>45090</v>
-      </c>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37">
+      <c r="P75" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q75" s="93"/>
+      <c r="R75" s="93"/>
+      <c r="S75" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="36">
         <v>45100</v>
       </c>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -7111,8 +7160,8 @@
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
       <c r="AL75" s="4"/>
-      <c r="AM75" s="32"/>
-      <c r="AN75" s="32"/>
+      <c r="AM75" s="96"/>
+      <c r="AN75" s="96"/>
       <c r="AO75" s="32"/>
       <c r="AP75" s="32"/>
       <c r="AQ75" s="32"/>
@@ -7132,10 +7181,10 @@
       <c r="BE75" s="16"/>
     </row>
     <row r="76" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="34"/>
+      <c r="A76" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="33"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -7151,24 +7200,24 @@
       <c r="M76" s="35"/>
       <c r="N76" s="35"/>
       <c r="O76" s="35"/>
-      <c r="P76" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="37">
-        <v>45090</v>
-      </c>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37">
+      <c r="P76" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="93"/>
+      <c r="S76" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="36">
         <v>45100</v>
       </c>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -7180,8 +7229,8 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
-      <c r="AM76" s="32"/>
-      <c r="AN76" s="32"/>
+      <c r="AM76" s="96"/>
+      <c r="AN76" s="96"/>
       <c r="AO76" s="32"/>
       <c r="AP76" s="32"/>
       <c r="AQ76" s="32"/>
@@ -7201,10 +7250,10 @@
       <c r="BE76" s="16"/>
     </row>
     <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="34"/>
+      <c r="A77" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="33"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -7220,24 +7269,24 @@
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
       <c r="O77" s="35"/>
-      <c r="P77" s="39" t="s">
+      <c r="P77" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37">
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36">
         <v>45100</v>
       </c>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
-      <c r="AA77" s="34"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="33"/>
+      <c r="AA77" s="33"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -7249,8 +7298,8 @@
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
-      <c r="AM77" s="32"/>
-      <c r="AN77" s="32"/>
+      <c r="AM77" s="96"/>
+      <c r="AN77" s="96"/>
       <c r="AO77" s="32"/>
       <c r="AP77" s="32"/>
       <c r="AQ77" s="32"/>
@@ -7270,10 +7319,10 @@
       <c r="BE77" s="16"/>
     </row>
     <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="34"/>
+      <c r="A78" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="33"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -7289,24 +7338,24 @@
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
       <c r="O78" s="35"/>
-      <c r="P78" s="40" t="s">
+      <c r="P78" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37">
+      <c r="Q78" s="91"/>
+      <c r="R78" s="91"/>
+      <c r="S78" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36">
         <v>45100</v>
       </c>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+      <c r="AA78" s="33"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -7318,8 +7367,8 @@
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4"/>
       <c r="AL78" s="4"/>
-      <c r="AM78" s="32"/>
-      <c r="AN78" s="32"/>
+      <c r="AM78" s="96"/>
+      <c r="AN78" s="96"/>
       <c r="AO78" s="32"/>
       <c r="AP78" s="32"/>
       <c r="AQ78" s="32"/>
@@ -7339,10 +7388,10 @@
       <c r="BE78" s="16"/>
     </row>
     <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="34"/>
+      <c r="A79" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="33"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -7358,24 +7407,24 @@
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
       <c r="O79" s="35"/>
-      <c r="P79" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="37">
+      <c r="P79" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q79" s="92"/>
+      <c r="R79" s="92"/>
+      <c r="S79" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36">
         <v>45100</v>
       </c>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+      <c r="AA79" s="33"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -7387,8 +7436,8 @@
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
-      <c r="AM79" s="32"/>
-      <c r="AN79" s="32"/>
+      <c r="AM79" s="96"/>
+      <c r="AN79" s="96"/>
       <c r="AO79" s="32"/>
       <c r="AP79" s="32"/>
       <c r="AQ79" s="32"/>
@@ -7408,10 +7457,10 @@
       <c r="BE79" s="16"/>
     </row>
     <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" s="34"/>
+      <c r="A80" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="33"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -7427,24 +7476,24 @@
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
       <c r="O80" s="35"/>
-      <c r="P80" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37">
+      <c r="P80" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q80" s="92"/>
+      <c r="R80" s="92"/>
+      <c r="S80" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36">
         <v>45100</v>
       </c>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="34"/>
-      <c r="AA80" s="34"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="33"/>
+      <c r="AA80" s="33"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -7456,8 +7505,8 @@
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
-      <c r="AM80" s="32"/>
-      <c r="AN80" s="32"/>
+      <c r="AM80" s="96"/>
+      <c r="AN80" s="96"/>
       <c r="AO80" s="32"/>
       <c r="AP80" s="32"/>
       <c r="AQ80" s="32"/>
@@ -7477,10 +7526,10 @@
       <c r="BE80" s="16"/>
     </row>
     <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="34"/>
+      <c r="A81" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="33"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -7496,24 +7545,24 @@
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
       <c r="O81" s="35"/>
-      <c r="P81" s="36" t="s">
+      <c r="P81" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="37">
-        <v>45089</v>
-      </c>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37">
+      <c r="Q81" s="93"/>
+      <c r="R81" s="93"/>
+      <c r="S81" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36">
         <v>45100</v>
       </c>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="34"/>
-      <c r="AA81" s="34"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="33"/>
+      <c r="AA81" s="33"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -7525,8 +7574,8 @@
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
       <c r="AL81" s="4"/>
-      <c r="AM81" s="32"/>
-      <c r="AN81" s="32"/>
+      <c r="AM81" s="96"/>
+      <c r="AN81" s="96"/>
       <c r="AO81" s="32"/>
       <c r="AP81" s="32"/>
       <c r="AQ81" s="32"/>
@@ -7546,10 +7595,10 @@
       <c r="BE81" s="16"/>
     </row>
     <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="34"/>
+      <c r="A82" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="33"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -7565,24 +7614,24 @@
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>
       <c r="O82" s="35"/>
-      <c r="P82" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="37">
-        <v>45090</v>
-      </c>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37">
+      <c r="P82" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q82" s="91"/>
+      <c r="R82" s="91"/>
+      <c r="S82" s="36">
+        <v>45091</v>
+      </c>
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36">
         <v>45100</v>
       </c>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="36"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="33"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -7594,8 +7643,8 @@
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
       <c r="AL82" s="4"/>
-      <c r="AM82" s="32"/>
-      <c r="AN82" s="32"/>
+      <c r="AM82" s="96"/>
+      <c r="AN82" s="96"/>
       <c r="AO82" s="32"/>
       <c r="AP82" s="32"/>
       <c r="AQ82" s="32"/>
@@ -7615,10 +7664,10 @@
       <c r="BE82" s="16"/>
     </row>
     <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33">
+      <c r="A83" s="34">
         <v>5</v>
       </c>
-      <c r="B83" s="34"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="35" t="s">
         <v>37</v>
       </c>
@@ -7637,15 +7686,15 @@
       <c r="P83" s="35"/>
       <c r="Q83" s="35"/>
       <c r="R83" s="35"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -7678,10 +7727,10 @@
       <c r="BE83" s="16"/>
     </row>
     <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33">
+      <c r="A84" s="34">
         <v>5</v>
       </c>
-      <c r="B84" s="34"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="35" t="s">
         <v>38</v>
       </c>
@@ -7700,15 +7749,15 @@
       <c r="P84" s="35"/>
       <c r="Q84" s="35"/>
       <c r="R84" s="35"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="33"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7741,10 +7790,10 @@
       <c r="BE84" s="16"/>
     </row>
     <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="33">
+      <c r="A85" s="34">
         <v>5</v>
       </c>
-      <c r="B85" s="34"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="35" t="s">
         <v>39</v>
       </c>
@@ -7763,15 +7812,15 @@
       <c r="P85" s="35"/>
       <c r="Q85" s="35"/>
       <c r="R85" s="35"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="34"/>
-      <c r="Z85" s="34"/>
-      <c r="AA85" s="34"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="33"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -7804,8 +7853,8 @@
       <c r="BE85" s="16"/>
     </row>
     <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -7822,15 +7871,15 @@
       <c r="P86" s="35"/>
       <c r="Q86" s="35"/>
       <c r="R86" s="35"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="34"/>
-      <c r="Z86" s="34"/>
-      <c r="AA86" s="34"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="33"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -7863,8 +7912,8 @@
       <c r="BE86" s="16"/>
     </row>
     <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="34"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -7881,15 +7930,15 @@
       <c r="P87" s="35"/>
       <c r="Q87" s="35"/>
       <c r="R87" s="35"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="34"/>
-      <c r="Z87" s="34"/>
-      <c r="AA87" s="34"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="33"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
@@ -7922,10 +7971,10 @@
       <c r="BE87" s="16"/>
     </row>
     <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="33">
+      <c r="A88" s="34">
         <v>6</v>
       </c>
-      <c r="B88" s="34"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="35" t="s">
         <v>40</v>
       </c>
@@ -7944,15 +7993,15 @@
       <c r="P88" s="35"/>
       <c r="Q88" s="35"/>
       <c r="R88" s="35"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="34"/>
-      <c r="Z88" s="34"/>
-      <c r="AA88" s="34"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="36"/>
+      <c r="X88" s="36"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="33"/>
+      <c r="AA88" s="33"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
@@ -7985,8 +8034,8 @@
       <c r="BE88" s="17"/>
     </row>
     <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="34"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -8003,15 +8052,15 @@
       <c r="P89" s="35"/>
       <c r="Q89" s="35"/>
       <c r="R89" s="35"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="34"/>
-      <c r="Z89" s="34"/>
-      <c r="AA89" s="34"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
@@ -8044,8 +8093,8 @@
       <c r="BE89" s="16"/>
     </row>
     <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -8062,15 +8111,15 @@
       <c r="P90" s="35"/>
       <c r="Q90" s="35"/>
       <c r="R90" s="35"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="34"/>
-      <c r="Z90" s="34"/>
-      <c r="AA90" s="34"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="33"/>
+      <c r="Z90" s="33"/>
+      <c r="AA90" s="33"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
@@ -8103,33 +8152,33 @@
       <c r="BE90" s="16"/>
     </row>
     <row r="91" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="89"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-      <c r="J91" s="91"/>
-      <c r="K91" s="91"/>
-      <c r="L91" s="91"/>
-      <c r="M91" s="91"/>
-      <c r="N91" s="91"/>
-      <c r="O91" s="91"/>
-      <c r="P91" s="91"/>
-      <c r="Q91" s="91"/>
-      <c r="R91" s="91"/>
-      <c r="S91" s="92"/>
-      <c r="T91" s="92"/>
-      <c r="U91" s="92"/>
-      <c r="V91" s="92"/>
-      <c r="W91" s="92"/>
-      <c r="X91" s="92"/>
-      <c r="Y91" s="90"/>
-      <c r="Z91" s="90"/>
-      <c r="AA91" s="90"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+      <c r="AA91" s="37"/>
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
       <c r="AD91" s="18"/>
@@ -8166,25 +8215,573 @@
     <row r="94" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="610">
-    <mergeCell ref="Y90:AA90"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="H89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="S89:U89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="Y87:AA87"/>
-    <mergeCell ref="Y88:AA88"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="H88:O88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:O53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:U86"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="A85:B85"/>
     <mergeCell ref="Y91:AA91"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C83:G83"/>
@@ -8209,573 +8806,25 @@
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="V26:X26"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:U85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="H86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:U86"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:O82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:O71"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:O72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:O77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:O78"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="H89:O89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="S89:U89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:X87"/>
+    <mergeCell ref="H88:O88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
@@ -8805,21 +8854,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -8933,10 +8967,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8951,17 +9008,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A484D-A5E0-4584-BC1B-71DA74213ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88C93FE-CD1D-4C4E-8AF6-2B4D037FA769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="178">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -522,9 +522,6 @@
     <t>schedule.js</t>
   </si>
   <si>
-    <t>calendar_servlet.js</t>
-  </si>
-  <si>
     <t>goal_regist.js</t>
   </si>
   <si>
@@ -603,9 +600,6 @@
     <t>achieve.css</t>
   </si>
   <si>
-    <t>explanation.css</t>
-  </si>
-  <si>
     <t>4.6.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -639,6 +633,77 @@
   <si>
     <t>完了</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TodoRejist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountID.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LastMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規追加</t>
+    <rPh sb="0" eb="4">
+      <t>シンキツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalendarCounter.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.3.11</t>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>4.1.11</t>
+  </si>
+  <si>
+    <t>4.4.10</t>
+  </si>
+  <si>
+    <t>4.4.11</t>
+  </si>
+  <si>
+    <t>todo_regist.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>todo_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountID.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.6.11</t>
   </si>
 </sst>
 </file>
@@ -724,7 +789,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +931,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,18 +1365,189 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,173 +1557,17 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1492,7 +1578,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1541,14 +1636,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFEFFD5"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFEFFD5"/>
       <color rgb="FF7C505F"/>
       <color rgb="FFF8BAF1"/>
       <color rgb="FFE8D1FF"/>
       <color rgb="FF82C836"/>
       <color rgb="FFCC66FF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
@@ -1826,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG94"/>
+  <dimension ref="A1:BG101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM72" sqref="AM72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1843,140 +1938,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="72" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="69">
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="56">
         <v>45078</v>
       </c>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="58"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="72" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="69">
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="56">
         <v>45107</v>
       </c>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="71"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="58"/>
     </row>
     <row r="3" spans="1:59" ht="16" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="80" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78" t="s">
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="75" t="s">
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
       <c r="AB4" s="12">
         <f>AH1</f>
         <v>45078</v>
@@ -2101,41 +2196,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76" t="s">
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="76"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
       <c r="AB5" s="20">
         <f>AH1</f>
         <v>45078</v>
@@ -2258,33 +2353,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
       <c r="AB6" s="21" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -2407,10 +2502,10 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
@@ -2429,19 +2524,19 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="36">
+      <c r="S7" s="37">
         <v>45079</v>
       </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37">
         <v>45082</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="4"/>
@@ -2474,10 +2569,10 @@
       <c r="BE7" s="16"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -2498,21 +2593,21 @@
       </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="36">
+      <c r="S8" s="37">
         <v>45079</v>
       </c>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36">
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37">
         <v>45079</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="48" t="s">
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="4"/>
@@ -2545,10 +2640,10 @@
       <c r="BE8" s="16"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>1.2</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -2569,21 +2664,21 @@
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="36">
+      <c r="S9" s="37">
         <v>45079</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36">
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>45082</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="48" t="s">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="4"/>
@@ -2616,10 +2711,10 @@
       <c r="BE9" s="16"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>1.3</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -2640,21 +2735,21 @@
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="36">
+      <c r="S10" s="37">
         <v>45079</v>
       </c>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36">
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37">
         <v>45082</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="48" t="s">
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="4"/>
@@ -2687,10 +2782,10 @@
       <c r="BE10" s="16"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>1.4</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -2711,21 +2806,21 @@
       </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="36">
+      <c r="S11" s="37">
         <v>45082</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36">
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37">
         <v>45082</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="48" t="s">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2758,10 +2853,10 @@
       <c r="BE11" s="16"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="35" t="s">
         <v>20</v>
       </c>
@@ -2780,19 +2875,19 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="36">
+      <c r="S12" s="37">
         <v>45083</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36">
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37">
         <v>45084</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2825,10 +2920,10 @@
       <c r="BE12" s="16"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>2.1</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -2849,21 +2944,21 @@
       </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="36">
+      <c r="S13" s="37">
         <v>45083</v>
       </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36">
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37">
         <v>45089</v>
       </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="47" t="s">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2896,45 +2991,45 @@
       <c r="BE13" s="16"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="63" t="s">
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="36">
+      <c r="Q14" s="77"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="37">
         <v>45083</v>
       </c>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36">
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37">
         <v>45083</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="48" t="s">
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2967,45 +3062,45 @@
       <c r="BE14" s="16"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89">
+      <c r="A15" s="50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="49" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="49" t="s">
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="57">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="81">
         <v>45084</v>
       </c>
-      <c r="T15" s="58"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="57">
+      <c r="T15" s="82"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="81">
         <v>45089</v>
       </c>
-      <c r="W15" s="58"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60" t="s">
+      <c r="W15" s="82"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="62"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="86"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -3038,10 +3133,10 @@
       <c r="BE15" s="16"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
+      <c r="A16" s="90">
         <v>2.4</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -3062,21 +3157,21 @@
       </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
-      <c r="S16" s="36">
+      <c r="S16" s="37">
         <v>45084</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36">
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37">
         <v>45089</v>
       </c>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="47" t="s">
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -3109,10 +3204,10 @@
       <c r="BE16" s="16"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>2.5</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -3133,21 +3228,21 @@
       </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="36">
+      <c r="S17" s="37">
         <v>45083</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36">
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37">
         <v>45084</v>
       </c>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="47" t="s">
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -3180,10 +3275,10 @@
       <c r="BE17" s="16"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>2.6</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -3204,19 +3299,19 @@
       </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
-      <c r="S18" s="36">
+      <c r="S18" s="37">
         <v>45084</v>
       </c>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="44">
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="41">
         <v>0.2</v>
       </c>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -3249,10 +3344,10 @@
       <c r="BE18" s="16"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>3</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
@@ -3271,15 +3366,15 @@
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -3312,10 +3407,10 @@
       <c r="BE19" s="16"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>3.1</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -3336,21 +3431,21 @@
       </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
-      <c r="S20" s="36">
+      <c r="S20" s="37">
         <v>45086</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36">
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37">
         <v>45089</v>
       </c>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="44">
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="41">
         <v>0.8</v>
       </c>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -3383,10 +3478,10 @@
       <c r="BE20" s="16"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="35" t="s">
         <v>32</v>
       </c>
@@ -3405,17 +3500,17 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="36">
+      <c r="S21" s="37">
         <v>45089</v>
       </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -3448,43 +3543,43 @@
       <c r="BE21" s="16"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="99" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
-      <c r="S22" s="36">
+      <c r="S22" s="37">
         <v>45089</v>
       </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36">
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37">
         <v>45090</v>
       </c>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3498,9 +3593,9 @@
       <c r="AL22" s="4"/>
       <c r="AM22" s="25"/>
       <c r="AN22" s="25"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
@@ -3517,45 +3612,45 @@
       <c r="BE22" s="16"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="91" t="s">
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="36">
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="37">
         <v>45090</v>
       </c>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36">
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37">
         <v>45090</v>
       </c>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3569,9 +3664,9 @@
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="24"/>
-      <c r="AO23" s="96"/>
-      <c r="AP23" s="96"/>
-      <c r="AQ23" s="96"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
@@ -3588,45 +3683,45 @@
       <c r="BE23" s="16"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="93" t="s">
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="36">
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37">
         <v>45090</v>
       </c>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36">
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37">
         <v>45090</v>
       </c>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3640,9 +3735,9 @@
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="24"/>
-      <c r="AO24" s="96"/>
-      <c r="AP24" s="96"/>
-      <c r="AQ24" s="96"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
@@ -3659,45 +3754,45 @@
       <c r="BE24" s="16"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="93" t="s">
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="36">
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37">
         <v>45090</v>
       </c>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36">
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37">
         <v>45090</v>
       </c>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3711,9 +3806,9 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="24"/>
-      <c r="AO25" s="96"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="96"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
@@ -3730,45 +3825,45 @@
       <c r="BE25" s="16"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="33"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42" t="s">
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="36">
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="37">
         <v>45089</v>
       </c>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36">
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37">
         <v>45090</v>
       </c>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3782,9 +3877,9 @@
       <c r="AL26" s="4"/>
       <c r="AM26" s="24"/>
       <c r="AN26" s="24"/>
-      <c r="AO26" s="96"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="96"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
@@ -3801,45 +3896,45 @@
       <c r="BE26" s="16"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="91" t="s">
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="36">
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="37">
         <v>45089</v>
       </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36">
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37">
         <v>45090</v>
       </c>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3853,9 +3948,9 @@
       <c r="AL27" s="4"/>
       <c r="AM27" s="24"/>
       <c r="AN27" s="24"/>
-      <c r="AO27" s="96"/>
-      <c r="AP27" s="96"/>
-      <c r="AQ27" s="96"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
@@ -3872,45 +3967,45 @@
       <c r="BE27" s="16"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="92" t="s">
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="36">
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="37">
         <v>45089</v>
       </c>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36">
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37">
         <v>45090</v>
       </c>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3924,9 +4019,9 @@
       <c r="AL28" s="4"/>
       <c r="AM28" s="24"/>
       <c r="AN28" s="24"/>
-      <c r="AO28" s="96"/>
-      <c r="AP28" s="96"/>
-      <c r="AQ28" s="96"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
@@ -3943,45 +4038,45 @@
       <c r="BE28" s="16"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="92" t="s">
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="36">
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="37">
         <v>45089</v>
       </c>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36">
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37">
         <v>45090</v>
       </c>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3995,9 +4090,9 @@
       <c r="AL29" s="4"/>
       <c r="AM29" s="24"/>
       <c r="AN29" s="24"/>
-      <c r="AO29" s="96"/>
-      <c r="AP29" s="96"/>
-      <c r="AQ29" s="96"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
@@ -4014,45 +4109,45 @@
       <c r="BE29" s="16"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="93" t="s">
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="36">
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37">
         <v>45089</v>
       </c>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36">
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37">
         <v>45090</v>
       </c>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -4066,9 +4161,9 @@
       <c r="AL30" s="4"/>
       <c r="AM30" s="24"/>
       <c r="AN30" s="24"/>
-      <c r="AO30" s="96"/>
-      <c r="AP30" s="96"/>
-      <c r="AQ30" s="96"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
@@ -4085,45 +4180,45 @@
       <c r="BE30" s="16"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="91" t="s">
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="36">
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="37">
         <v>45090</v>
       </c>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36">
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37">
         <v>45090</v>
       </c>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -4137,9 +4232,9 @@
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
       <c r="AN31" s="24"/>
-      <c r="AO31" s="96"/>
-      <c r="AP31" s="96"/>
-      <c r="AQ31" s="96"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
@@ -4156,43 +4251,45 @@
       <c r="BE31" s="16"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34">
-        <v>4.2</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="36">
-        <v>45089</v>
-      </c>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36">
+      <c r="A32" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37">
         <v>45093</v>
       </c>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -4204,11 +4301,11 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="101"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
       <c r="AR32" s="4"/>
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
@@ -4225,45 +4322,45 @@
       <c r="BE32" s="16"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="36">
-        <v>45089</v>
-      </c>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36">
-        <v>45089</v>
-      </c>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
+      <c r="A33" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="37">
+        <v>45093</v>
+      </c>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -4275,11 +4372,11 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="101"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
+      <c r="AQ33" s="24"/>
       <c r="AR33" s="4"/>
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
@@ -4296,18 +4393,18 @@
       <c r="BE33" s="16"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="35" t="s">
-        <v>70</v>
-      </c>
+      <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
       <c r="K34" s="35"/>
@@ -4315,26 +4412,24 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="40" t="s">
+      <c r="P34" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="36">
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="37">
         <v>45089</v>
       </c>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36">
-        <v>45089</v>
-      </c>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z34" s="98"/>
-      <c r="AA34" s="98"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -4346,11 +4441,11 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
       <c r="AR34" s="4"/>
       <c r="AS34" s="4"/>
       <c r="AT34" s="4"/>
@@ -4367,17 +4462,17 @@
       <c r="BE34" s="16"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="33"/>
+      <c r="A35" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="34"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
@@ -4386,24 +4481,26 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36">
-        <v>45091</v>
-      </c>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="37">
+        <v>45089</v>
+      </c>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37">
+        <v>45089</v>
+      </c>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -4415,8 +4512,9 @@
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AO35" s="27"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
@@ -4435,17 +4533,17 @@
       <c r="BE35" s="16"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="33"/>
+      <c r="A36" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="34"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
@@ -4454,24 +4552,26 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
-      <c r="P36" s="40" t="s">
+      <c r="P36" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36">
-        <v>45091</v>
-      </c>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="37">
+        <v>45089</v>
+      </c>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37">
+        <v>45089</v>
+      </c>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="48"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -4483,8 +4583,9 @@
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AO36" s="27"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
@@ -4503,43 +4604,45 @@
       <c r="BE36" s="16"/>
     </row>
     <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="33"/>
+      <c r="A37" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="34"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="40" t="s">
+      <c r="H37" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="36">
-        <v>45092</v>
-      </c>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36">
-        <v>45092</v>
-      </c>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37">
+        <v>45091</v>
+      </c>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -4552,8 +4655,8 @@
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AP37" s="27"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
       <c r="AS37" s="4"/>
@@ -4571,43 +4674,43 @@
       <c r="BE37" s="16"/>
     </row>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="33"/>
+      <c r="A38" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="34"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="40" t="s">
+      <c r="H38" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="36">
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="37">
         <v>45092</v>
       </c>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36">
-        <v>45093</v>
-      </c>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37">
+        <v>45092</v>
+      </c>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4620,7 +4723,7 @@
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
+      <c r="AO38" s="101"/>
       <c r="AP38" s="27"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
@@ -4639,17 +4742,17 @@
       <c r="BE38" s="16"/>
     </row>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="33"/>
+      <c r="A39" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="34"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -4658,24 +4761,24 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="40" t="s">
+      <c r="P39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="36">
-        <v>45093</v>
-      </c>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36">
-        <v>45093</v>
-      </c>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37">
+        <v>45092</v>
+      </c>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4689,8 +4792,8 @@
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AQ39" s="27"/>
+      <c r="AP39" s="27"/>
+      <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
@@ -4707,39 +4810,45 @@
       <c r="BE39" s="16"/>
     </row>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34">
-        <v>4.3</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="35" t="s">
-        <v>76</v>
-      </c>
+      <c r="A40" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
+      <c r="H40" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37">
+        <v>45091</v>
+      </c>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4753,8 +4862,8 @@
       <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="101"/>
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4"/>
       <c r="AS40" s="4"/>
@@ -4772,17 +4881,17 @@
       <c r="BE40" s="16"/>
     </row>
     <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="33"/>
+      <c r="A41" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="34"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -4791,24 +4900,24 @@
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
-      <c r="P41" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="36">
-        <v>45096</v>
-      </c>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36">
-        <v>45096</v>
-      </c>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
+      <c r="P41" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="37">
+        <v>45093</v>
+      </c>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4823,11 +4932,10 @@
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
+      <c r="AQ41" s="27"/>
       <c r="AR41" s="4"/>
       <c r="AS41" s="4"/>
-      <c r="AT41" s="29"/>
+      <c r="AT41" s="4"/>
       <c r="AU41" s="4"/>
       <c r="AV41" s="4"/>
       <c r="AW41" s="4"/>
@@ -4840,19 +4948,19 @@
       <c r="BD41" s="4"/>
       <c r="BE41" s="16"/>
     </row>
-    <row r="42" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="35"/>
+    <row r="42" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35" t="s">
+        <v>76</v>
+      </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
       <c r="K42" s="35"/>
@@ -4860,24 +4968,20 @@
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
-      <c r="P42" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="36">
-        <v>45096</v>
-      </c>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36">
-        <v>45096</v>
-      </c>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
+      <c r="P42" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4896,7 +5000,7 @@
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
       <c r="AS42" s="4"/>
-      <c r="AT42" s="29"/>
+      <c r="AT42" s="4"/>
       <c r="AU42" s="4"/>
       <c r="AV42" s="4"/>
       <c r="AW42" s="4"/>
@@ -4909,18 +5013,18 @@
       <c r="BD42" s="4"/>
       <c r="BE42" s="16"/>
     </row>
-    <row r="43" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="33"/>
+    <row r="43" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="34"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
@@ -4929,24 +5033,24 @@
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="36">
+      <c r="P43" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="37">
         <v>45096</v>
       </c>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36">
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37">
         <v>45096</v>
       </c>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4979,17 +5083,17 @@
       <c r="BE43" s="16"/>
     </row>
     <row r="44" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="33"/>
+      <c r="A44" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="34"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="H44" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
@@ -4998,24 +5102,24 @@
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="36">
+      <c r="P44" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="37">
         <v>45096</v>
       </c>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36">
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37">
         <v>45096</v>
       </c>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -5048,17 +5152,17 @@
       <c r="BE44" s="16"/>
     </row>
     <row r="45" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="33"/>
+      <c r="A45" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="34"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
@@ -5067,24 +5171,24 @@
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
-      <c r="P45" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="36">
+      <c r="P45" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="37">
         <v>45096</v>
       </c>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36">
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37">
         <v>45096</v>
       </c>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -5117,17 +5221,17 @@
       <c r="BE45" s="16"/>
     </row>
     <row r="46" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="33"/>
+      <c r="A46" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="34"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
@@ -5136,24 +5240,24 @@
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
-      <c r="P46" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="36">
+      <c r="P46" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="37">
         <v>45096</v>
       </c>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36">
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37">
         <v>45096</v>
       </c>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -5186,17 +5290,17 @@
       <c r="BE46" s="16"/>
     </row>
     <row r="47" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="33"/>
+      <c r="A47" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="34"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
       <c r="H47" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
@@ -5205,24 +5309,24 @@
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
-      <c r="P47" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="36">
+      <c r="P47" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="37">
         <v>45096</v>
       </c>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36">
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37">
         <v>45096</v>
       </c>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -5255,17 +5359,17 @@
       <c r="BE47" s="16"/>
     </row>
     <row r="48" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="33"/>
+      <c r="A48" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="34"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
@@ -5274,24 +5378,24 @@
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
-      <c r="P48" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="36">
+      <c r="P48" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="37">
         <v>45096</v>
       </c>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36">
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37">
         <v>45096</v>
       </c>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -5323,18 +5427,18 @@
       <c r="BD48" s="4"/>
       <c r="BE48" s="16"/>
     </row>
-    <row r="49" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="33"/>
+    <row r="49" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I49" s="35"/>
       <c r="J49" s="35"/>
@@ -5343,24 +5447,24 @@
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
-      <c r="P49" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="36">
+      <c r="P49" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="37">
         <v>45096</v>
       </c>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36">
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37">
         <v>45096</v>
       </c>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -5392,18 +5496,18 @@
       <c r="BD49" s="4"/>
       <c r="BE49" s="16"/>
     </row>
-    <row r="50" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="33"/>
+    <row r="50" spans="1:57" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="34"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -5412,24 +5516,24 @@
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
-      <c r="P50" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="36">
+      <c r="P50" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="37">
         <v>45096</v>
       </c>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36">
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37">
         <v>45096</v>
       </c>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -5462,18 +5566,18 @@
       <c r="BE50" s="16"/>
     </row>
     <row r="51" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="35" t="s">
-        <v>98</v>
-      </c>
+      <c r="A51" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="H51" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
@@ -5481,20 +5585,24 @@
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
-      <c r="P51" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
+      <c r="P51" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="37">
+        <v>45096</v>
+      </c>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37">
+        <v>45096</v>
+      </c>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -5513,7 +5621,7 @@
       <c r="AQ51" s="4"/>
       <c r="AR51" s="4"/>
       <c r="AS51" s="4"/>
-      <c r="AT51" s="4"/>
+      <c r="AT51" s="29"/>
       <c r="AU51" s="4"/>
       <c r="AV51" s="4"/>
       <c r="AW51" s="4"/>
@@ -5527,17 +5635,17 @@
       <c r="BE51" s="16"/>
     </row>
     <row r="52" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="33"/>
+      <c r="A52" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="34"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
@@ -5546,24 +5654,24 @@
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="36">
+      <c r="P52" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="37">
         <v>45096</v>
       </c>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36">
-        <v>45098</v>
-      </c>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37">
+        <v>45096</v>
+      </c>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5582,9 +5690,9 @@
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
-      <c r="AT52" s="30"/>
-      <c r="AU52" s="30"/>
-      <c r="AV52" s="30"/>
+      <c r="AT52" s="29"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
       <c r="AY52" s="4"/>
@@ -5596,43 +5704,47 @@
       <c r="BE52" s="16"/>
     </row>
     <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="36">
-        <v>45096</v>
-      </c>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36">
-        <v>45098</v>
-      </c>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
+      <c r="A53" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5646,14 +5758,14 @@
       <c r="AL53" s="4"/>
       <c r="AM53" s="4"/>
       <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
+      <c r="AO53" s="29"/>
+      <c r="AP53" s="29"/>
+      <c r="AQ53" s="29"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
-      <c r="AT53" s="30"/>
-      <c r="AU53" s="30"/>
-      <c r="AV53" s="30"/>
+      <c r="AT53" s="101"/>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
       <c r="AY53" s="4"/>
@@ -5665,18 +5777,18 @@
       <c r="BE53" s="16"/>
     </row>
     <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35" t="s">
+        <v>98</v>
+      </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="35" t="s">
-        <v>103</v>
-      </c>
+      <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="J54" s="35"/>
       <c r="K54" s="35"/>
@@ -5685,23 +5797,19 @@
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
       <c r="P54" s="35" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
-      <c r="S54" s="36">
-        <v>45096</v>
-      </c>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36">
-        <v>45098</v>
-      </c>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5720,9 +5828,9 @@
       <c r="AQ54" s="4"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
-      <c r="AT54" s="30"/>
-      <c r="AU54" s="30"/>
-      <c r="AV54" s="30"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4"/>
@@ -5734,17 +5842,17 @@
       <c r="BE54" s="16"/>
     </row>
     <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="33"/>
+      <c r="A55" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="34"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
@@ -5753,24 +5861,24 @@
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
-      <c r="P55" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="36">
+      <c r="P55" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="37">
         <v>45096</v>
       </c>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36">
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37">
         <v>45098</v>
       </c>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5803,17 +5911,17 @@
       <c r="BE55" s="16"/>
     </row>
     <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="33"/>
+      <c r="A56" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="34"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
@@ -5822,24 +5930,24 @@
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
-      <c r="P56" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q56" s="91"/>
-      <c r="R56" s="91"/>
-      <c r="S56" s="36">
+      <c r="P56" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="37">
         <v>45096</v>
       </c>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36">
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37">
         <v>45098</v>
       </c>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5872,17 +5980,17 @@
       <c r="BE56" s="16"/>
     </row>
     <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="33"/>
+      <c r="A57" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="34"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
@@ -5891,24 +5999,24 @@
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
-      <c r="P57" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q57" s="92"/>
-      <c r="R57" s="92"/>
-      <c r="S57" s="36">
+      <c r="P57" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="37">
         <v>45096</v>
       </c>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36">
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37">
         <v>45098</v>
       </c>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5941,43 +6049,43 @@
       <c r="BE57" s="16"/>
     </row>
     <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="33"/>
+      <c r="A58" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="34"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q58" s="92"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="36">
+      <c r="H58" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="37">
         <v>45096</v>
       </c>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36">
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37">
         <v>45098</v>
       </c>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -6010,43 +6118,45 @@
       <c r="BE58" s="16"/>
     </row>
     <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="33"/>
+      <c r="A59" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="34"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
-      <c r="H59" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="93" t="s">
+      <c r="H59" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q59" s="93"/>
-      <c r="R59" s="93"/>
-      <c r="S59" s="36">
-        <v>45096</v>
-      </c>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36">
-        <v>45098</v>
-      </c>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -6060,14 +6170,14 @@
       <c r="AL59" s="4"/>
       <c r="AM59" s="4"/>
       <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="4"/>
+      <c r="AO59" s="30"/>
+      <c r="AP59" s="30"/>
+      <c r="AQ59" s="30"/>
       <c r="AR59" s="4"/>
       <c r="AS59" s="4"/>
-      <c r="AT59" s="30"/>
-      <c r="AU59" s="30"/>
-      <c r="AV59" s="30"/>
+      <c r="AT59" s="101"/>
+      <c r="AU59" s="101"/>
+      <c r="AV59" s="101"/>
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4"/>
@@ -6079,43 +6189,43 @@
       <c r="BE59" s="16"/>
     </row>
     <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="33"/>
+      <c r="A60" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="34"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q60" s="91"/>
-      <c r="R60" s="91"/>
-      <c r="S60" s="36">
+      <c r="H60" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="37">
         <v>45096</v>
       </c>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36">
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37">
         <v>45098</v>
       </c>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -6148,37 +6258,43 @@
       <c r="BE60" s="16"/>
     </row>
     <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34">
-        <v>4.5</v>
-      </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="35" t="s">
-        <v>119</v>
-      </c>
+      <c r="A61" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
+      <c r="H61" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="37">
+        <v>45096</v>
+      </c>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37">
+        <v>45098</v>
+      </c>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -6197,9 +6313,9 @@
       <c r="AQ61" s="4"/>
       <c r="AR61" s="4"/>
       <c r="AS61" s="4"/>
-      <c r="AT61" s="4"/>
-      <c r="AU61" s="4"/>
-      <c r="AV61" s="4"/>
+      <c r="AT61" s="30"/>
+      <c r="AU61" s="30"/>
+      <c r="AV61" s="30"/>
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
       <c r="AY61" s="4"/>
@@ -6211,43 +6327,43 @@
       <c r="BE61" s="16"/>
     </row>
     <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="33"/>
+      <c r="A62" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="34"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="36">
-        <v>45097</v>
-      </c>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36">
-        <v>45100</v>
-      </c>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
+      <c r="H62" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="37">
+        <v>45096</v>
+      </c>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37">
+        <v>45098</v>
+      </c>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -6266,11 +6382,11 @@
       <c r="AQ62" s="4"/>
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
-      <c r="AT62" s="4"/>
-      <c r="AU62" s="31"/>
-      <c r="AV62" s="31"/>
-      <c r="AW62" s="31"/>
-      <c r="AX62" s="31"/>
+      <c r="AT62" s="30"/>
+      <c r="AU62" s="30"/>
+      <c r="AV62" s="30"/>
+      <c r="AW62" s="4"/>
+      <c r="AX62" s="4"/>
       <c r="AY62" s="4"/>
       <c r="AZ62" s="4"/>
       <c r="BA62" s="4"/>
@@ -6280,43 +6396,43 @@
       <c r="BE62" s="16"/>
     </row>
     <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="33"/>
+      <c r="A63" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="34"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="91" t="s">
+      <c r="H63" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="Q63" s="91"/>
-      <c r="R63" s="91"/>
-      <c r="S63" s="36">
-        <v>45092</v>
-      </c>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36">
-        <v>45100</v>
-      </c>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="37">
+        <v>45096</v>
+      </c>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37">
+        <v>45098</v>
+      </c>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -6328,18 +6444,18 @@
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
-      <c r="AM63" s="96"/>
-      <c r="AN63" s="96"/>
-      <c r="AO63" s="96"/>
-      <c r="AP63" s="31"/>
-      <c r="AQ63" s="31"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="4"/>
       <c r="AR63" s="4"/>
       <c r="AS63" s="4"/>
-      <c r="AT63" s="31"/>
-      <c r="AU63" s="31"/>
-      <c r="AV63" s="31"/>
-      <c r="AW63" s="31"/>
-      <c r="AX63" s="31"/>
+      <c r="AT63" s="30"/>
+      <c r="AU63" s="30"/>
+      <c r="AV63" s="30"/>
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="4"/>
       <c r="AY63" s="4"/>
       <c r="AZ63" s="4"/>
       <c r="BA63" s="4"/>
@@ -6349,43 +6465,47 @@
       <c r="BE63" s="16"/>
     </row>
     <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="93" t="s">
+      <c r="A64" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="107"/>
+      <c r="P64" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q64" s="93"/>
-      <c r="R64" s="93"/>
-      <c r="S64" s="36">
-        <v>45092</v>
-      </c>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36">
-        <v>45100</v>
-      </c>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="44"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -6397,18 +6517,18 @@
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
-      <c r="AM64" s="96"/>
-      <c r="AN64" s="96"/>
-      <c r="AO64" s="96"/>
-      <c r="AP64" s="31"/>
-      <c r="AQ64" s="31"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="30"/>
+      <c r="AP64" s="30"/>
+      <c r="AQ64" s="30"/>
       <c r="AR64" s="4"/>
       <c r="AS64" s="4"/>
-      <c r="AT64" s="31"/>
-      <c r="AU64" s="31"/>
-      <c r="AV64" s="31"/>
-      <c r="AW64" s="31"/>
-      <c r="AX64" s="31"/>
+      <c r="AT64" s="30"/>
+      <c r="AU64" s="30"/>
+      <c r="AV64" s="30"/>
+      <c r="AW64" s="4"/>
+      <c r="AX64" s="4"/>
       <c r="AY64" s="4"/>
       <c r="AZ64" s="4"/>
       <c r="BA64" s="4"/>
@@ -6418,45 +6538,47 @@
       <c r="BE64" s="16"/>
     </row>
     <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="93" t="s">
+      <c r="A65" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="106"/>
+      <c r="N65" s="106"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q65" s="93"/>
-      <c r="R65" s="93"/>
-      <c r="S65" s="36">
-        <v>45090</v>
-      </c>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36">
-        <v>45100</v>
-      </c>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37">
+        <v>45093</v>
+      </c>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -6468,18 +6590,18 @@
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
-      <c r="AM65" s="96"/>
-      <c r="AN65" s="31"/>
-      <c r="AO65" s="31"/>
-      <c r="AP65" s="31"/>
-      <c r="AQ65" s="31"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="30"/>
+      <c r="AP65" s="30"/>
+      <c r="AQ65" s="30"/>
       <c r="AR65" s="4"/>
       <c r="AS65" s="4"/>
-      <c r="AT65" s="31"/>
-      <c r="AU65" s="31"/>
-      <c r="AV65" s="31"/>
-      <c r="AW65" s="31"/>
-      <c r="AX65" s="31"/>
+      <c r="AT65" s="30"/>
+      <c r="AU65" s="30"/>
+      <c r="AV65" s="30"/>
+      <c r="AW65" s="4"/>
+      <c r="AX65" s="4"/>
       <c r="AY65" s="4"/>
       <c r="AZ65" s="4"/>
       <c r="BA65" s="4"/>
@@ -6489,18 +6611,18 @@
       <c r="BE65" s="16"/>
     </row>
     <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="35"/>
+      <c r="A66" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="B66" s="34"/>
+      <c r="C66" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="35" t="s">
-        <v>125</v>
-      </c>
+      <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
@@ -6508,26 +6630,18 @@
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
       <c r="O66" s="35"/>
-      <c r="P66" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="36">
-        <v>45089</v>
-      </c>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36">
-        <v>45100</v>
-      </c>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="Z66" s="33"/>
-      <c r="AA66" s="33"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -6539,18 +6653,18 @@
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
-      <c r="AM66" s="31"/>
-      <c r="AN66" s="31"/>
-      <c r="AO66" s="31"/>
-      <c r="AP66" s="31"/>
-      <c r="AQ66" s="31"/>
+      <c r="AM66" s="4"/>
+      <c r="AN66" s="4"/>
+      <c r="AO66" s="4"/>
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="4"/>
       <c r="AR66" s="4"/>
       <c r="AS66" s="4"/>
-      <c r="AT66" s="31"/>
-      <c r="AU66" s="31"/>
-      <c r="AV66" s="31"/>
-      <c r="AW66" s="31"/>
-      <c r="AX66" s="31"/>
+      <c r="AT66" s="4"/>
+      <c r="AU66" s="4"/>
+      <c r="AV66" s="4"/>
+      <c r="AW66" s="4"/>
+      <c r="AX66" s="4"/>
       <c r="AY66" s="4"/>
       <c r="AZ66" s="4"/>
       <c r="BA66" s="4"/>
@@ -6560,43 +6674,43 @@
       <c r="BE66" s="16"/>
     </row>
     <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="33"/>
+      <c r="A67" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="34"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
-      <c r="H67" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q67" s="91"/>
-      <c r="R67" s="91"/>
-      <c r="S67" s="36">
-        <v>45092</v>
-      </c>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36">
+      <c r="H67" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="I67" s="97"/>
+      <c r="J67" s="97"/>
+      <c r="K67" s="97"/>
+      <c r="L67" s="97"/>
+      <c r="M67" s="97"/>
+      <c r="N67" s="97"/>
+      <c r="O67" s="97"/>
+      <c r="P67" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="37">
+        <v>45097</v>
+      </c>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37">
         <v>45100</v>
       </c>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33"/>
-      <c r="AA67" s="33"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -6608,14 +6722,14 @@
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
-      <c r="AM67" s="96"/>
-      <c r="AN67" s="96"/>
-      <c r="AO67" s="96"/>
-      <c r="AP67" s="31"/>
-      <c r="AQ67" s="31"/>
+      <c r="AM67" s="4"/>
+      <c r="AN67" s="4"/>
+      <c r="AO67" s="4"/>
+      <c r="AP67" s="4"/>
+      <c r="AQ67" s="4"/>
       <c r="AR67" s="4"/>
       <c r="AS67" s="4"/>
-      <c r="AT67" s="31"/>
+      <c r="AT67" s="4"/>
       <c r="AU67" s="31"/>
       <c r="AV67" s="31"/>
       <c r="AW67" s="31"/>
@@ -6629,17 +6743,17 @@
       <c r="BE67" s="16"/>
     </row>
     <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="33"/>
+      <c r="A68" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="34"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
@@ -6648,26 +6762,24 @@
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
-      <c r="P68" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q68" s="92"/>
-      <c r="R68" s="92"/>
-      <c r="S68" s="36">
-        <v>45089</v>
-      </c>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36">
+      <c r="P68" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37">
         <v>45100</v>
       </c>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="Z68" s="33"/>
-      <c r="AA68" s="33"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6679,9 +6791,9 @@
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
-      <c r="AM68" s="31"/>
-      <c r="AN68" s="31"/>
-      <c r="AO68" s="31"/>
+      <c r="AM68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
       <c r="AP68" s="31"/>
       <c r="AQ68" s="31"/>
       <c r="AR68" s="4"/>
@@ -6700,17 +6812,17 @@
       <c r="BE68" s="16"/>
     </row>
     <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="33"/>
+      <c r="A69" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="34"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
@@ -6719,26 +6831,24 @@
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
       <c r="O69" s="35"/>
-      <c r="P69" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q69" s="92"/>
-      <c r="R69" s="92"/>
-      <c r="S69" s="36">
-        <v>45089</v>
-      </c>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36">
+      <c r="P69" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37">
         <v>45100</v>
       </c>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6750,9 +6860,9 @@
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
       <c r="AL69" s="4"/>
-      <c r="AM69" s="31"/>
-      <c r="AN69" s="31"/>
-      <c r="AO69" s="31"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
       <c r="AP69" s="31"/>
       <c r="AQ69" s="31"/>
       <c r="AR69" s="4"/>
@@ -6771,17 +6881,17 @@
       <c r="BE69" s="16"/>
     </row>
     <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="33"/>
+      <c r="A70" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="34"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I70" s="35"/>
       <c r="J70" s="35"/>
@@ -6790,24 +6900,26 @@
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
       <c r="O70" s="35"/>
-      <c r="P70" s="93" t="s">
+      <c r="P70" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q70" s="93"/>
-      <c r="R70" s="93"/>
-      <c r="S70" s="36">
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="37">
         <v>45092</v>
       </c>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36">
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37">
         <v>45100</v>
       </c>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="44"/>
-      <c r="Z70" s="33"/>
-      <c r="AA70" s="33"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6819,9 +6931,9 @@
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
-      <c r="AM70" s="96"/>
-      <c r="AN70" s="96"/>
-      <c r="AO70" s="96"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="101"/>
+      <c r="AO70" s="101"/>
       <c r="AP70" s="31"/>
       <c r="AQ70" s="31"/>
       <c r="AR70" s="4"/>
@@ -6840,17 +6952,17 @@
       <c r="BE70" s="16"/>
     </row>
     <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="33"/>
+      <c r="A71" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="34"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I71" s="35"/>
       <c r="J71" s="35"/>
@@ -6859,26 +6971,26 @@
       <c r="M71" s="35"/>
       <c r="N71" s="35"/>
       <c r="O71" s="35"/>
-      <c r="P71" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q71" s="91"/>
-      <c r="R71" s="91"/>
-      <c r="S71" s="36">
-        <v>45090</v>
-      </c>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36">
+      <c r="P71" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="37">
+        <v>45089</v>
+      </c>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37">
         <v>45100</v>
       </c>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6911,37 +7023,43 @@
       <c r="BE71" s="16"/>
     </row>
     <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="34">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="35" t="s">
-        <v>141</v>
-      </c>
+      <c r="A72" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="34"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
+      <c r="H72" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="99"/>
+      <c r="O72" s="100"/>
+      <c r="P72" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37">
+        <v>45100</v>
+      </c>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6956,15 +7074,15 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
-      <c r="AP72" s="4"/>
-      <c r="AQ72" s="4"/>
+      <c r="AP72" s="31"/>
+      <c r="AQ72" s="31"/>
       <c r="AR72" s="4"/>
       <c r="AS72" s="4"/>
-      <c r="AT72" s="4"/>
-      <c r="AU72" s="4"/>
-      <c r="AV72" s="4"/>
-      <c r="AW72" s="4"/>
-      <c r="AX72" s="4"/>
+      <c r="AT72" s="31"/>
+      <c r="AU72" s="31"/>
+      <c r="AV72" s="31"/>
+      <c r="AW72" s="31"/>
+      <c r="AX72" s="31"/>
       <c r="AY72" s="4"/>
       <c r="AZ72" s="4"/>
       <c r="BA72" s="4"/>
@@ -6974,43 +7092,45 @@
       <c r="BE72" s="16"/>
     </row>
     <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="33"/>
+      <c r="A73" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="34"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
-      <c r="H73" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="36">
-        <v>45097</v>
-      </c>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="36">
+      <c r="H73" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="37">
+        <v>45089</v>
+      </c>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37">
         <v>45100</v>
       </c>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="33"/>
-      <c r="Z73" s="33"/>
-      <c r="AA73" s="33"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -7022,18 +7142,18 @@
       <c r="AJ73" s="4"/>
       <c r="AK73" s="4"/>
       <c r="AL73" s="4"/>
-      <c r="AM73" s="4"/>
-      <c r="AN73" s="4"/>
-      <c r="AO73" s="4"/>
-      <c r="AP73" s="4"/>
-      <c r="AQ73" s="4"/>
+      <c r="AM73" s="31"/>
+      <c r="AN73" s="31"/>
+      <c r="AO73" s="31"/>
+      <c r="AP73" s="31"/>
+      <c r="AQ73" s="31"/>
       <c r="AR73" s="4"/>
       <c r="AS73" s="4"/>
-      <c r="AT73" s="4"/>
-      <c r="AU73" s="32"/>
-      <c r="AV73" s="32"/>
-      <c r="AW73" s="32"/>
-      <c r="AX73" s="32"/>
+      <c r="AT73" s="31"/>
+      <c r="AU73" s="31"/>
+      <c r="AV73" s="31"/>
+      <c r="AW73" s="31"/>
+      <c r="AX73" s="31"/>
       <c r="AY73" s="4"/>
       <c r="AZ73" s="4"/>
       <c r="BA73" s="4"/>
@@ -7043,43 +7163,45 @@
       <c r="BE73" s="16"/>
     </row>
     <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="33"/>
+      <c r="A74" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="34"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
-      <c r="H74" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36">
+      <c r="H74" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="37">
+        <v>45089</v>
+      </c>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37">
         <v>45100</v>
       </c>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="33"/>
-      <c r="Z74" s="33"/>
-      <c r="AA74" s="33"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -7091,18 +7213,18 @@
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
       <c r="AL74" s="4"/>
-      <c r="AM74" s="96"/>
-      <c r="AN74" s="96"/>
-      <c r="AO74" s="32"/>
-      <c r="AP74" s="32"/>
-      <c r="AQ74" s="32"/>
+      <c r="AM74" s="31"/>
+      <c r="AN74" s="31"/>
+      <c r="AO74" s="31"/>
+      <c r="AP74" s="31"/>
+      <c r="AQ74" s="31"/>
       <c r="AR74" s="4"/>
       <c r="AS74" s="4"/>
-      <c r="AT74" s="32"/>
-      <c r="AU74" s="32"/>
-      <c r="AV74" s="32"/>
-      <c r="AW74" s="32"/>
-      <c r="AX74" s="32"/>
+      <c r="AT74" s="31"/>
+      <c r="AU74" s="31"/>
+      <c r="AV74" s="31"/>
+      <c r="AW74" s="31"/>
+      <c r="AX74" s="31"/>
       <c r="AY74" s="4"/>
       <c r="AZ74" s="4"/>
       <c r="BA74" s="4"/>
@@ -7112,17 +7234,17 @@
       <c r="BE74" s="16"/>
     </row>
     <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="33"/>
+      <c r="A75" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="34"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I75" s="35"/>
       <c r="J75" s="35"/>
@@ -7131,24 +7253,24 @@
       <c r="M75" s="35"/>
       <c r="N75" s="35"/>
       <c r="O75" s="35"/>
-      <c r="P75" s="93" t="s">
+      <c r="P75" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q75" s="93"/>
-      <c r="R75" s="93"/>
-      <c r="S75" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="36">
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37">
         <v>45100</v>
       </c>
-      <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="33"/>
-      <c r="Z75" s="33"/>
-      <c r="AA75" s="33"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -7160,18 +7282,18 @@
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
       <c r="AL75" s="4"/>
-      <c r="AM75" s="96"/>
-      <c r="AN75" s="96"/>
-      <c r="AO75" s="32"/>
-      <c r="AP75" s="32"/>
-      <c r="AQ75" s="32"/>
+      <c r="AM75" s="4"/>
+      <c r="AN75" s="4"/>
+      <c r="AO75" s="4"/>
+      <c r="AP75" s="31"/>
+      <c r="AQ75" s="31"/>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
-      <c r="AT75" s="32"/>
-      <c r="AU75" s="32"/>
-      <c r="AV75" s="32"/>
-      <c r="AW75" s="32"/>
-      <c r="AX75" s="32"/>
+      <c r="AT75" s="31"/>
+      <c r="AU75" s="31"/>
+      <c r="AV75" s="31"/>
+      <c r="AW75" s="31"/>
+      <c r="AX75" s="31"/>
       <c r="AY75" s="4"/>
       <c r="AZ75" s="4"/>
       <c r="BA75" s="4"/>
@@ -7181,43 +7303,45 @@
       <c r="BE75" s="16"/>
     </row>
     <row r="76" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="33"/>
+      <c r="A76" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="34"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
-      <c r="H76" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q76" s="93"/>
-      <c r="R76" s="93"/>
-      <c r="S76" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36">
+      <c r="H76" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="37">
+        <v>45090</v>
+      </c>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37">
         <v>45100</v>
       </c>
-      <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="33"/>
-      <c r="Z76" s="33"/>
-      <c r="AA76" s="33"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -7229,18 +7353,18 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
-      <c r="AM76" s="96"/>
-      <c r="AN76" s="96"/>
-      <c r="AO76" s="32"/>
-      <c r="AP76" s="32"/>
-      <c r="AQ76" s="32"/>
+      <c r="AM76" s="31"/>
+      <c r="AN76" s="31"/>
+      <c r="AO76" s="31"/>
+      <c r="AP76" s="31"/>
+      <c r="AQ76" s="31"/>
       <c r="AR76" s="4"/>
       <c r="AS76" s="4"/>
-      <c r="AT76" s="32"/>
-      <c r="AU76" s="32"/>
-      <c r="AV76" s="32"/>
-      <c r="AW76" s="32"/>
-      <c r="AX76" s="32"/>
+      <c r="AT76" s="31"/>
+      <c r="AU76" s="31"/>
+      <c r="AV76" s="31"/>
+      <c r="AW76" s="31"/>
+      <c r="AX76" s="31"/>
       <c r="AY76" s="4"/>
       <c r="AZ76" s="4"/>
       <c r="BA76" s="4"/>
@@ -7250,43 +7374,45 @@
       <c r="BE76" s="16"/>
     </row>
     <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36">
+      <c r="A77" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="34"/>
+      <c r="C77" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="104"/>
+      <c r="L77" s="104"/>
+      <c r="M77" s="104"/>
+      <c r="N77" s="104"/>
+      <c r="O77" s="104"/>
+      <c r="P77" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37">
         <v>45100</v>
       </c>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="33"/>
-      <c r="Z77" s="33"/>
-      <c r="AA77" s="33"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -7298,18 +7424,18 @@
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
-      <c r="AM77" s="96"/>
-      <c r="AN77" s="96"/>
-      <c r="AO77" s="32"/>
-      <c r="AP77" s="32"/>
-      <c r="AQ77" s="32"/>
+      <c r="AM77" s="101"/>
+      <c r="AN77" s="101"/>
+      <c r="AO77" s="101"/>
+      <c r="AP77" s="31"/>
+      <c r="AQ77" s="31"/>
       <c r="AR77" s="4"/>
       <c r="AS77" s="4"/>
-      <c r="AT77" s="32"/>
-      <c r="AU77" s="32"/>
-      <c r="AV77" s="32"/>
-      <c r="AW77" s="32"/>
-      <c r="AX77" s="32"/>
+      <c r="AT77" s="31"/>
+      <c r="AU77" s="31"/>
+      <c r="AV77" s="31"/>
+      <c r="AW77" s="31"/>
+      <c r="AX77" s="31"/>
       <c r="AY77" s="4"/>
       <c r="AZ77" s="4"/>
       <c r="BA77" s="4"/>
@@ -7319,18 +7445,18 @@
       <c r="BE77" s="16"/>
     </row>
     <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="35"/>
+      <c r="A78" s="33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B78" s="34"/>
+      <c r="C78" s="35" t="s">
+        <v>140</v>
+      </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
-      <c r="H78" s="35" t="s">
-        <v>147</v>
-      </c>
+      <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
@@ -7338,24 +7464,18 @@
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
       <c r="O78" s="35"/>
-      <c r="P78" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q78" s="91"/>
-      <c r="R78" s="91"/>
-      <c r="S78" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36">
-        <v>45100</v>
-      </c>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="33"/>
-      <c r="AA78" s="33"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -7367,18 +7487,18 @@
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4"/>
       <c r="AL78" s="4"/>
-      <c r="AM78" s="96"/>
-      <c r="AN78" s="96"/>
-      <c r="AO78" s="32"/>
-      <c r="AP78" s="32"/>
-      <c r="AQ78" s="32"/>
+      <c r="AM78" s="4"/>
+      <c r="AN78" s="4"/>
+      <c r="AO78" s="4"/>
+      <c r="AP78" s="4"/>
+      <c r="AQ78" s="4"/>
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
-      <c r="AT78" s="32"/>
-      <c r="AU78" s="32"/>
-      <c r="AV78" s="32"/>
-      <c r="AW78" s="32"/>
-      <c r="AX78" s="32"/>
+      <c r="AT78" s="4"/>
+      <c r="AU78" s="4"/>
+      <c r="AV78" s="4"/>
+      <c r="AW78" s="4"/>
+      <c r="AX78" s="4"/>
       <c r="AY78" s="4"/>
       <c r="AZ78" s="4"/>
       <c r="BA78" s="4"/>
@@ -7388,17 +7508,17 @@
       <c r="BE78" s="16"/>
     </row>
     <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="33"/>
+      <c r="A79" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="34"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I79" s="35"/>
       <c r="J79" s="35"/>
@@ -7407,24 +7527,24 @@
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
       <c r="O79" s="35"/>
-      <c r="P79" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q79" s="92"/>
-      <c r="R79" s="92"/>
-      <c r="S79" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36">
+      <c r="P79" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="37">
+        <v>45097</v>
+      </c>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37">
         <v>45100</v>
       </c>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -7436,14 +7556,14 @@
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
-      <c r="AM79" s="96"/>
-      <c r="AN79" s="96"/>
-      <c r="AO79" s="32"/>
-      <c r="AP79" s="32"/>
-      <c r="AQ79" s="32"/>
+      <c r="AM79" s="4"/>
+      <c r="AN79" s="4"/>
+      <c r="AO79" s="4"/>
+      <c r="AP79" s="4"/>
+      <c r="AQ79" s="4"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
-      <c r="AT79" s="32"/>
+      <c r="AT79" s="4"/>
       <c r="AU79" s="32"/>
       <c r="AV79" s="32"/>
       <c r="AW79" s="32"/>
@@ -7457,43 +7577,45 @@
       <c r="BE79" s="16"/>
     </row>
     <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="33"/>
+      <c r="A80" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="34"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
-      <c r="H80" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q80" s="92"/>
-      <c r="R80" s="92"/>
-      <c r="S80" s="36">
+      <c r="H80" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="37">
         <v>45091</v>
       </c>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36">
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37">
         <v>45100</v>
       </c>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="33"/>
-      <c r="Z80" s="33"/>
-      <c r="AA80" s="33"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -7505,8 +7627,8 @@
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
-      <c r="AM80" s="96"/>
-      <c r="AN80" s="96"/>
+      <c r="AM80" s="4"/>
+      <c r="AN80" s="4"/>
       <c r="AO80" s="32"/>
       <c r="AP80" s="32"/>
       <c r="AQ80" s="32"/>
@@ -7526,17 +7648,17 @@
       <c r="BE80" s="16"/>
     </row>
     <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="33"/>
+      <c r="A81" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="34"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I81" s="35"/>
       <c r="J81" s="35"/>
@@ -7545,24 +7667,24 @@
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
       <c r="O81" s="35"/>
-      <c r="P81" s="93" t="s">
+      <c r="P81" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Q81" s="93"/>
-      <c r="R81" s="93"/>
-      <c r="S81" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36">
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="37">
+        <v>45093</v>
+      </c>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37">
         <v>45100</v>
       </c>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -7574,10 +7696,10 @@
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
       <c r="AL81" s="4"/>
-      <c r="AM81" s="96"/>
-      <c r="AN81" s="96"/>
-      <c r="AO81" s="32"/>
-      <c r="AP81" s="32"/>
+      <c r="AM81" s="4"/>
+      <c r="AN81" s="4"/>
+      <c r="AO81" s="101"/>
+      <c r="AP81" s="101"/>
       <c r="AQ81" s="32"/>
       <c r="AR81" s="4"/>
       <c r="AS81" s="4"/>
@@ -7595,17 +7717,17 @@
       <c r="BE81" s="16"/>
     </row>
     <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="33"/>
+      <c r="A82" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="34"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I82" s="35"/>
       <c r="J82" s="35"/>
@@ -7614,24 +7736,24 @@
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>
       <c r="O82" s="35"/>
-      <c r="P82" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q82" s="91"/>
-      <c r="R82" s="91"/>
-      <c r="S82" s="36">
-        <v>45091</v>
-      </c>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36">
+      <c r="P82" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="37">
+        <v>45093</v>
+      </c>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37">
         <v>45100</v>
       </c>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="33"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -7643,10 +7765,10 @@
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
       <c r="AL82" s="4"/>
-      <c r="AM82" s="96"/>
-      <c r="AN82" s="96"/>
-      <c r="AO82" s="32"/>
-      <c r="AP82" s="32"/>
+      <c r="AM82" s="4"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="101"/>
+      <c r="AP82" s="101"/>
       <c r="AQ82" s="32"/>
       <c r="AR82" s="4"/>
       <c r="AS82" s="4"/>
@@ -7664,37 +7786,45 @@
       <c r="BE82" s="16"/>
     </row>
     <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="34">
-        <v>5</v>
-      </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="35" t="s">
-        <v>37</v>
-      </c>
+      <c r="A83" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="34"/>
+      <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
+      <c r="H83" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37">
+        <v>45100</v>
+      </c>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="41">
+        <v>0.64</v>
+      </c>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -7708,37 +7838,37 @@
       <c r="AL83" s="4"/>
       <c r="AM83" s="4"/>
       <c r="AN83" s="4"/>
-      <c r="AO83" s="4"/>
-      <c r="AP83" s="4"/>
-      <c r="AQ83" s="4"/>
+      <c r="AO83" s="32"/>
+      <c r="AP83" s="32"/>
+      <c r="AQ83" s="32"/>
       <c r="AR83" s="4"/>
       <c r="AS83" s="4"/>
-      <c r="AT83" s="4"/>
-      <c r="AU83" s="4"/>
-      <c r="AV83" s="4"/>
-      <c r="AW83" s="4"/>
-      <c r="AX83" s="4"/>
+      <c r="AT83" s="32"/>
+      <c r="AU83" s="32"/>
+      <c r="AV83" s="32"/>
+      <c r="AW83" s="32"/>
+      <c r="AX83" s="32"/>
       <c r="AY83" s="4"/>
       <c r="AZ83" s="4"/>
-      <c r="BA83" s="8"/>
-      <c r="BB83" s="8"/>
-      <c r="BC83" s="8"/>
-      <c r="BD83" s="8"/>
+      <c r="BA83" s="4"/>
+      <c r="BB83" s="4"/>
+      <c r="BC83" s="4"/>
+      <c r="BD83" s="4"/>
       <c r="BE83" s="16"/>
     </row>
     <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="34">
-        <v>5</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="A84" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="34"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
+      <c r="H84" s="35" t="s">
+        <v>146</v>
+      </c>
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
@@ -7746,18 +7876,24 @@
       <c r="M84" s="35"/>
       <c r="N84" s="35"/>
       <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="33"/>
+      <c r="P84" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37">
+        <v>45100</v>
+      </c>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7771,37 +7907,37 @@
       <c r="AL84" s="4"/>
       <c r="AM84" s="4"/>
       <c r="AN84" s="4"/>
-      <c r="AO84" s="4"/>
-      <c r="AP84" s="4"/>
-      <c r="AQ84" s="4"/>
+      <c r="AO84" s="101"/>
+      <c r="AP84" s="32"/>
+      <c r="AQ84" s="32"/>
       <c r="AR84" s="4"/>
       <c r="AS84" s="4"/>
-      <c r="AT84" s="4"/>
-      <c r="AU84" s="4"/>
-      <c r="AV84" s="4"/>
-      <c r="AW84" s="4"/>
-      <c r="AX84" s="4"/>
+      <c r="AT84" s="32"/>
+      <c r="AU84" s="32"/>
+      <c r="AV84" s="32"/>
+      <c r="AW84" s="32"/>
+      <c r="AX84" s="32"/>
       <c r="AY84" s="4"/>
       <c r="AZ84" s="4"/>
-      <c r="BA84" s="8"/>
-      <c r="BB84" s="8"/>
-      <c r="BC84" s="8"/>
-      <c r="BD84" s="8"/>
+      <c r="BA84" s="4"/>
+      <c r="BB84" s="4"/>
+      <c r="BC84" s="4"/>
+      <c r="BD84" s="4"/>
       <c r="BE84" s="16"/>
     </row>
     <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34">
-        <v>5</v>
-      </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="35" t="s">
-        <v>39</v>
-      </c>
+      <c r="A85" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="34"/>
+      <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
+      <c r="H85" s="35" t="s">
+        <v>147</v>
+      </c>
       <c r="I85" s="35"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
@@ -7809,18 +7945,24 @@
       <c r="M85" s="35"/>
       <c r="N85" s="35"/>
       <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
+      <c r="P85" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37">
+        <v>45100</v>
+      </c>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -7834,33 +7976,37 @@
       <c r="AL85" s="4"/>
       <c r="AM85" s="4"/>
       <c r="AN85" s="4"/>
-      <c r="AO85" s="4"/>
-      <c r="AP85" s="4"/>
-      <c r="AQ85" s="4"/>
+      <c r="AO85" s="101"/>
+      <c r="AP85" s="32"/>
+      <c r="AQ85" s="32"/>
       <c r="AR85" s="4"/>
       <c r="AS85" s="4"/>
-      <c r="AT85" s="4"/>
-      <c r="AU85" s="4"/>
-      <c r="AV85" s="4"/>
-      <c r="AW85" s="4"/>
-      <c r="AX85" s="4"/>
+      <c r="AT85" s="32"/>
+      <c r="AU85" s="32"/>
+      <c r="AV85" s="32"/>
+      <c r="AW85" s="32"/>
+      <c r="AX85" s="32"/>
       <c r="AY85" s="4"/>
       <c r="AZ85" s="4"/>
-      <c r="BA85" s="8"/>
-      <c r="BB85" s="8"/>
-      <c r="BC85" s="8"/>
-      <c r="BD85" s="8"/>
+      <c r="BA85" s="4"/>
+      <c r="BB85" s="4"/>
+      <c r="BC85" s="4"/>
+      <c r="BD85" s="4"/>
       <c r="BE85" s="16"/>
     </row>
     <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="34"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
+      <c r="H86" s="35" t="s">
+        <v>148</v>
+      </c>
       <c r="I86" s="35"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
@@ -7868,18 +8014,24 @@
       <c r="M86" s="35"/>
       <c r="N86" s="35"/>
       <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
+      <c r="P86" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="37">
+        <v>45092</v>
+      </c>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37">
+        <v>45100</v>
+      </c>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="34"/>
+      <c r="AA86" s="34"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -7893,16 +8045,16 @@
       <c r="AL86" s="4"/>
       <c r="AM86" s="4"/>
       <c r="AN86" s="4"/>
-      <c r="AO86" s="4"/>
-      <c r="AP86" s="4"/>
-      <c r="AQ86" s="4"/>
+      <c r="AO86" s="101"/>
+      <c r="AP86" s="32"/>
+      <c r="AQ86" s="32"/>
       <c r="AR86" s="4"/>
       <c r="AS86" s="4"/>
-      <c r="AT86" s="4"/>
-      <c r="AU86" s="4"/>
-      <c r="AV86" s="4"/>
-      <c r="AW86" s="4"/>
-      <c r="AX86" s="4"/>
+      <c r="AT86" s="32"/>
+      <c r="AU86" s="32"/>
+      <c r="AV86" s="32"/>
+      <c r="AW86" s="32"/>
+      <c r="AX86" s="32"/>
       <c r="AY86" s="4"/>
       <c r="AZ86" s="4"/>
       <c r="BA86" s="4"/>
@@ -7912,14 +8064,18 @@
       <c r="BE86" s="16"/>
     </row>
     <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="34"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
+      <c r="H87" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="I87" s="35"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
@@ -7927,18 +8083,24 @@
       <c r="M87" s="35"/>
       <c r="N87" s="35"/>
       <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
+      <c r="P87" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="37">
+        <v>45096</v>
+      </c>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37">
+        <v>45100</v>
+      </c>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="34"/>
+      <c r="AA87" s="34"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
@@ -7952,16 +8114,16 @@
       <c r="AL87" s="4"/>
       <c r="AM87" s="4"/>
       <c r="AN87" s="4"/>
-      <c r="AO87" s="4"/>
-      <c r="AP87" s="4"/>
-      <c r="AQ87" s="4"/>
+      <c r="AO87" s="101"/>
+      <c r="AP87" s="101"/>
+      <c r="AQ87" s="101"/>
       <c r="AR87" s="4"/>
       <c r="AS87" s="4"/>
-      <c r="AT87" s="4"/>
-      <c r="AU87" s="4"/>
-      <c r="AV87" s="4"/>
-      <c r="AW87" s="4"/>
-      <c r="AX87" s="4"/>
+      <c r="AT87" s="32"/>
+      <c r="AU87" s="32"/>
+      <c r="AV87" s="32"/>
+      <c r="AW87" s="32"/>
+      <c r="AX87" s="32"/>
       <c r="AY87" s="4"/>
       <c r="AZ87" s="4"/>
       <c r="BA87" s="4"/>
@@ -7971,37 +8133,47 @@
       <c r="BE87" s="16"/>
     </row>
     <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="34">
-        <v>6</v>
-      </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
+      <c r="A88" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="34"/>
+      <c r="C88" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="104"/>
+      <c r="E88" s="104"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="104"/>
+      <c r="H88" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="I88" s="104"/>
+      <c r="J88" s="104"/>
+      <c r="K88" s="104"/>
+      <c r="L88" s="104"/>
+      <c r="M88" s="104"/>
+      <c r="N88" s="104"/>
+      <c r="O88" s="104"/>
+      <c r="P88" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37">
+        <v>45100</v>
+      </c>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="41">
+        <v>0.65</v>
+      </c>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
@@ -8015,52 +8187,66 @@
       <c r="AL88" s="4"/>
       <c r="AM88" s="4"/>
       <c r="AN88" s="4"/>
-      <c r="AO88" s="4"/>
-      <c r="AP88" s="4"/>
-      <c r="AQ88" s="4"/>
+      <c r="AO88" s="32"/>
+      <c r="AP88" s="32"/>
+      <c r="AQ88" s="32"/>
       <c r="AR88" s="4"/>
       <c r="AS88" s="4"/>
-      <c r="AT88" s="4"/>
-      <c r="AU88" s="4"/>
-      <c r="AV88" s="4"/>
-      <c r="AW88" s="4"/>
-      <c r="AX88" s="4"/>
+      <c r="AT88" s="32"/>
+      <c r="AU88" s="32"/>
+      <c r="AV88" s="32"/>
+      <c r="AW88" s="32"/>
+      <c r="AX88" s="32"/>
       <c r="AY88" s="4"/>
       <c r="AZ88" s="4"/>
       <c r="BA88" s="4"/>
       <c r="BB88" s="4"/>
       <c r="BC88" s="4"/>
       <c r="BD88" s="4"/>
-      <c r="BE88" s="17"/>
+      <c r="BE88" s="16"/>
     </row>
     <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
+      <c r="A89" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="34"/>
+      <c r="C89" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="104"/>
+      <c r="E89" s="104"/>
+      <c r="F89" s="104"/>
+      <c r="G89" s="104"/>
+      <c r="H89" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="I89" s="104"/>
+      <c r="J89" s="104"/>
+      <c r="K89" s="104"/>
+      <c r="L89" s="104"/>
+      <c r="M89" s="104"/>
+      <c r="N89" s="104"/>
+      <c r="O89" s="104"/>
+      <c r="P89" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="37">
+        <v>45091</v>
+      </c>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37">
+        <v>45100</v>
+      </c>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="41">
+        <v>0.65</v>
+      </c>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
@@ -8074,16 +8260,16 @@
       <c r="AL89" s="4"/>
       <c r="AM89" s="4"/>
       <c r="AN89" s="4"/>
-      <c r="AO89" s="4"/>
-      <c r="AP89" s="4"/>
-      <c r="AQ89" s="4"/>
+      <c r="AO89" s="32"/>
+      <c r="AP89" s="32"/>
+      <c r="AQ89" s="32"/>
       <c r="AR89" s="4"/>
       <c r="AS89" s="4"/>
-      <c r="AT89" s="4"/>
-      <c r="AU89" s="4"/>
-      <c r="AV89" s="4"/>
-      <c r="AW89" s="4"/>
-      <c r="AX89" s="4"/>
+      <c r="AT89" s="32"/>
+      <c r="AU89" s="32"/>
+      <c r="AV89" s="32"/>
+      <c r="AW89" s="32"/>
+      <c r="AX89" s="32"/>
       <c r="AY89" s="4"/>
       <c r="AZ89" s="4"/>
       <c r="BA89" s="4"/>
@@ -8093,9 +8279,13 @@
       <c r="BE89" s="16"/>
     </row>
     <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="35"/>
+      <c r="A90" s="33">
+        <v>5</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
@@ -8111,15 +8301,15 @@
       <c r="P90" s="35"/>
       <c r="Q90" s="35"/>
       <c r="R90" s="35"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="33"/>
-      <c r="Z90" s="33"/>
-      <c r="AA90" s="33"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="34"/>
+      <c r="AA90" s="34"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
@@ -8145,97 +8335,515 @@
       <c r="AX90" s="4"/>
       <c r="AY90" s="4"/>
       <c r="AZ90" s="4"/>
-      <c r="BA90" s="4"/>
-      <c r="BB90" s="4"/>
-      <c r="BC90" s="4"/>
-      <c r="BD90" s="4"/>
+      <c r="BA90" s="8"/>
+      <c r="BB90" s="8"/>
+      <c r="BC90" s="8"/>
+      <c r="BD90" s="8"/>
       <c r="BE90" s="16"/>
     </row>
     <row r="91" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="43"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="37"/>
-      <c r="AA91" s="37"/>
-      <c r="AB91" s="18"/>
-      <c r="AC91" s="18"/>
-      <c r="AD91" s="18"/>
-      <c r="AE91" s="18"/>
-      <c r="AF91" s="18"/>
-      <c r="AG91" s="18"/>
-      <c r="AH91" s="18"/>
-      <c r="AI91" s="18"/>
-      <c r="AJ91" s="18"/>
-      <c r="AK91" s="18"/>
-      <c r="AL91" s="18"/>
-      <c r="AM91" s="18"/>
-      <c r="AN91" s="18"/>
-      <c r="AO91" s="18"/>
-      <c r="AP91" s="18"/>
-      <c r="AQ91" s="18"/>
-      <c r="AR91" s="18"/>
-      <c r="AS91" s="18"/>
-      <c r="AT91" s="18"/>
-      <c r="AU91" s="18"/>
-      <c r="AV91" s="18"/>
-      <c r="AW91" s="18"/>
-      <c r="AX91" s="18"/>
-      <c r="AY91" s="18"/>
-      <c r="AZ91" s="18"/>
-      <c r="BA91" s="18"/>
-      <c r="BB91" s="18"/>
-      <c r="BC91" s="18"/>
-      <c r="BD91" s="18"/>
-      <c r="BE91" s="19"/>
+      <c r="A91" s="33">
+        <v>5</v>
+      </c>
+      <c r="B91" s="34"/>
+      <c r="C91" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="34"/>
+      <c r="Z91" s="34"/>
+      <c r="AA91" s="34"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+      <c r="AF91" s="4"/>
+      <c r="AG91" s="4"/>
+      <c r="AH91" s="4"/>
+      <c r="AI91" s="4"/>
+      <c r="AJ91" s="4"/>
+      <c r="AK91" s="4"/>
+      <c r="AL91" s="4"/>
+      <c r="AM91" s="4"/>
+      <c r="AN91" s="4"/>
+      <c r="AO91" s="4"/>
+      <c r="AP91" s="4"/>
+      <c r="AQ91" s="4"/>
+      <c r="AR91" s="4"/>
+      <c r="AS91" s="4"/>
+      <c r="AT91" s="4"/>
+      <c r="AU91" s="4"/>
+      <c r="AV91" s="4"/>
+      <c r="AW91" s="4"/>
+      <c r="AX91" s="4"/>
+      <c r="AY91" s="4"/>
+      <c r="AZ91" s="4"/>
+      <c r="BA91" s="8"/>
+      <c r="BB91" s="8"/>
+      <c r="BC91" s="8"/>
+      <c r="BD91" s="8"/>
+      <c r="BE91" s="16"/>
     </row>
-    <row r="92" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="33">
+        <v>5</v>
+      </c>
+      <c r="B92" s="34"/>
+      <c r="C92" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="34"/>
+      <c r="Z92" s="34"/>
+      <c r="AA92" s="34"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4"/>
+      <c r="AF92" s="4"/>
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="4"/>
+      <c r="AI92" s="4"/>
+      <c r="AJ92" s="4"/>
+      <c r="AK92" s="4"/>
+      <c r="AL92" s="4"/>
+      <c r="AM92" s="4"/>
+      <c r="AN92" s="4"/>
+      <c r="AO92" s="4"/>
+      <c r="AP92" s="4"/>
+      <c r="AQ92" s="4"/>
+      <c r="AR92" s="4"/>
+      <c r="AS92" s="4"/>
+      <c r="AT92" s="4"/>
+      <c r="AU92" s="4"/>
+      <c r="AV92" s="4"/>
+      <c r="AW92" s="4"/>
+      <c r="AX92" s="4"/>
+      <c r="AY92" s="4"/>
+      <c r="AZ92" s="4"/>
+      <c r="BA92" s="8"/>
+      <c r="BB92" s="8"/>
+      <c r="BC92" s="8"/>
+      <c r="BD92" s="8"/>
+      <c r="BE92" s="16"/>
+    </row>
+    <row r="93" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="33"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+      <c r="Y93" s="34"/>
+      <c r="Z93" s="34"/>
+      <c r="AA93" s="34"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4"/>
+      <c r="AE93" s="4"/>
+      <c r="AF93" s="4"/>
+      <c r="AG93" s="4"/>
+      <c r="AH93" s="4"/>
+      <c r="AI93" s="4"/>
+      <c r="AJ93" s="4"/>
+      <c r="AK93" s="4"/>
+      <c r="AL93" s="4"/>
+      <c r="AM93" s="4"/>
+      <c r="AN93" s="4"/>
+      <c r="AO93" s="4"/>
+      <c r="AP93" s="4"/>
+      <c r="AQ93" s="4"/>
+      <c r="AR93" s="4"/>
+      <c r="AS93" s="4"/>
+      <c r="AT93" s="4"/>
+      <c r="AU93" s="4"/>
+      <c r="AV93" s="4"/>
+      <c r="AW93" s="4"/>
+      <c r="AX93" s="4"/>
+      <c r="AY93" s="4"/>
+      <c r="AZ93" s="4"/>
+      <c r="BA93" s="4"/>
+      <c r="BB93" s="4"/>
+      <c r="BC93" s="4"/>
+      <c r="BD93" s="4"/>
+      <c r="BE93" s="16"/>
+    </row>
+    <row r="94" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="33"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="34"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="4"/>
+      <c r="AE94" s="4"/>
+      <c r="AF94" s="4"/>
+      <c r="AG94" s="4"/>
+      <c r="AH94" s="4"/>
+      <c r="AI94" s="4"/>
+      <c r="AJ94" s="4"/>
+      <c r="AK94" s="4"/>
+      <c r="AL94" s="4"/>
+      <c r="AM94" s="4"/>
+      <c r="AN94" s="4"/>
+      <c r="AO94" s="4"/>
+      <c r="AP94" s="4"/>
+      <c r="AQ94" s="4"/>
+      <c r="AR94" s="4"/>
+      <c r="AS94" s="4"/>
+      <c r="AT94" s="4"/>
+      <c r="AU94" s="4"/>
+      <c r="AV94" s="4"/>
+      <c r="AW94" s="4"/>
+      <c r="AX94" s="4"/>
+      <c r="AY94" s="4"/>
+      <c r="AZ94" s="4"/>
+      <c r="BA94" s="4"/>
+      <c r="BB94" s="4"/>
+      <c r="BC94" s="4"/>
+      <c r="BD94" s="4"/>
+      <c r="BE94" s="16"/>
+    </row>
+    <row r="95" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="33">
+        <v>6</v>
+      </c>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="34"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+      <c r="AE95" s="4"/>
+      <c r="AF95" s="4"/>
+      <c r="AG95" s="4"/>
+      <c r="AH95" s="4"/>
+      <c r="AI95" s="4"/>
+      <c r="AJ95" s="4"/>
+      <c r="AK95" s="4"/>
+      <c r="AL95" s="4"/>
+      <c r="AM95" s="4"/>
+      <c r="AN95" s="4"/>
+      <c r="AO95" s="4"/>
+      <c r="AP95" s="4"/>
+      <c r="AQ95" s="4"/>
+      <c r="AR95" s="4"/>
+      <c r="AS95" s="4"/>
+      <c r="AT95" s="4"/>
+      <c r="AU95" s="4"/>
+      <c r="AV95" s="4"/>
+      <c r="AW95" s="4"/>
+      <c r="AX95" s="4"/>
+      <c r="AY95" s="4"/>
+      <c r="AZ95" s="4"/>
+      <c r="BA95" s="4"/>
+      <c r="BB95" s="4"/>
+      <c r="BC95" s="4"/>
+      <c r="BD95" s="4"/>
+      <c r="BE95" s="17"/>
+    </row>
+    <row r="96" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="33"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="34"/>
+      <c r="Z96" s="34"/>
+      <c r="AA96" s="34"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4"/>
+      <c r="AE96" s="4"/>
+      <c r="AF96" s="4"/>
+      <c r="AG96" s="4"/>
+      <c r="AH96" s="4"/>
+      <c r="AI96" s="4"/>
+      <c r="AJ96" s="4"/>
+      <c r="AK96" s="4"/>
+      <c r="AL96" s="4"/>
+      <c r="AM96" s="4"/>
+      <c r="AN96" s="4"/>
+      <c r="AO96" s="4"/>
+      <c r="AP96" s="4"/>
+      <c r="AQ96" s="4"/>
+      <c r="AR96" s="4"/>
+      <c r="AS96" s="4"/>
+      <c r="AT96" s="4"/>
+      <c r="AU96" s="4"/>
+      <c r="AV96" s="4"/>
+      <c r="AW96" s="4"/>
+      <c r="AX96" s="4"/>
+      <c r="AY96" s="4"/>
+      <c r="AZ96" s="4"/>
+      <c r="BA96" s="4"/>
+      <c r="BB96" s="4"/>
+      <c r="BC96" s="4"/>
+      <c r="BD96" s="4"/>
+      <c r="BE96" s="16"/>
+    </row>
+    <row r="97" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="33"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="37"/>
+      <c r="X97" s="37"/>
+      <c r="Y97" s="34"/>
+      <c r="Z97" s="34"/>
+      <c r="AA97" s="34"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4"/>
+      <c r="AE97" s="4"/>
+      <c r="AF97" s="4"/>
+      <c r="AG97" s="4"/>
+      <c r="AH97" s="4"/>
+      <c r="AI97" s="4"/>
+      <c r="AJ97" s="4"/>
+      <c r="AK97" s="4"/>
+      <c r="AL97" s="4"/>
+      <c r="AM97" s="4"/>
+      <c r="AN97" s="4"/>
+      <c r="AO97" s="4"/>
+      <c r="AP97" s="4"/>
+      <c r="AQ97" s="4"/>
+      <c r="AR97" s="4"/>
+      <c r="AS97" s="4"/>
+      <c r="AT97" s="4"/>
+      <c r="AU97" s="4"/>
+      <c r="AV97" s="4"/>
+      <c r="AW97" s="4"/>
+      <c r="AX97" s="4"/>
+      <c r="AY97" s="4"/>
+      <c r="AZ97" s="4"/>
+      <c r="BA97" s="4"/>
+      <c r="BB97" s="4"/>
+      <c r="BC97" s="4"/>
+      <c r="BD97" s="4"/>
+      <c r="BE97" s="16"/>
+    </row>
+    <row r="98" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="93"/>
+      <c r="B98" s="94"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="95"/>
+      <c r="H98" s="95"/>
+      <c r="I98" s="95"/>
+      <c r="J98" s="95"/>
+      <c r="K98" s="95"/>
+      <c r="L98" s="95"/>
+      <c r="M98" s="95"/>
+      <c r="N98" s="95"/>
+      <c r="O98" s="95"/>
+      <c r="P98" s="95"/>
+      <c r="Q98" s="95"/>
+      <c r="R98" s="95"/>
+      <c r="S98" s="96"/>
+      <c r="T98" s="96"/>
+      <c r="U98" s="96"/>
+      <c r="V98" s="96"/>
+      <c r="W98" s="96"/>
+      <c r="X98" s="96"/>
+      <c r="Y98" s="94"/>
+      <c r="Z98" s="94"/>
+      <c r="AA98" s="94"/>
+      <c r="AB98" s="18"/>
+      <c r="AC98" s="18"/>
+      <c r="AD98" s="18"/>
+      <c r="AE98" s="18"/>
+      <c r="AF98" s="18"/>
+      <c r="AG98" s="18"/>
+      <c r="AH98" s="18"/>
+      <c r="AI98" s="18"/>
+      <c r="AJ98" s="18"/>
+      <c r="AK98" s="18"/>
+      <c r="AL98" s="18"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="18"/>
+      <c r="AO98" s="18"/>
+      <c r="AP98" s="18"/>
+      <c r="AQ98" s="18"/>
+      <c r="AR98" s="18"/>
+      <c r="AS98" s="18"/>
+      <c r="AT98" s="18"/>
+      <c r="AU98" s="18"/>
+      <c r="AV98" s="18"/>
+      <c r="AW98" s="18"/>
+      <c r="AX98" s="18"/>
+      <c r="AY98" s="18"/>
+      <c r="AZ98" s="18"/>
+      <c r="BA98" s="18"/>
+      <c r="BB98" s="18"/>
+      <c r="BC98" s="18"/>
+      <c r="BD98" s="18"/>
+      <c r="BE98" s="19"/>
+    </row>
+    <row r="99" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="610">
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
+  <mergeCells count="659">
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:O89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="S89:U89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="Y89:AA89"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="H77:O77"/>
@@ -8243,83 +8851,13 @@
     <mergeCell ref="S77:U77"/>
     <mergeCell ref="V77:X77"/>
     <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:O78"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:O71"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:O72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="H65:O65"/>
@@ -8327,231 +8865,6 @@
     <mergeCell ref="S65:U65"/>
     <mergeCell ref="V65:X65"/>
     <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:O82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:O53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="H32:O32"/>
@@ -8566,56 +8879,191 @@
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:X33"/>
     <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y97:AA97"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="H96:O96"/>
+    <mergeCell ref="P96:R96"/>
+    <mergeCell ref="S96:U96"/>
+    <mergeCell ref="V96:X96"/>
+    <mergeCell ref="Y94:AA94"/>
+    <mergeCell ref="Y95:AA95"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:O94"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="V94:X94"/>
+    <mergeCell ref="H95:O95"/>
+    <mergeCell ref="P95:R95"/>
+    <mergeCell ref="S95:U95"/>
+    <mergeCell ref="V95:X95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="Y98:AA98"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:O98"/>
+    <mergeCell ref="P98:R98"/>
+    <mergeCell ref="S98:U98"/>
+    <mergeCell ref="V98:X98"/>
+    <mergeCell ref="Y96:AA96"/>
+    <mergeCell ref="H91:O91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="V91:X91"/>
+    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:O97"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="S97:U97"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H92:O92"/>
+    <mergeCell ref="P92:R92"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="Y92:AA92"/>
+    <mergeCell ref="H93:O93"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="V93:X93"/>
+    <mergeCell ref="Y93:AA93"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
     <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:G8"/>
@@ -8640,191 +9088,407 @@
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="H86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:U86"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:U85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="Y91:AA91"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H91:O91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="V91:X91"/>
-    <mergeCell ref="Y89:AA89"/>
-    <mergeCell ref="H84:O84"/>
-    <mergeCell ref="P84:R84"/>
-    <mergeCell ref="S84:U84"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:O39"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="S39:U39"/>
     <mergeCell ref="V39:X39"/>
     <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y90:AA90"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="H89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="S89:U89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:O88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:X88"/>
     <mergeCell ref="Y88:AA88"/>
-    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:O84"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="S84:U84"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="A87:B87"/>
     <mergeCell ref="C87:G87"/>
     <mergeCell ref="H87:O87"/>
     <mergeCell ref="P87:R87"/>
     <mergeCell ref="S87:U87"/>
     <mergeCell ref="V87:X87"/>
-    <mergeCell ref="H88:O88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:U86"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="Y86:AA86"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
@@ -8854,6 +9518,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100364AEC801DCCFF4C9A7CD82776573E34" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9a90bd606c73e53fbdca164192b510d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86e6f6c817e23f4348afe6a544d017da">
     <xsd:element name="properties">
@@ -8967,33 +9646,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9008,9 +9664,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F999A99-14E0-4A35-8552-0D0111146846}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C7E73E-37A8-4119-AD2E-81AFBFD39544}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
+++ b/doc/D4_ドキュメント/進捗管理表(最新版)_D4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88C93FE-CD1D-4C4E-8AF6-2B4D037FA769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A5294-517B-46C5-A55A-F506798E5885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="177">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -672,13 +672,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CalendarCounter.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.3.11</t>
-  </si>
-  <si>
     <t>4.1.10</t>
   </si>
   <si>
@@ -704,6 +697,13 @@
   </si>
   <si>
     <t>4.6.11</t>
+  </si>
+  <si>
+    <t>着手</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
     <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -784,6 +784,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1265,7 +1271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,15 +1389,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1401,18 +1410,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,29 +1566,8 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1921,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG101"/>
+  <dimension ref="A1:BG100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM72" sqref="AM72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1938,140 +1926,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="69" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="59" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="56">
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="57">
         <v>45078</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="59"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="59" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="56">
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="57">
         <v>45107</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="59"/>
     </row>
     <row r="3" spans="1:59" ht="16" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="65" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65" t="s">
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="62" t="s">
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
       <c r="AB4" s="12">
         <f>AH1</f>
         <v>45078</v>
@@ -2196,41 +2184,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63" t="s">
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63" t="s">
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="63"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
       <c r="AB5" s="20">
         <f>AH1</f>
         <v>45078</v>
@@ -2353,33 +2341,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
       <c r="AB6" s="21" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -2534,9 +2522,9 @@
       </c>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="4"/>
@@ -2603,11 +2591,11 @@
       </c>
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="75" t="s">
+      <c r="Y8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="4"/>
@@ -2674,11 +2662,11 @@
       </c>
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="75" t="s">
+      <c r="Y9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="4"/>
@@ -2745,11 +2733,11 @@
       </c>
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
-      <c r="Y10" s="75" t="s">
+      <c r="Y10" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="4"/>
@@ -2816,11 +2804,11 @@
       </c>
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
-      <c r="Y11" s="75" t="s">
+      <c r="Y11" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2954,11 +2942,11 @@
       </c>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
-      <c r="Y13" s="89" t="s">
+      <c r="Y13" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -3000,21 +2988,21 @@
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="87" t="s">
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="88"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="89"/>
       <c r="S14" s="37">
         <v>45083</v>
       </c>
@@ -3025,11 +3013,11 @@
       </c>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
-      <c r="Y14" s="75" t="s">
+      <c r="Y14" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -3062,45 +3050,45 @@
       <c r="BE14" s="16"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50">
+      <c r="A15" s="51">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="42" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="42" t="s">
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="81">
+      <c r="Q15" s="44"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="82">
         <v>45084</v>
       </c>
-      <c r="T15" s="82"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="81">
+      <c r="T15" s="83"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="82">
         <v>45089</v>
       </c>
-      <c r="W15" s="82"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="84" t="s">
+      <c r="W15" s="83"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="87"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -3133,10 +3121,10 @@
       <c r="BE15" s="16"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90">
+      <c r="A16" s="91">
         <v>2.4</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -3167,11 +3155,11 @@
       </c>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
-      <c r="Y16" s="89" t="s">
+      <c r="Y16" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -3238,11 +3226,11 @@
       </c>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
-      <c r="Y17" s="89" t="s">
+      <c r="Y17" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -3547,21 +3535,21 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
@@ -3621,21 +3609,21 @@
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="97" t="s">
+      <c r="H23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="40" t="s">
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
       <c r="S23" s="37">
         <v>45090</v>
       </c>
@@ -3692,16 +3680,16 @@
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="97" t="s">
+      <c r="H24" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
       <c r="P24" s="36" t="s">
         <v>42</v>
       </c>
@@ -3763,16 +3751,16 @@
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="97" t="s">
+      <c r="H25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
       <c r="P25" s="36" t="s">
         <v>42</v>
       </c>
@@ -3834,21 +3822,21 @@
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="97" t="s">
+      <c r="H26" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="39" t="s">
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
       <c r="S26" s="37">
         <v>45089</v>
       </c>
@@ -3859,7 +3847,7 @@
       </c>
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
-      <c r="Y26" s="47" t="s">
+      <c r="Y26" s="49" t="s">
         <v>160</v>
       </c>
       <c r="Z26" s="48"/>
@@ -3905,21 +3893,21 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="97" t="s">
+      <c r="H27" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="40" t="s">
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
       <c r="S27" s="37">
         <v>45089</v>
       </c>
@@ -3930,7 +3918,7 @@
       </c>
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
-      <c r="Y27" s="47" t="s">
+      <c r="Y27" s="49" t="s">
         <v>160</v>
       </c>
       <c r="Z27" s="48"/>
@@ -3976,16 +3964,16 @@
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="97" t="s">
+      <c r="H28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
       <c r="P28" s="38" t="s">
         <v>19</v>
       </c>
@@ -4001,7 +3989,7 @@
       </c>
       <c r="W28" s="37"/>
       <c r="X28" s="37"/>
-      <c r="Y28" s="47" t="s">
+      <c r="Y28" s="49" t="s">
         <v>160</v>
       </c>
       <c r="Z28" s="48"/>
@@ -4047,16 +4035,16 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="97" t="s">
+      <c r="H29" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
       <c r="P29" s="38" t="s">
         <v>19</v>
       </c>
@@ -4118,16 +4106,16 @@
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="97" t="s">
+      <c r="H30" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
       <c r="P30" s="36" t="s">
         <v>42</v>
       </c>
@@ -4143,7 +4131,7 @@
       </c>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
-      <c r="Y30" s="47" t="s">
+      <c r="Y30" s="49" t="s">
         <v>160</v>
       </c>
       <c r="Z30" s="48"/>
@@ -4189,21 +4177,21 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="97" t="s">
+      <c r="H31" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="40" t="s">
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
       <c r="S31" s="37">
         <v>45090</v>
       </c>
@@ -4214,7 +4202,7 @@
       </c>
       <c r="W31" s="37"/>
       <c r="X31" s="37"/>
-      <c r="Y31" s="47" t="s">
+      <c r="Y31" s="49" t="s">
         <v>160</v>
       </c>
       <c r="Z31" s="48"/>
@@ -4252,26 +4240,26 @@
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
       <c r="P32" s="38" t="s">
         <v>19</v>
       </c>
@@ -4287,9 +4275,9 @@
       </c>
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -4302,7 +4290,7 @@
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
-      <c r="AN32" s="101"/>
+      <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
       <c r="AP32" s="24"/>
       <c r="AQ32" s="24"/>
@@ -4323,31 +4311,31 @@
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B33" s="34"/>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="39" t="s">
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
       <c r="S33" s="37">
         <v>45093</v>
       </c>
@@ -4358,9 +4346,11 @@
       </c>
       <c r="W33" s="37"/>
       <c r="X33" s="37"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
+      <c r="Y33" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -4373,7 +4363,7 @@
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
-      <c r="AN33" s="101"/>
+      <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
       <c r="AQ33" s="24"/>
@@ -4412,11 +4402,11 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="46" t="s">
+      <c r="P34" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
       <c r="S34" s="37">
         <v>45089</v>
       </c>
@@ -4481,11 +4471,11 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="46" t="s">
+      <c r="P35" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
       <c r="S35" s="37">
         <v>45089</v>
       </c>
@@ -4496,7 +4486,7 @@
       </c>
       <c r="W35" s="37"/>
       <c r="X35" s="37"/>
-      <c r="Y35" s="47" t="s">
+      <c r="Y35" s="49" t="s">
         <v>14</v>
       </c>
       <c r="Z35" s="48"/>
@@ -4552,11 +4542,11 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
-      <c r="P36" s="46" t="s">
+      <c r="P36" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
       <c r="S36" s="37">
         <v>45089</v>
       </c>
@@ -4567,7 +4557,7 @@
       </c>
       <c r="W36" s="37"/>
       <c r="X36" s="37"/>
-      <c r="Y36" s="47" t="s">
+      <c r="Y36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="Z36" s="48"/>
@@ -4613,21 +4603,21 @@
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="46" t="s">
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
       <c r="S37" s="37">
         <v>45091</v>
       </c>
@@ -4683,21 +4673,21 @@
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="97" t="s">
+      <c r="H38" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="46" t="s">
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
       <c r="S38" s="37">
         <v>45092</v>
       </c>
@@ -4708,7 +4698,9 @@
       </c>
       <c r="W38" s="37"/>
       <c r="X38" s="37"/>
-      <c r="Y38" s="34"/>
+      <c r="Y38" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="Z38" s="34"/>
       <c r="AA38" s="34"/>
       <c r="AB38" s="4"/>
@@ -4723,7 +4715,7 @@
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
-      <c r="AO38" s="101"/>
+      <c r="AO38" s="4"/>
       <c r="AP38" s="27"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
@@ -4761,11 +4753,11 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="46" t="s">
+      <c r="P39" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
       <c r="S39" s="37">
         <v>45092</v>
       </c>
@@ -4776,7 +4768,9 @@
       </c>
       <c r="W39" s="37"/>
       <c r="X39" s="37"/>
-      <c r="Y39" s="34"/>
+      <c r="Y39" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="Z39" s="34"/>
       <c r="AA39" s="34"/>
       <c r="AB39" s="4"/>
@@ -4819,21 +4813,21 @@
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="46" t="s">
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
       <c r="S40" s="37">
         <v>45091</v>
       </c>
@@ -4863,7 +4857,7 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="27"/>
-      <c r="AP40" s="101"/>
+      <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4"/>
       <c r="AS40" s="4"/>
@@ -4900,11 +4894,11 @@
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
-      <c r="P41" s="46" t="s">
+      <c r="P41" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
       <c r="S41" s="37">
         <v>45093</v>
       </c>
@@ -4915,7 +4909,9 @@
       </c>
       <c r="W41" s="37"/>
       <c r="X41" s="37"/>
-      <c r="Y41" s="34"/>
+      <c r="Y41" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="Z41" s="34"/>
       <c r="AA41" s="34"/>
       <c r="AB41" s="4"/>
@@ -5171,11 +5167,11 @@
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
-      <c r="P45" s="40" t="s">
+      <c r="P45" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
       <c r="S45" s="37">
         <v>45096</v>
       </c>
@@ -5240,11 +5236,11 @@
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
-      <c r="P46" s="40" t="s">
+      <c r="P46" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
       <c r="S46" s="37">
         <v>45096</v>
       </c>
@@ -5309,11 +5305,11 @@
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
-      <c r="P47" s="39" t="s">
+      <c r="P47" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
       <c r="S47" s="37">
         <v>45096</v>
       </c>
@@ -5378,11 +5374,11 @@
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
-      <c r="P48" s="39" t="s">
+      <c r="P48" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
       <c r="S48" s="37">
         <v>45096</v>
       </c>
@@ -5585,11 +5581,11 @@
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
-      <c r="P51" s="46" t="s">
+      <c r="P51" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
       <c r="S51" s="37">
         <v>45096</v>
       </c>
@@ -5654,11 +5650,11 @@
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="46" t="s">
+      <c r="P52" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
       <c r="S52" s="37">
         <v>45096</v>
       </c>
@@ -5704,45 +5700,37 @@
       <c r="BE52" s="16"/>
     </row>
     <row r="53" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
-        <v>169</v>
+      <c r="A53" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="B53" s="34"/>
-      <c r="C53" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="104"/>
-      <c r="N53" s="104"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="37">
-        <v>45091</v>
-      </c>
+      <c r="C53" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="37"/>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
-      <c r="V53" s="37">
-        <v>45093</v>
-      </c>
+      <c r="V53" s="37"/>
       <c r="W53" s="37"/>
       <c r="X53" s="37"/>
-      <c r="Y53" s="41">
-        <v>0.8</v>
-      </c>
+      <c r="Y53" s="34"/>
       <c r="Z53" s="34"/>
       <c r="AA53" s="34"/>
       <c r="AB53" s="4"/>
@@ -5758,12 +5746,12 @@
       <c r="AL53" s="4"/>
       <c r="AM53" s="4"/>
       <c r="AN53" s="4"/>
-      <c r="AO53" s="29"/>
-      <c r="AP53" s="29"/>
-      <c r="AQ53" s="29"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
-      <c r="AT53" s="101"/>
+      <c r="AT53" s="4"/>
       <c r="AU53" s="4"/>
       <c r="AV53" s="4"/>
       <c r="AW53" s="4"/>
@@ -5777,18 +5765,18 @@
       <c r="BE53" s="16"/>
     </row>
     <row r="54" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33">
-        <v>4.4000000000000004</v>
+      <c r="A54" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="B54" s="34"/>
-      <c r="C54" s="35" t="s">
-        <v>98</v>
-      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="H54" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="I54" s="35"/>
       <c r="J54" s="35"/>
       <c r="K54" s="35"/>
@@ -5796,15 +5784,19 @@
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
-      <c r="P54" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="37"/>
+      <c r="P54" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="37">
+        <v>45096</v>
+      </c>
       <c r="T54" s="37"/>
       <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
+      <c r="V54" s="37">
+        <v>45098</v>
+      </c>
       <c r="W54" s="37"/>
       <c r="X54" s="37"/>
       <c r="Y54" s="34"/>
@@ -5828,9 +5820,9 @@
       <c r="AQ54" s="4"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
-      <c r="AT54" s="4"/>
-      <c r="AU54" s="4"/>
-      <c r="AV54" s="4"/>
+      <c r="AT54" s="30"/>
+      <c r="AU54" s="30"/>
+      <c r="AV54" s="30"/>
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4"/>
@@ -5843,7 +5835,7 @@
     </row>
     <row r="55" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" s="34"/>
       <c r="C55" s="35"/>
@@ -5852,7 +5844,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
@@ -5861,11 +5853,11 @@
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
-      <c r="P55" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
+      <c r="P55" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
       <c r="S55" s="37">
         <v>45096</v>
       </c>
@@ -5912,7 +5904,7 @@
     </row>
     <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B56" s="34"/>
       <c r="C56" s="35"/>
@@ -5921,7 +5913,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
@@ -5981,7 +5973,7 @@
     </row>
     <row r="57" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="35"/>
@@ -5990,7 +5982,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
@@ -5999,11 +5991,11 @@
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
-      <c r="P57" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
+      <c r="P57" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
       <c r="S57" s="37">
         <v>45096</v>
       </c>
@@ -6050,7 +6042,7 @@
     </row>
     <row r="58" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="35"/>
@@ -6058,32 +6050,34 @@
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
+      <c r="H58" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
       <c r="S58" s="37">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="T58" s="37"/>
       <c r="U58" s="37"/>
       <c r="V58" s="37">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="W58" s="37"/>
       <c r="X58" s="37"/>
-      <c r="Y58" s="34"/>
+      <c r="Y58" s="41">
+        <v>0.7</v>
+      </c>
       <c r="Z58" s="34"/>
       <c r="AA58" s="34"/>
       <c r="AB58" s="4"/>
@@ -6099,14 +6093,14 @@
       <c r="AL58" s="4"/>
       <c r="AM58" s="4"/>
       <c r="AN58" s="4"/>
-      <c r="AO58" s="4"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
+      <c r="AO58" s="30"/>
+      <c r="AP58" s="30"/>
+      <c r="AQ58" s="30"/>
       <c r="AR58" s="4"/>
       <c r="AS58" s="4"/>
-      <c r="AT58" s="30"/>
-      <c r="AU58" s="30"/>
-      <c r="AV58" s="30"/>
+      <c r="AT58" s="4"/>
+      <c r="AU58" s="4"/>
+      <c r="AV58" s="4"/>
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4"/>
@@ -6119,7 +6113,7 @@
     </row>
     <row r="59" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="35"/>
@@ -6127,34 +6121,32 @@
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
-      <c r="H59" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
+      <c r="H59" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
       <c r="S59" s="37">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
       <c r="V59" s="37">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="W59" s="37"/>
       <c r="X59" s="37"/>
-      <c r="Y59" s="41">
-        <v>0.7</v>
-      </c>
+      <c r="Y59" s="34"/>
       <c r="Z59" s="34"/>
       <c r="AA59" s="34"/>
       <c r="AB59" s="4"/>
@@ -6170,14 +6162,14 @@
       <c r="AL59" s="4"/>
       <c r="AM59" s="4"/>
       <c r="AN59" s="4"/>
-      <c r="AO59" s="30"/>
-      <c r="AP59" s="30"/>
-      <c r="AQ59" s="30"/>
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="4"/>
+      <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
       <c r="AS59" s="4"/>
-      <c r="AT59" s="101"/>
-      <c r="AU59" s="101"/>
-      <c r="AV59" s="101"/>
+      <c r="AT59" s="30"/>
+      <c r="AU59" s="30"/>
+      <c r="AV59" s="30"/>
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4"/>
@@ -6190,7 +6182,7 @@
     </row>
     <row r="60" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B60" s="34"/>
       <c r="C60" s="35"/>
@@ -6198,16 +6190,16 @@
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
+      <c r="H60" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="45"/>
       <c r="P60" s="38" t="s">
         <v>88</v>
       </c>
@@ -6259,7 +6251,7 @@
     </row>
     <row r="61" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B61" s="34"/>
       <c r="C61" s="35"/>
@@ -6267,21 +6259,21 @@
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
+      <c r="H61" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
       <c r="S61" s="37">
         <v>45096</v>
       </c>
@@ -6328,7 +6320,7 @@
     </row>
     <row r="62" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" s="34"/>
       <c r="C62" s="35"/>
@@ -6336,21 +6328,21 @@
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
+      <c r="H62" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
       <c r="S62" s="37">
         <v>45096</v>
       </c>
@@ -6397,40 +6389,44 @@
     </row>
     <row r="63" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
+      <c r="C63" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="100"/>
+      <c r="N63" s="100"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
       <c r="S63" s="37">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="T63" s="37"/>
       <c r="U63" s="37"/>
       <c r="V63" s="37">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="W63" s="37"/>
       <c r="X63" s="37"/>
-      <c r="Y63" s="34"/>
+      <c r="Y63" s="41">
+        <v>0.7</v>
+      </c>
       <c r="Z63" s="34"/>
       <c r="AA63" s="34"/>
       <c r="AB63" s="4"/>
@@ -6446,9 +6442,9 @@
       <c r="AL63" s="4"/>
       <c r="AM63" s="4"/>
       <c r="AN63" s="4"/>
-      <c r="AO63" s="4"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="4"/>
+      <c r="AO63" s="30"/>
+      <c r="AP63" s="30"/>
+      <c r="AQ63" s="30"/>
       <c r="AR63" s="4"/>
       <c r="AS63" s="4"/>
       <c r="AT63" s="30"/>
@@ -6466,26 +6462,26 @@
     </row>
     <row r="64" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="34"/>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="I64" s="106"/>
-      <c r="J64" s="106"/>
-      <c r="K64" s="106"/>
-      <c r="L64" s="106"/>
-      <c r="M64" s="106"/>
-      <c r="N64" s="106"/>
-      <c r="O64" s="107"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="100"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="101"/>
       <c r="P64" s="36" t="s">
         <v>42</v>
       </c>
@@ -6538,45 +6534,35 @@
       <c r="BE64" s="16"/>
     </row>
     <row r="65" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>173</v>
+      <c r="A65" s="33">
+        <v>4.5</v>
       </c>
       <c r="B65" s="34"/>
-      <c r="C65" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="104"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104"/>
-      <c r="G65" s="104"/>
-      <c r="H65" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="I65" s="106"/>
-      <c r="J65" s="106"/>
-      <c r="K65" s="106"/>
-      <c r="L65" s="106"/>
-      <c r="M65" s="106"/>
-      <c r="N65" s="106"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="37">
-        <v>45091</v>
-      </c>
+      <c r="C65" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="37"/>
       <c r="T65" s="37"/>
       <c r="U65" s="37"/>
-      <c r="V65" s="37">
-        <v>45093</v>
-      </c>
+      <c r="V65" s="37"/>
       <c r="W65" s="37"/>
       <c r="X65" s="37"/>
-      <c r="Y65" s="41">
-        <v>0.7</v>
-      </c>
+      <c r="Y65" s="34"/>
       <c r="Z65" s="34"/>
       <c r="AA65" s="34"/>
       <c r="AB65" s="4"/>
@@ -6592,14 +6578,14 @@
       <c r="AL65" s="4"/>
       <c r="AM65" s="4"/>
       <c r="AN65" s="4"/>
-      <c r="AO65" s="30"/>
-      <c r="AP65" s="30"/>
-      <c r="AQ65" s="30"/>
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
       <c r="AR65" s="4"/>
       <c r="AS65" s="4"/>
-      <c r="AT65" s="30"/>
-      <c r="AU65" s="30"/>
-      <c r="AV65" s="30"/>
+      <c r="AT65" s="4"/>
+      <c r="AU65" s="4"/>
+      <c r="AV65" s="4"/>
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
       <c r="AY65" s="4"/>
@@ -6611,18 +6597,18 @@
       <c r="BE65" s="16"/>
     </row>
     <row r="66" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33">
-        <v>4.5</v>
+      <c r="A66" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="B66" s="34"/>
-      <c r="C66" s="35" t="s">
-        <v>119</v>
-      </c>
+      <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="H66" s="35" t="s">
+        <v>121</v>
+      </c>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
@@ -6630,13 +6616,19 @@
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
       <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="37"/>
+      <c r="P66" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="37">
+        <v>45097</v>
+      </c>
       <c r="T66" s="37"/>
       <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
+      <c r="V66" s="37">
+        <v>45100</v>
+      </c>
       <c r="W66" s="37"/>
       <c r="X66" s="37"/>
       <c r="Y66" s="34"/>
@@ -6661,10 +6653,10 @@
       <c r="AR66" s="4"/>
       <c r="AS66" s="4"/>
       <c r="AT66" s="4"/>
-      <c r="AU66" s="4"/>
-      <c r="AV66" s="4"/>
-      <c r="AW66" s="4"/>
-      <c r="AX66" s="4"/>
+      <c r="AU66" s="31"/>
+      <c r="AV66" s="31"/>
+      <c r="AW66" s="31"/>
+      <c r="AX66" s="31"/>
       <c r="AY66" s="4"/>
       <c r="AZ66" s="4"/>
       <c r="BA66" s="4"/>
@@ -6675,7 +6667,7 @@
     </row>
     <row r="67" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B67" s="34"/>
       <c r="C67" s="35"/>
@@ -6683,23 +6675,23 @@
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
-      <c r="H67" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="I67" s="97"/>
-      <c r="J67" s="97"/>
-      <c r="K67" s="97"/>
-      <c r="L67" s="97"/>
-      <c r="M67" s="97"/>
-      <c r="N67" s="97"/>
-      <c r="O67" s="97"/>
+      <c r="H67" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
       <c r="P67" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="44"/>
+        <v>60</v>
+      </c>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
       <c r="S67" s="37">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="T67" s="37"/>
       <c r="U67" s="37"/>
@@ -6708,7 +6700,7 @@
       </c>
       <c r="W67" s="37"/>
       <c r="X67" s="37"/>
-      <c r="Y67" s="34"/>
+      <c r="Y67" s="41"/>
       <c r="Z67" s="34"/>
       <c r="AA67" s="34"/>
       <c r="AB67" s="4"/>
@@ -6725,11 +6717,11 @@
       <c r="AM67" s="4"/>
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
-      <c r="AP67" s="4"/>
-      <c r="AQ67" s="4"/>
+      <c r="AP67" s="31"/>
+      <c r="AQ67" s="31"/>
       <c r="AR67" s="4"/>
       <c r="AS67" s="4"/>
-      <c r="AT67" s="4"/>
+      <c r="AT67" s="31"/>
       <c r="AU67" s="31"/>
       <c r="AV67" s="31"/>
       <c r="AW67" s="31"/>
@@ -6744,7 +6736,7 @@
     </row>
     <row r="68" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B68" s="34"/>
       <c r="C68" s="35"/>
@@ -6753,7 +6745,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
@@ -6762,11 +6754,11 @@
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
-      <c r="P68" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
+      <c r="P68" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
       <c r="S68" s="37">
         <v>45092</v>
       </c>
@@ -6813,7 +6805,7 @@
     </row>
     <row r="69" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B69" s="34"/>
       <c r="C69" s="35"/>
@@ -6822,7 +6814,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
@@ -6846,7 +6838,9 @@
       </c>
       <c r="W69" s="37"/>
       <c r="X69" s="37"/>
-      <c r="Y69" s="41"/>
+      <c r="Y69" s="41">
+        <v>0.3</v>
+      </c>
       <c r="Z69" s="34"/>
       <c r="AA69" s="34"/>
       <c r="AB69" s="4"/>
@@ -6882,7 +6876,7 @@
     </row>
     <row r="70" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B70" s="34"/>
       <c r="C70" s="35"/>
@@ -6891,7 +6885,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I70" s="35"/>
       <c r="J70" s="35"/>
@@ -6900,13 +6894,13 @@
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
       <c r="O70" s="35"/>
-      <c r="P70" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
+      <c r="P70" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
       <c r="S70" s="37">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="T70" s="37"/>
       <c r="U70" s="37"/>
@@ -6931,9 +6925,9 @@
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
-      <c r="AM70" s="4"/>
-      <c r="AN70" s="101"/>
-      <c r="AO70" s="101"/>
+      <c r="AM70" s="31"/>
+      <c r="AN70" s="31"/>
+      <c r="AO70" s="31"/>
       <c r="AP70" s="31"/>
       <c r="AQ70" s="31"/>
       <c r="AR70" s="4"/>
@@ -6953,7 +6947,7 @@
     </row>
     <row r="71" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B71" s="34"/>
       <c r="C71" s="35"/>
@@ -6961,23 +6955,23 @@
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
-      <c r="H71" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
+      <c r="H71" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
       <c r="S71" s="37">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="T71" s="37"/>
       <c r="U71" s="37"/>
@@ -6986,9 +6980,7 @@
       </c>
       <c r="W71" s="37"/>
       <c r="X71" s="37"/>
-      <c r="Y71" s="41">
-        <v>0.3</v>
-      </c>
+      <c r="Y71" s="34"/>
       <c r="Z71" s="34"/>
       <c r="AA71" s="34"/>
       <c r="AB71" s="4"/>
@@ -7002,9 +6994,9 @@
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4"/>
       <c r="AL71" s="4"/>
-      <c r="AM71" s="31"/>
-      <c r="AN71" s="31"/>
-      <c r="AO71" s="31"/>
+      <c r="AM71" s="4"/>
+      <c r="AN71" s="4"/>
+      <c r="AO71" s="4"/>
       <c r="AP71" s="31"/>
       <c r="AQ71" s="31"/>
       <c r="AR71" s="4"/>
@@ -7024,7 +7016,7 @@
     </row>
     <row r="72" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B72" s="34"/>
       <c r="C72" s="35"/>
@@ -7032,23 +7024,23 @@
       <c r="E72" s="35"/>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
-      <c r="H72" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
-      <c r="O72" s="100"/>
-      <c r="P72" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
+      <c r="H72" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
       <c r="S72" s="37">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="T72" s="37"/>
       <c r="U72" s="37"/>
@@ -7057,7 +7049,9 @@
       </c>
       <c r="W72" s="37"/>
       <c r="X72" s="37"/>
-      <c r="Y72" s="34"/>
+      <c r="Y72" s="41">
+        <v>0.7</v>
+      </c>
       <c r="Z72" s="34"/>
       <c r="AA72" s="34"/>
       <c r="AB72" s="4"/>
@@ -7071,9 +7065,9 @@
       <c r="AJ72" s="4"/>
       <c r="AK72" s="4"/>
       <c r="AL72" s="4"/>
-      <c r="AM72" s="4"/>
-      <c r="AN72" s="4"/>
-      <c r="AO72" s="4"/>
+      <c r="AM72" s="31"/>
+      <c r="AN72" s="31"/>
+      <c r="AO72" s="31"/>
       <c r="AP72" s="31"/>
       <c r="AQ72" s="31"/>
       <c r="AR72" s="4"/>
@@ -7093,7 +7087,7 @@
     </row>
     <row r="73" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="35"/>
@@ -7101,16 +7095,16 @@
       <c r="E73" s="35"/>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
-      <c r="H73" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="45"/>
+      <c r="H73" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
       <c r="P73" s="38" t="s">
         <v>19</v>
       </c>
@@ -7164,7 +7158,7 @@
     </row>
     <row r="74" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B74" s="34"/>
       <c r="C74" s="35"/>
@@ -7172,23 +7166,23 @@
       <c r="E74" s="35"/>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
-      <c r="H74" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
+      <c r="H74" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
       <c r="S74" s="37">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
@@ -7197,9 +7191,7 @@
       </c>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
-      <c r="Y74" s="41">
-        <v>0.7</v>
-      </c>
+      <c r="Y74" s="41"/>
       <c r="Z74" s="34"/>
       <c r="AA74" s="34"/>
       <c r="AB74" s="4"/>
@@ -7213,9 +7205,9 @@
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
       <c r="AL74" s="4"/>
-      <c r="AM74" s="31"/>
-      <c r="AN74" s="31"/>
-      <c r="AO74" s="31"/>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="4"/>
+      <c r="AO74" s="4"/>
       <c r="AP74" s="31"/>
       <c r="AQ74" s="31"/>
       <c r="AR74" s="4"/>
@@ -7235,7 +7227,7 @@
     </row>
     <row r="75" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B75" s="34"/>
       <c r="C75" s="35"/>
@@ -7243,23 +7235,23 @@
       <c r="E75" s="35"/>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
-      <c r="H75" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
+      <c r="H75" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
       <c r="S75" s="37">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="T75" s="37"/>
       <c r="U75" s="37"/>
@@ -7268,7 +7260,9 @@
       </c>
       <c r="W75" s="37"/>
       <c r="X75" s="37"/>
-      <c r="Y75" s="41"/>
+      <c r="Y75" s="41">
+        <v>0.3</v>
+      </c>
       <c r="Z75" s="34"/>
       <c r="AA75" s="34"/>
       <c r="AB75" s="4"/>
@@ -7282,9 +7276,9 @@
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
       <c r="AL75" s="4"/>
-      <c r="AM75" s="4"/>
-      <c r="AN75" s="4"/>
-      <c r="AO75" s="4"/>
+      <c r="AM75" s="31"/>
+      <c r="AN75" s="31"/>
+      <c r="AO75" s="31"/>
       <c r="AP75" s="31"/>
       <c r="AQ75" s="31"/>
       <c r="AR75" s="4"/>
@@ -7307,28 +7301,30 @@
         <v>139</v>
       </c>
       <c r="B76" s="34"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
+      <c r="C76" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
       <c r="S76" s="37">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="T76" s="37"/>
       <c r="U76" s="37"/>
@@ -7337,9 +7333,7 @@
       </c>
       <c r="W76" s="37"/>
       <c r="X76" s="37"/>
-      <c r="Y76" s="41">
-        <v>0.3</v>
-      </c>
+      <c r="Y76" s="41"/>
       <c r="Z76" s="34"/>
       <c r="AA76" s="34"/>
       <c r="AB76" s="4"/>
@@ -7353,9 +7347,9 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
-      <c r="AM76" s="31"/>
-      <c r="AN76" s="31"/>
-      <c r="AO76" s="31"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
       <c r="AP76" s="31"/>
       <c r="AQ76" s="31"/>
       <c r="AR76" s="4"/>
@@ -7374,43 +7368,35 @@
       <c r="BE76" s="16"/>
     </row>
     <row r="77" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
-        <v>139</v>
+      <c r="A77" s="33">
+        <v>4.5999999999999996</v>
       </c>
       <c r="B77" s="34"/>
-      <c r="C77" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="104"/>
-      <c r="N77" s="104"/>
-      <c r="O77" s="104"/>
-      <c r="P77" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="37">
-        <v>45092</v>
-      </c>
+      <c r="C77" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="37"/>
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
-      <c r="V77" s="37">
-        <v>45100</v>
-      </c>
+      <c r="V77" s="37"/>
       <c r="W77" s="37"/>
       <c r="X77" s="37"/>
-      <c r="Y77" s="41"/>
+      <c r="Y77" s="34"/>
       <c r="Z77" s="34"/>
       <c r="AA77" s="34"/>
       <c r="AB77" s="4"/>
@@ -7424,18 +7410,18 @@
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
-      <c r="AM77" s="101"/>
-      <c r="AN77" s="101"/>
-      <c r="AO77" s="101"/>
-      <c r="AP77" s="31"/>
-      <c r="AQ77" s="31"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
+      <c r="AP77" s="4"/>
+      <c r="AQ77" s="4"/>
       <c r="AR77" s="4"/>
       <c r="AS77" s="4"/>
-      <c r="AT77" s="31"/>
-      <c r="AU77" s="31"/>
-      <c r="AV77" s="31"/>
-      <c r="AW77" s="31"/>
-      <c r="AX77" s="31"/>
+      <c r="AT77" s="4"/>
+      <c r="AU77" s="4"/>
+      <c r="AV77" s="4"/>
+      <c r="AW77" s="4"/>
+      <c r="AX77" s="4"/>
       <c r="AY77" s="4"/>
       <c r="AZ77" s="4"/>
       <c r="BA77" s="4"/>
@@ -7445,18 +7431,18 @@
       <c r="BE77" s="16"/>
     </row>
     <row r="78" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33">
-        <v>4.5999999999999996</v>
+      <c r="A78" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="B78" s="34"/>
-      <c r="C78" s="35" t="s">
-        <v>140</v>
-      </c>
+      <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
+      <c r="H78" s="35" t="s">
+        <v>141</v>
+      </c>
       <c r="I78" s="35"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
@@ -7464,13 +7450,19 @@
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
       <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
+      <c r="P78" s="35" t="s">
+        <v>130</v>
+      </c>
       <c r="Q78" s="35"/>
       <c r="R78" s="35"/>
-      <c r="S78" s="37"/>
+      <c r="S78" s="37">
+        <v>45097</v>
+      </c>
       <c r="T78" s="37"/>
       <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
+      <c r="V78" s="37">
+        <v>45100</v>
+      </c>
       <c r="W78" s="37"/>
       <c r="X78" s="37"/>
       <c r="Y78" s="34"/>
@@ -7495,10 +7487,10 @@
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
       <c r="AT78" s="4"/>
-      <c r="AU78" s="4"/>
-      <c r="AV78" s="4"/>
-      <c r="AW78" s="4"/>
-      <c r="AX78" s="4"/>
+      <c r="AU78" s="32"/>
+      <c r="AV78" s="32"/>
+      <c r="AW78" s="32"/>
+      <c r="AX78" s="32"/>
       <c r="AY78" s="4"/>
       <c r="AZ78" s="4"/>
       <c r="BA78" s="4"/>
@@ -7509,7 +7501,7 @@
     </row>
     <row r="79" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B79" s="34"/>
       <c r="C79" s="35"/>
@@ -7517,23 +7509,23 @@
       <c r="E79" s="35"/>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
-      <c r="H79" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
+      <c r="H79" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
       <c r="S79" s="37">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="T79" s="37"/>
       <c r="U79" s="37"/>
@@ -7542,7 +7534,9 @@
       </c>
       <c r="W79" s="37"/>
       <c r="X79" s="37"/>
-      <c r="Y79" s="34"/>
+      <c r="Y79" s="41">
+        <v>0.4</v>
+      </c>
       <c r="Z79" s="34"/>
       <c r="AA79" s="34"/>
       <c r="AB79" s="4"/>
@@ -7558,12 +7552,12 @@
       <c r="AL79" s="4"/>
       <c r="AM79" s="4"/>
       <c r="AN79" s="4"/>
-      <c r="AO79" s="4"/>
-      <c r="AP79" s="4"/>
-      <c r="AQ79" s="4"/>
+      <c r="AO79" s="32"/>
+      <c r="AP79" s="32"/>
+      <c r="AQ79" s="32"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
-      <c r="AT79" s="4"/>
+      <c r="AT79" s="32"/>
       <c r="AU79" s="32"/>
       <c r="AV79" s="32"/>
       <c r="AW79" s="32"/>
@@ -7578,7 +7572,7 @@
     </row>
     <row r="80" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B80" s="34"/>
       <c r="C80" s="35"/>
@@ -7586,23 +7580,23 @@
       <c r="E80" s="35"/>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
-      <c r="H80" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
-      <c r="P80" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
+      <c r="H80" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
       <c r="S80" s="37">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="T80" s="37"/>
       <c r="U80" s="37"/>
@@ -7611,9 +7605,7 @@
       </c>
       <c r="W80" s="37"/>
       <c r="X80" s="37"/>
-      <c r="Y80" s="41">
-        <v>0.4</v>
-      </c>
+      <c r="Y80" s="34"/>
       <c r="Z80" s="34"/>
       <c r="AA80" s="34"/>
       <c r="AB80" s="4"/>
@@ -7629,8 +7621,8 @@
       <c r="AL80" s="4"/>
       <c r="AM80" s="4"/>
       <c r="AN80" s="4"/>
-      <c r="AO80" s="32"/>
-      <c r="AP80" s="32"/>
+      <c r="AO80" s="4"/>
+      <c r="AP80" s="4"/>
       <c r="AQ80" s="32"/>
       <c r="AR80" s="4"/>
       <c r="AS80" s="4"/>
@@ -7649,7 +7641,7 @@
     </row>
     <row r="81" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B81" s="34"/>
       <c r="C81" s="35"/>
@@ -7658,7 +7650,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I81" s="35"/>
       <c r="J81" s="35"/>
@@ -7698,8 +7690,8 @@
       <c r="AL81" s="4"/>
       <c r="AM81" s="4"/>
       <c r="AN81" s="4"/>
-      <c r="AO81" s="101"/>
-      <c r="AP81" s="101"/>
+      <c r="AO81" s="4"/>
+      <c r="AP81" s="4"/>
       <c r="AQ81" s="32"/>
       <c r="AR81" s="4"/>
       <c r="AS81" s="4"/>
@@ -7718,7 +7710,7 @@
     </row>
     <row r="82" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B82" s="34"/>
       <c r="C82" s="35"/>
@@ -7726,23 +7718,23 @@
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
-      <c r="H82" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
+      <c r="H82" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
       <c r="S82" s="37">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="T82" s="37"/>
       <c r="U82" s="37"/>
@@ -7751,7 +7743,9 @@
       </c>
       <c r="W82" s="37"/>
       <c r="X82" s="37"/>
-      <c r="Y82" s="34"/>
+      <c r="Y82" s="41">
+        <v>0.64</v>
+      </c>
       <c r="Z82" s="34"/>
       <c r="AA82" s="34"/>
       <c r="AB82" s="4"/>
@@ -7767,8 +7761,8 @@
       <c r="AL82" s="4"/>
       <c r="AM82" s="4"/>
       <c r="AN82" s="4"/>
-      <c r="AO82" s="101"/>
-      <c r="AP82" s="101"/>
+      <c r="AO82" s="32"/>
+      <c r="AP82" s="32"/>
       <c r="AQ82" s="32"/>
       <c r="AR82" s="4"/>
       <c r="AS82" s="4"/>
@@ -7787,7 +7781,7 @@
     </row>
     <row r="83" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B83" s="34"/>
       <c r="C83" s="35"/>
@@ -7795,23 +7789,23 @@
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
-      <c r="H83" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="45"/>
-      <c r="O83" s="45"/>
-      <c r="P83" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
+      <c r="H83" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
       <c r="S83" s="37">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="T83" s="37"/>
       <c r="U83" s="37"/>
@@ -7820,9 +7814,7 @@
       </c>
       <c r="W83" s="37"/>
       <c r="X83" s="37"/>
-      <c r="Y83" s="41">
-        <v>0.64</v>
-      </c>
+      <c r="Y83" s="34"/>
       <c r="Z83" s="34"/>
       <c r="AA83" s="34"/>
       <c r="AB83" s="4"/>
@@ -7838,7 +7830,7 @@
       <c r="AL83" s="4"/>
       <c r="AM83" s="4"/>
       <c r="AN83" s="4"/>
-      <c r="AO83" s="32"/>
+      <c r="AO83" s="4"/>
       <c r="AP83" s="32"/>
       <c r="AQ83" s="32"/>
       <c r="AR83" s="4"/>
@@ -7858,7 +7850,7 @@
     </row>
     <row r="84" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B84" s="34"/>
       <c r="C84" s="35"/>
@@ -7867,7 +7859,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
@@ -7876,11 +7868,11 @@
       <c r="M84" s="35"/>
       <c r="N84" s="35"/>
       <c r="O84" s="35"/>
-      <c r="P84" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
+      <c r="P84" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
       <c r="S84" s="37">
         <v>45092</v>
       </c>
@@ -7907,7 +7899,7 @@
       <c r="AL84" s="4"/>
       <c r="AM84" s="4"/>
       <c r="AN84" s="4"/>
-      <c r="AO84" s="101"/>
+      <c r="AO84" s="4"/>
       <c r="AP84" s="32"/>
       <c r="AQ84" s="32"/>
       <c r="AR84" s="4"/>
@@ -7927,7 +7919,7 @@
     </row>
     <row r="85" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B85" s="34"/>
       <c r="C85" s="35"/>
@@ -7936,7 +7928,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I85" s="35"/>
       <c r="J85" s="35"/>
@@ -7976,7 +7968,7 @@
       <c r="AL85" s="4"/>
       <c r="AM85" s="4"/>
       <c r="AN85" s="4"/>
-      <c r="AO85" s="101"/>
+      <c r="AO85" s="4"/>
       <c r="AP85" s="32"/>
       <c r="AQ85" s="32"/>
       <c r="AR85" s="4"/>
@@ -7996,7 +7988,7 @@
     </row>
     <row r="86" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B86" s="34"/>
       <c r="C86" s="35"/>
@@ -8005,7 +7997,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I86" s="35"/>
       <c r="J86" s="35"/>
@@ -8014,13 +8006,13 @@
       <c r="M86" s="35"/>
       <c r="N86" s="35"/>
       <c r="O86" s="35"/>
-      <c r="P86" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
+      <c r="P86" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
       <c r="S86" s="37">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="T86" s="37"/>
       <c r="U86" s="37"/>
@@ -8045,9 +8037,9 @@
       <c r="AL86" s="4"/>
       <c r="AM86" s="4"/>
       <c r="AN86" s="4"/>
-      <c r="AO86" s="101"/>
-      <c r="AP86" s="32"/>
-      <c r="AQ86" s="32"/>
+      <c r="AO86" s="4"/>
+      <c r="AP86" s="4"/>
+      <c r="AQ86" s="4"/>
       <c r="AR86" s="4"/>
       <c r="AS86" s="4"/>
       <c r="AT86" s="32"/>
@@ -8065,31 +8057,33 @@
     </row>
     <row r="87" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B87" s="34"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
+      <c r="C87" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
       <c r="S87" s="37">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="T87" s="37"/>
       <c r="U87" s="37"/>
@@ -8098,7 +8092,7 @@
       </c>
       <c r="W87" s="37"/>
       <c r="X87" s="37"/>
-      <c r="Y87" s="34"/>
+      <c r="Y87" s="41"/>
       <c r="Z87" s="34"/>
       <c r="AA87" s="34"/>
       <c r="AB87" s="4"/>
@@ -8114,9 +8108,9 @@
       <c r="AL87" s="4"/>
       <c r="AM87" s="4"/>
       <c r="AN87" s="4"/>
-      <c r="AO87" s="101"/>
-      <c r="AP87" s="101"/>
-      <c r="AQ87" s="101"/>
+      <c r="AO87" s="32"/>
+      <c r="AP87" s="32"/>
+      <c r="AQ87" s="32"/>
       <c r="AR87" s="4"/>
       <c r="AS87" s="4"/>
       <c r="AT87" s="32"/>
@@ -8134,28 +8128,28 @@
     </row>
     <row r="88" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B88" s="34"/>
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D88" s="104"/>
-      <c r="E88" s="104"/>
-      <c r="F88" s="104"/>
-      <c r="G88" s="104"/>
-      <c r="H88" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="I88" s="104"/>
-      <c r="J88" s="104"/>
-      <c r="K88" s="104"/>
-      <c r="L88" s="104"/>
-      <c r="M88" s="104"/>
-      <c r="N88" s="104"/>
-      <c r="O88" s="104"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
       <c r="P88" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q88" s="40"/>
       <c r="R88" s="40"/>
@@ -8169,9 +8163,7 @@
       </c>
       <c r="W88" s="37"/>
       <c r="X88" s="37"/>
-      <c r="Y88" s="41">
-        <v>0.65</v>
-      </c>
+      <c r="Y88" s="41"/>
       <c r="Z88" s="34"/>
       <c r="AA88" s="34"/>
       <c r="AB88" s="4"/>
@@ -8206,45 +8198,35 @@
       <c r="BE88" s="16"/>
     </row>
     <row r="89" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33" t="s">
-        <v>177</v>
+      <c r="A89" s="33">
+        <v>5</v>
       </c>
       <c r="B89" s="34"/>
-      <c r="C89" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="104"/>
-      <c r="E89" s="104"/>
-      <c r="F89" s="104"/>
-      <c r="G89" s="104"/>
-      <c r="H89" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="I89" s="104"/>
-      <c r="J89" s="104"/>
-      <c r="K89" s="104"/>
-      <c r="L89" s="104"/>
-      <c r="M89" s="104"/>
-      <c r="N89" s="104"/>
-      <c r="O89" s="104"/>
-      <c r="P89" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="37">
-        <v>45091</v>
-      </c>
+      <c r="C89" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="37"/>
       <c r="T89" s="37"/>
       <c r="U89" s="37"/>
-      <c r="V89" s="37">
-        <v>45100</v>
-      </c>
+      <c r="V89" s="37"/>
       <c r="W89" s="37"/>
       <c r="X89" s="37"/>
-      <c r="Y89" s="41">
-        <v>0.65</v>
-      </c>
+      <c r="Y89" s="34"/>
       <c r="Z89" s="34"/>
       <c r="AA89" s="34"/>
       <c r="AB89" s="4"/>
@@ -8260,22 +8242,22 @@
       <c r="AL89" s="4"/>
       <c r="AM89" s="4"/>
       <c r="AN89" s="4"/>
-      <c r="AO89" s="32"/>
-      <c r="AP89" s="32"/>
-      <c r="AQ89" s="32"/>
+      <c r="AO89" s="4"/>
+      <c r="AP89" s="4"/>
+      <c r="AQ89" s="4"/>
       <c r="AR89" s="4"/>
       <c r="AS89" s="4"/>
-      <c r="AT89" s="32"/>
-      <c r="AU89" s="32"/>
-      <c r="AV89" s="32"/>
-      <c r="AW89" s="32"/>
-      <c r="AX89" s="32"/>
+      <c r="AT89" s="4"/>
+      <c r="AU89" s="4"/>
+      <c r="AV89" s="4"/>
+      <c r="AW89" s="4"/>
+      <c r="AX89" s="4"/>
       <c r="AY89" s="4"/>
       <c r="AZ89" s="4"/>
-      <c r="BA89" s="4"/>
-      <c r="BB89" s="4"/>
-      <c r="BC89" s="4"/>
-      <c r="BD89" s="4"/>
+      <c r="BA89" s="8"/>
+      <c r="BB89" s="8"/>
+      <c r="BC89" s="8"/>
+      <c r="BD89" s="8"/>
       <c r="BE89" s="16"/>
     </row>
     <row r="90" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8284,7 +8266,7 @@
       </c>
       <c r="B90" s="34"/>
       <c r="C90" s="35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -8347,7 +8329,7 @@
       </c>
       <c r="B91" s="34"/>
       <c r="C91" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
@@ -8405,13 +8387,9 @@
       <c r="BE91" s="16"/>
     </row>
     <row r="92" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33">
-        <v>5</v>
-      </c>
+      <c r="A92" s="33"/>
       <c r="B92" s="34"/>
-      <c r="C92" s="35" t="s">
-        <v>39</v>
-      </c>
+      <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
       <c r="F92" s="35"/>
@@ -8461,10 +8439,10 @@
       <c r="AX92" s="4"/>
       <c r="AY92" s="4"/>
       <c r="AZ92" s="4"/>
-      <c r="BA92" s="8"/>
-      <c r="BB92" s="8"/>
-      <c r="BC92" s="8"/>
-      <c r="BD92" s="8"/>
+      <c r="BA92" s="4"/>
+      <c r="BB92" s="4"/>
+      <c r="BC92" s="4"/>
+      <c r="BD92" s="4"/>
       <c r="BE92" s="16"/>
     </row>
     <row r="93" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8527,9 +8505,13 @@
       <c r="BE93" s="16"/>
     </row>
     <row r="94" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="33"/>
+      <c r="A94" s="33">
+        <v>6</v>
+      </c>
       <c r="B94" s="34"/>
-      <c r="C94" s="35"/>
+      <c r="C94" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
       <c r="F94" s="35"/>
@@ -8583,16 +8565,12 @@
       <c r="BB94" s="4"/>
       <c r="BC94" s="4"/>
       <c r="BD94" s="4"/>
-      <c r="BE94" s="16"/>
+      <c r="BE94" s="17"/>
     </row>
     <row r="95" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="33">
-        <v>6</v>
-      </c>
+      <c r="A95" s="33"/>
       <c r="B95" s="34"/>
-      <c r="C95" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
       <c r="F95" s="35"/>
@@ -8646,7 +8624,7 @@
       <c r="BB95" s="4"/>
       <c r="BC95" s="4"/>
       <c r="BD95" s="4"/>
-      <c r="BE95" s="17"/>
+      <c r="BE95" s="16"/>
     </row>
     <row r="96" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="33"/>
@@ -8708,149 +8686,90 @@
       <c r="BE96" s="16"/>
     </row>
     <row r="97" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="37"/>
-      <c r="T97" s="37"/>
-      <c r="U97" s="37"/>
-      <c r="V97" s="37"/>
-      <c r="W97" s="37"/>
-      <c r="X97" s="37"/>
-      <c r="Y97" s="34"/>
-      <c r="Z97" s="34"/>
-      <c r="AA97" s="34"/>
-      <c r="AB97" s="4"/>
-      <c r="AC97" s="4"/>
-      <c r="AD97" s="4"/>
-      <c r="AE97" s="4"/>
-      <c r="AF97" s="4"/>
-      <c r="AG97" s="4"/>
-      <c r="AH97" s="4"/>
-      <c r="AI97" s="4"/>
-      <c r="AJ97" s="4"/>
-      <c r="AK97" s="4"/>
-      <c r="AL97" s="4"/>
-      <c r="AM97" s="4"/>
-      <c r="AN97" s="4"/>
-      <c r="AO97" s="4"/>
-      <c r="AP97" s="4"/>
-      <c r="AQ97" s="4"/>
-      <c r="AR97" s="4"/>
-      <c r="AS97" s="4"/>
-      <c r="AT97" s="4"/>
-      <c r="AU97" s="4"/>
-      <c r="AV97" s="4"/>
-      <c r="AW97" s="4"/>
-      <c r="AX97" s="4"/>
-      <c r="AY97" s="4"/>
-      <c r="AZ97" s="4"/>
-      <c r="BA97" s="4"/>
-      <c r="BB97" s="4"/>
-      <c r="BC97" s="4"/>
-      <c r="BD97" s="4"/>
-      <c r="BE97" s="16"/>
+      <c r="A97" s="94"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="96"/>
+      <c r="D97" s="96"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="96"/>
+      <c r="G97" s="96"/>
+      <c r="H97" s="96"/>
+      <c r="I97" s="96"/>
+      <c r="J97" s="96"/>
+      <c r="K97" s="96"/>
+      <c r="L97" s="96"/>
+      <c r="M97" s="96"/>
+      <c r="N97" s="96"/>
+      <c r="O97" s="96"/>
+      <c r="P97" s="96"/>
+      <c r="Q97" s="96"/>
+      <c r="R97" s="96"/>
+      <c r="S97" s="97"/>
+      <c r="T97" s="97"/>
+      <c r="U97" s="97"/>
+      <c r="V97" s="97"/>
+      <c r="W97" s="97"/>
+      <c r="X97" s="97"/>
+      <c r="Y97" s="95"/>
+      <c r="Z97" s="95"/>
+      <c r="AA97" s="95"/>
+      <c r="AB97" s="18"/>
+      <c r="AC97" s="18"/>
+      <c r="AD97" s="18"/>
+      <c r="AE97" s="18"/>
+      <c r="AF97" s="18"/>
+      <c r="AG97" s="18"/>
+      <c r="AH97" s="18"/>
+      <c r="AI97" s="18"/>
+      <c r="AJ97" s="18"/>
+      <c r="AK97" s="18"/>
+      <c r="AL97" s="18"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="18"/>
+      <c r="AO97" s="18"/>
+      <c r="AP97" s="18"/>
+      <c r="AQ97" s="18"/>
+      <c r="AR97" s="18"/>
+      <c r="AS97" s="18"/>
+      <c r="AT97" s="18"/>
+      <c r="AU97" s="18"/>
+      <c r="AV97" s="18"/>
+      <c r="AW97" s="18"/>
+      <c r="AX97" s="18"/>
+      <c r="AY97" s="18"/>
+      <c r="AZ97" s="18"/>
+      <c r="BA97" s="18"/>
+      <c r="BB97" s="18"/>
+      <c r="BC97" s="18"/>
+      <c r="BD97" s="18"/>
+      <c r="BE97" s="19"/>
     </row>
-    <row r="98" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="93"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="95"/>
-      <c r="D98" s="95"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95"/>
-      <c r="G98" s="95"/>
-      <c r="H98" s="95"/>
-      <c r="I98" s="95"/>
-      <c r="J98" s="95"/>
-      <c r="K98" s="95"/>
-      <c r="L98" s="95"/>
-      <c r="M98" s="95"/>
-      <c r="N98" s="95"/>
-      <c r="O98" s="95"/>
-      <c r="P98" s="95"/>
-      <c r="Q98" s="95"/>
-      <c r="R98" s="95"/>
-      <c r="S98" s="96"/>
-      <c r="T98" s="96"/>
-      <c r="U98" s="96"/>
-      <c r="V98" s="96"/>
-      <c r="W98" s="96"/>
-      <c r="X98" s="96"/>
-      <c r="Y98" s="94"/>
-      <c r="Z98" s="94"/>
-      <c r="AA98" s="94"/>
-      <c r="AB98" s="18"/>
-      <c r="AC98" s="18"/>
-      <c r="AD98" s="18"/>
-      <c r="AE98" s="18"/>
-      <c r="AF98" s="18"/>
-      <c r="AG98" s="18"/>
-      <c r="AH98" s="18"/>
-      <c r="AI98" s="18"/>
-      <c r="AJ98" s="18"/>
-      <c r="AK98" s="18"/>
-      <c r="AL98" s="18"/>
-      <c r="AM98" s="18"/>
-      <c r="AN98" s="18"/>
-      <c r="AO98" s="18"/>
-      <c r="AP98" s="18"/>
-      <c r="AQ98" s="18"/>
-      <c r="AR98" s="18"/>
-      <c r="AS98" s="18"/>
-      <c r="AT98" s="18"/>
-      <c r="AU98" s="18"/>
-      <c r="AV98" s="18"/>
-      <c r="AW98" s="18"/>
-      <c r="AX98" s="18"/>
-      <c r="AY98" s="18"/>
-      <c r="AZ98" s="18"/>
-      <c r="BA98" s="18"/>
-      <c r="BB98" s="18"/>
-      <c r="BC98" s="18"/>
-      <c r="BD98" s="18"/>
-      <c r="BE98" s="19"/>
-    </row>
+    <row r="98" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="659">
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="S89:U89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="Y89:AA89"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:O77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
+  <mergeCells count="652">
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:O88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="H64:O64"/>
@@ -8858,13 +8777,6 @@
     <mergeCell ref="S64:U64"/>
     <mergeCell ref="V64:X64"/>
     <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="H32:O32"/>
@@ -8879,39 +8791,39 @@
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:X33"/>
     <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="Y97:AA97"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="H96:O96"/>
-    <mergeCell ref="P96:R96"/>
-    <mergeCell ref="S96:U96"/>
-    <mergeCell ref="V96:X96"/>
+    <mergeCell ref="Y96:AA96"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="H95:O95"/>
+    <mergeCell ref="P95:R95"/>
+    <mergeCell ref="S95:U95"/>
+    <mergeCell ref="V95:X95"/>
+    <mergeCell ref="Y93:AA93"/>
     <mergeCell ref="Y94:AA94"/>
-    <mergeCell ref="Y95:AA95"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:O93"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="V93:X93"/>
     <mergeCell ref="H94:O94"/>
     <mergeCell ref="P94:R94"/>
     <mergeCell ref="S94:U94"/>
     <mergeCell ref="V94:X94"/>
-    <mergeCell ref="H95:O95"/>
-    <mergeCell ref="P95:R95"/>
-    <mergeCell ref="S95:U95"/>
-    <mergeCell ref="V95:X95"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="Y98:AA98"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="Y97:AA97"/>
     <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="H98:O98"/>
-    <mergeCell ref="P98:R98"/>
-    <mergeCell ref="S98:U98"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="Y96:AA96"/>
-    <mergeCell ref="H91:O91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="V91:X91"/>
-    <mergeCell ref="Y91:AA91"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:O97"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="S97:U97"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="Y95:AA95"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="Y90:AA90"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="H41:O41"/>
     <mergeCell ref="P41:R41"/>
@@ -8922,37 +8834,37 @@
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="V26:X26"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="H97:O97"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="S97:U97"/>
-    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="A97:B97"/>
     <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:O96"/>
+    <mergeCell ref="P96:R96"/>
+    <mergeCell ref="S96:U96"/>
+    <mergeCell ref="V96:X96"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H91:O91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="V91:X91"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H89:O89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="S89:U89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="Y91:AA91"/>
     <mergeCell ref="H92:O92"/>
     <mergeCell ref="P92:R92"/>
     <mergeCell ref="S92:U92"/>
     <mergeCell ref="V92:X92"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="Y92:AA92"/>
     <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="Y92:AA92"/>
-    <mergeCell ref="H93:O93"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="V93:X93"/>
-    <mergeCell ref="Y93:AA93"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="Y90:AA90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="Y89:AA89"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:O21"/>
     <mergeCell ref="P21:R21"/>
@@ -9265,13 +9177,20 @@
     <mergeCell ref="S52:U52"/>
     <mergeCell ref="V52:X52"/>
     <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="H88:O88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="Y88:AA88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:X87"/>
+    <mergeCell ref="Y87:AA87"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="H54:O54"/>
@@ -9335,13 +9254,13 @@
     <mergeCell ref="S62:U62"/>
     <mergeCell ref="V62:X62"/>
     <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="H66:O66"/>
@@ -9397,28 +9316,28 @@
     <mergeCell ref="P73:R73"/>
     <mergeCell ref="S73:U73"/>
     <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="Y74:AA74"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="C74:G74"/>
     <mergeCell ref="H74:O74"/>
     <mergeCell ref="P74:R74"/>
     <mergeCell ref="S74:U74"/>
     <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="Y73:AA73"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="C75:G75"/>
     <mergeCell ref="H75:O75"/>
     <mergeCell ref="P75:R75"/>
     <mergeCell ref="S75:U75"/>
     <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:G78"/>
     <mergeCell ref="H78:O78"/>
@@ -9461,6 +9380,13 @@
     <mergeCell ref="S83:U83"/>
     <mergeCell ref="V83:X83"/>
     <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:U86"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="Y86:AA86"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C84:G84"/>
     <mergeCell ref="H84:O84"/>
@@ -9468,13 +9394,6 @@
     <mergeCell ref="S84:U84"/>
     <mergeCell ref="V84:X84"/>
     <mergeCell ref="Y84:AA84"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="Y87:AA87"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="H85:O85"/>
@@ -9482,13 +9401,6 @@
     <mergeCell ref="S85:U85"/>
     <mergeCell ref="V85:X85"/>
     <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:U86"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="Y86:AA86"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
